--- a/RelatorioCarros.xlsx
+++ b/RelatorioCarros.xlsx
@@ -159,7 +159,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.701266473145E12</v>
+        <v>1.701269635364E12</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -168,7 +168,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2495343709292356</v>
+        <v>0.49804023823371696</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -177,21 +177,21 @@
         <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2755.144298632308</v>
+        <v>2884.665148995608</v>
       </c>
       <c r="H2" t="n">
-        <v>-43.18408266354606</v>
+        <v>-43.18408230692404</v>
       </c>
       <c r="I2" t="n">
-        <v>-22.972215436886728</v>
+        <v>-22.972215132185763</v>
       </c>
       <c r="J2" t="n">
-        <v>0.024955725671758938</v>
+        <v>0.07476431649624392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.701266475249E12</v>
+        <v>1.701269637984E12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -203,7 +203,7 @@
         <v>20.6064</v>
       </c>
       <c r="E3" t="n">
-        <v>6.727802532272319</v>
+        <v>8.818010536052155</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -212,18 +212,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.18303765452036</v>
+        <v>-43.18305306250289</v>
       </c>
       <c r="I3" t="n">
-        <v>-22.971322563213356</v>
+        <v>-22.971335717021102</v>
       </c>
       <c r="J3" t="n">
-        <v>145.97993645382115</v>
+        <v>143.8287533191384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.701266475737E12</v>
+        <v>1.701269638583E12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -235,7 +235,7 @@
         <v>20.6064</v>
       </c>
       <c r="E4" t="n">
-        <v>6.727802532272319</v>
+        <v>9.349661750085314</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -244,18 +244,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H4" t="n">
-        <v>-43.18266368256318</v>
+        <v>-43.18266438739335</v>
       </c>
       <c r="I4" t="n">
-        <v>-22.971039010804922</v>
+        <v>-22.971039489337283</v>
       </c>
       <c r="J4" t="n">
-        <v>195.61355640445328</v>
+        <v>195.52397969569074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.701266479407E12</v>
+        <v>1.701269642957E12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -267,7 +267,7 @@
         <v>7.1076</v>
       </c>
       <c r="E5" t="n">
-        <v>7.975518243436218</v>
+        <v>5.7793514576745055</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
@@ -276,18 +276,18 @@
         <v>6916.134687638218</v>
       </c>
       <c r="H5" t="n">
-        <v>-43.180324786547445</v>
+        <v>-43.180324496328396</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.969434870369604</v>
+        <v>-22.969435245637314</v>
       </c>
       <c r="J5" t="n">
-        <v>498.77715461625763</v>
+        <v>498.7290733936934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.701266480445E12</v>
+        <v>1.701269644096E12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -299,7 +299,7 @@
         <v>11.697199999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>6.368473468116777</v>
+        <v>9.26343388413872</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -308,18 +308,18 @@
         <v>10108.665098432879</v>
       </c>
       <c r="H6" t="n">
-        <v>-43.18058982680713</v>
+        <v>-43.180589812197816</v>
       </c>
       <c r="I6" t="n">
-        <v>-22.96945564242477</v>
+        <v>-22.969455633337162</v>
       </c>
       <c r="J6" t="n">
-        <v>533.4069537021282</v>
+        <v>533.4083230036513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.701266482092E12</v>
+        <v>1.701269645988E12</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -331,7 +331,7 @@
         <v>20.6064</v>
       </c>
       <c r="E7" t="n">
-        <v>6.184860135191002</v>
+        <v>6.08432132297313</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -340,18 +340,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H7" t="n">
-        <v>-43.18158240217782</v>
+        <v>-43.181582387914794</v>
       </c>
       <c r="I7" t="n">
-        <v>-22.970081128944422</v>
+        <v>-22.97008111940327</v>
       </c>
       <c r="J7" t="n">
-        <v>656.5563534339824</v>
+        <v>656.5577226140724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.701266483394E12</v>
+        <v>1.701269647441E12</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -363,7 +363,7 @@
         <v>20.6064</v>
       </c>
       <c r="E8" t="n">
-        <v>5.85851191357829</v>
+        <v>7.579029060178518</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -372,18 +372,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H8" t="n">
-        <v>-43.1823957790481</v>
+        <v>-43.18239576487466</v>
       </c>
       <c r="I8" t="n">
-        <v>-22.970626427419084</v>
+        <v>-22.97062641776776</v>
       </c>
       <c r="J8" t="n">
-        <v>759.5649510974017</v>
+        <v>759.566320436622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.70126648465E12</v>
+        <v>1.701269648883E12</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -395,7 +395,7 @@
         <v>20.6064</v>
       </c>
       <c r="E9" t="n">
-        <v>9.38328789675554</v>
+        <v>8.963300631495455</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -404,18 +404,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H9" t="n">
-        <v>-43.183150097914464</v>
+        <v>-43.18315008493587</v>
       </c>
       <c r="I9" t="n">
-        <v>-22.97117560358128</v>
+        <v>-22.971175592573214</v>
       </c>
       <c r="J9" t="n">
-        <v>858.1292081973016</v>
+        <v>858.1305789601196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.701266484842E12</v>
+        <v>1.701269649094E12</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -427,7 +427,7 @@
         <v>20.6064</v>
       </c>
       <c r="E10" t="n">
-        <v>9.38328789675554</v>
+        <v>8.963300631495455</v>
       </c>
       <c r="F10" t="n">
         <v>2.0</v>
@@ -436,18 +436,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H10" t="n">
-        <v>-43.18325371273268</v>
+        <v>-43.183253699768834</v>
       </c>
       <c r="I10" t="n">
-        <v>-22.971263539436904</v>
+        <v>-22.971263528437305</v>
       </c>
       <c r="J10" t="n">
-        <v>872.5561031281995</v>
+        <v>872.5574756375698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.701266486825E12</v>
+        <v>1.701269651329E12</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -459,7 +459,7 @@
         <v>20.6064</v>
       </c>
       <c r="E11" t="n">
-        <v>7.409284615359246</v>
+        <v>7.01171376316014</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -468,18 +468,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H11" t="n">
-        <v>-43.184288231204164</v>
+        <v>-43.184288218657755</v>
       </c>
       <c r="I11" t="n">
-        <v>-22.97214280584742</v>
+        <v>-22.97214279443907</v>
       </c>
       <c r="J11" t="n">
-        <v>1016.6968588067471</v>
+        <v>1016.6982302361607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.701266487225E12</v>
+        <v>1.701269651789E12</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -491,7 +491,7 @@
         <v>20.6064</v>
       </c>
       <c r="E12" t="n">
-        <v>9.343931036838526</v>
+        <v>7.124651239764587</v>
       </c>
       <c r="F12" t="n">
         <v>2.0</v>
@@ -500,18 +500,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H12" t="n">
-        <v>-43.18450637841677</v>
+        <v>-43.18450636663948</v>
       </c>
       <c r="I12" t="n">
-        <v>-22.972308479776018</v>
+        <v>-22.97230846769871</v>
       </c>
       <c r="J12" t="n">
-        <v>1047.09917906087</v>
+        <v>1047.1006045487522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.701266490457E12</v>
+        <v>1.701269656132E12</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -520,30 +520,30 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>16.179085933503742</v>
+        <v>13.829478260869452</v>
       </c>
       <c r="E13" t="n">
-        <v>6.910368001933806</v>
+        <v>8.082516660284695</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
       </c>
       <c r="G13" t="n">
-        <v>13545.429812253147</v>
+        <v>11704.393399272032</v>
       </c>
       <c r="H13" t="n">
-        <v>-43.18566960001802</v>
+        <v>-43.18567573858899</v>
       </c>
       <c r="I13" t="n">
-        <v>-22.9734586451217</v>
+        <v>-22.97346482814978</v>
       </c>
       <c r="J13" t="n">
-        <v>1223.5689378711734</v>
+        <v>1224.5036318128004</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.701266490634E12</v>
+        <v>1.701269656311E12</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -552,30 +552,30 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>17.47908593350375</v>
+        <v>15.129478260869451</v>
       </c>
       <c r="E14" t="n">
-        <v>6.910368001933806</v>
+        <v>8.082516660284695</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>14601.289789489303</v>
+        <v>12712.29788390971</v>
       </c>
       <c r="H14" t="n">
-        <v>-43.18572548474536</v>
+        <v>-43.185723896595874</v>
       </c>
       <c r="I14" t="n">
-        <v>-22.973514953316474</v>
+        <v>-22.97351335087028</v>
       </c>
       <c r="J14" t="n">
-        <v>1232.0504045980979</v>
+        <v>1231.8124273351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.701266492284E12</v>
+        <v>1.701269658233E12</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>20.6064</v>
       </c>
       <c r="E15" t="n">
-        <v>8.883544973563787</v>
+        <v>6.517603184767715</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -596,18 +596,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H15" t="n">
-        <v>-43.186386159889636</v>
+        <v>-43.18638677677115</v>
       </c>
       <c r="I15" t="n">
-        <v>-22.97424648386251</v>
+        <v>-22.97424728747332</v>
       </c>
       <c r="J15" t="n">
-        <v>1337.8768233445226</v>
+        <v>1337.9896761932193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.701266494555E12</v>
+        <v>1.701269660751E12</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>20.6064</v>
       </c>
       <c r="E16" t="n">
-        <v>6.202565823348534</v>
+        <v>5.844626715292375</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -628,18 +628,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H16" t="n">
-        <v>-43.187184468261854</v>
+        <v>-43.18718501021469</v>
       </c>
       <c r="I16" t="n">
-        <v>-22.975362627119342</v>
+        <v>-22.97536347405016</v>
       </c>
       <c r="J16" t="n">
-        <v>1486.5035811474716</v>
+        <v>1486.6163368041005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.701266495692E12</v>
+        <v>1.701269661943E12</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -651,7 +651,7 @@
         <v>20.6064</v>
       </c>
       <c r="E17" t="n">
-        <v>6.64181141698258</v>
+        <v>8.991660336126223</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -660,18 +660,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H17" t="n">
-        <v>-43.18752594559941</v>
+        <v>-43.18752646813861</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.9758878933238</v>
+        <v>-22.97588875080089</v>
       </c>
       <c r="J17" t="n">
-        <v>1554.5763869601547</v>
+        <v>1554.689164297274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.701266497366E12</v>
+        <v>1.701269663908E12</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -683,7 +683,7 @@
         <v>8.6128</v>
       </c>
       <c r="E18" t="n">
-        <v>7.341039108435765</v>
+        <v>8.076202746716424</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -698,12 +698,12 @@
         <v>-22.976402098279937</v>
       </c>
       <c r="J18" t="n">
-        <v>1627.4860446119494</v>
+        <v>1627.4871136564468</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.701266499644E12</v>
+        <v>1.701269666383E12</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
         <v>23.5532</v>
       </c>
       <c r="E19" t="n">
-        <v>8.503061212021748</v>
+        <v>9.387581628440401</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -730,12 +730,12 @@
         <v>-22.976302239307905</v>
       </c>
       <c r="J19" t="n">
-        <v>1743.1133906710727</v>
+        <v>1743.11445971557</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.701266502157E12</v>
+        <v>1.701269669143E12</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -744,16 +744,16 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>13.501853846153821</v>
+        <v>13.501853846153812</v>
       </c>
       <c r="E20" t="n">
-        <v>5.662545182409856</v>
+        <v>6.838550268426915</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
       </c>
       <c r="G20" t="n">
-        <v>11454.568548687828</v>
+        <v>11454.568548687821</v>
       </c>
       <c r="H20" t="n">
         <v>-43.189965552502095</v>
@@ -762,12 +762,12 @@
         <v>-22.97622286935667</v>
       </c>
       <c r="J20" t="n">
-        <v>1838.131606780375</v>
+        <v>1838.132675127923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.70126650413E12</v>
+        <v>1.70126967127E12</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -776,30 +776,30 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.253430545153562</v>
+        <v>0.24933526028716008</v>
       </c>
       <c r="E21" t="n">
-        <v>6.379490753839382</v>
+        <v>6.23928753217265</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
       </c>
       <c r="G21" t="n">
-        <v>2759.7622787006408</v>
+        <v>2754.910432637234</v>
       </c>
       <c r="H21" t="n">
-        <v>-43.184082660756204</v>
+        <v>-43.184082663688635</v>
       </c>
       <c r="I21" t="n">
-        <v>-22.97221543450305</v>
+        <v>-22.972215437008543</v>
       </c>
       <c r="J21" t="n">
-        <v>1946.4212886875894</v>
+        <v>1946.4219474691288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.701266508305E12</v>
+        <v>1.701269675873E12</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>18.240552</v>
       </c>
       <c r="E22" t="n">
-        <v>8.665943618951225</v>
+        <v>9.055374154858779</v>
       </c>
       <c r="F22" t="n">
         <v>2.0</v>
@@ -820,18 +820,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H22" t="n">
-        <v>-43.1830457853747</v>
+        <v>-43.183045990788706</v>
       </c>
       <c r="I22" t="n">
-        <v>-22.971329504530594</v>
+        <v>-22.9713296798927</v>
       </c>
       <c r="J22" t="n">
-        <v>2091.240692949636</v>
+        <v>2091.2130817370935</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.70126650938E12</v>
+        <v>1.701269677033E12</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>18.240552</v>
       </c>
       <c r="E23" t="n">
-        <v>6.851209192336644</v>
+        <v>6.864633111824306</v>
       </c>
       <c r="F23" t="n">
         <v>2.0</v>
@@ -852,18 +852,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H23" t="n">
-        <v>-43.18267422180016</v>
+        <v>-43.18267444717002</v>
       </c>
       <c r="I23" t="n">
-        <v>-22.971046166239187</v>
+        <v>-22.971046319250192</v>
       </c>
       <c r="J23" t="n">
-        <v>2140.6689814478955</v>
+        <v>2140.641425351634</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.701266516491E12</v>
+        <v>1.701269684794E12</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -875,7 +875,7 @@
         <v>6.3214179999999995</v>
       </c>
       <c r="E24" t="n">
-        <v>8.60836610334771</v>
+        <v>7.944362081647363</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -890,12 +890,12 @@
         <v>-22.969439066784908</v>
       </c>
       <c r="J24" t="n">
-        <v>2444.6177888742077</v>
+        <v>2444.6189019713083</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.701266522114E12</v>
+        <v>1.701269690406E12</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>2.8599999999999994</v>
       </c>
       <c r="E25" t="n">
-        <v>6.097235486564755</v>
+        <v>5.711624094190526</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -922,12 +922,12 @@
         <v>-22.969450466705744</v>
       </c>
       <c r="J25" t="n">
-        <v>2478.8113021293484</v>
+        <v>2478.812415131844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.701266525776E12</v>
+        <v>1.70126969441E12</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -939,7 +939,7 @@
         <v>18.240552</v>
       </c>
       <c r="E26" t="n">
-        <v>9.224507388365309</v>
+        <v>7.32092668321037</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -954,12 +954,12 @@
         <v>-22.970074881920493</v>
       </c>
       <c r="J26" t="n">
-        <v>2601.8070163486373</v>
+        <v>2601.8081293511323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.701266528167E12</v>
+        <v>1.701269696991E12</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -971,7 +971,7 @@
         <v>18.240552</v>
       </c>
       <c r="E27" t="n">
-        <v>8.38055974518877</v>
+        <v>8.216646226009331</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -980,18 +980,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H27" t="n">
-        <v>-43.18240820013603</v>
+        <v>-43.182393874732576</v>
       </c>
       <c r="I27" t="n">
-        <v>-22.970634885486767</v>
+        <v>-22.970625130686486</v>
       </c>
       <c r="J27" t="n">
-        <v>2707.5790389789845</v>
+        <v>2705.75601870916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.701266530443E12</v>
+        <v>1.701269699436E12</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>18.240552</v>
       </c>
       <c r="E28" t="n">
-        <v>7.582553358334607</v>
+        <v>7.576365461849678</v>
       </c>
       <c r="F28" t="n">
         <v>2.0</v>
@@ -1018,12 +1018,12 @@
         <v>-22.97118273918673</v>
       </c>
       <c r="J28" t="n">
-        <v>2805.7312557390787</v>
+        <v>2805.7323687415724</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.701266530746E12</v>
+        <v>1.701269699773E12</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1035,7 +1035,7 @@
         <v>18.240552</v>
       </c>
       <c r="E29" t="n">
-        <v>7.582553358334607</v>
+        <v>5.778084844529768</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -1050,12 +1050,12 @@
         <v>-22.971260575739702</v>
       </c>
       <c r="J29" t="n">
-        <v>2818.50080208841</v>
+        <v>2818.501915090904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.701266534188E12</v>
+        <v>1.701269703419E12</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>18.240552</v>
       </c>
       <c r="E30" t="n">
-        <v>7.8989090210294055</v>
+        <v>6.5735367835726795</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -1082,12 +1082,12 @@
         <v>-22.972138818953063</v>
       </c>
       <c r="J30" t="n">
-        <v>2962.4969541663936</v>
+        <v>2962.498066863912</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.701266534887E12</v>
+        <v>1.701269704182E12</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>18.240552</v>
       </c>
       <c r="E31" t="n">
-        <v>6.519740581010082</v>
+        <v>5.461202715522827</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -1114,12 +1114,12 @@
         <v>-22.97230650713765</v>
       </c>
       <c r="J31" t="n">
-        <v>2993.343912087653</v>
+        <v>2993.3450247851715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.701266539106E12</v>
+        <v>1.701269708685E12</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1131,7 +1131,7 @@
         <v>18.240552</v>
       </c>
       <c r="E32" t="n">
-        <v>6.777067947760363</v>
+        <v>8.533863529525766</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -1146,12 +1146,12 @@
         <v>-22.97347122374239</v>
       </c>
       <c r="J32" t="n">
-        <v>3172.115863913039</v>
+        <v>3172.1169756763898</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.701266539304E12</v>
+        <v>1.701269708887E12</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>18.240552</v>
       </c>
       <c r="E33" t="n">
-        <v>6.72027004275902</v>
+        <v>6.041133312241654</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -1178,12 +1178,12 @@
         <v>-22.97351967914897</v>
       </c>
       <c r="J33" t="n">
-        <v>3179.4152759731883</v>
+        <v>3179.416387736539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.701266541804E12</v>
+        <v>1.701269711597E12</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1195,7 +1195,7 @@
         <v>18.240552</v>
       </c>
       <c r="E34" t="n">
-        <v>6.152002296057115</v>
+        <v>9.490637466731304</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -1210,12 +1210,12 @@
         <v>-22.97425440773751</v>
       </c>
       <c r="J34" t="n">
-        <v>3285.608539090974</v>
+        <v>3285.609650854325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.701266545414E12</v>
+        <v>1.701269715463E12</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>18.240552</v>
       </c>
       <c r="E35" t="n">
-        <v>6.982043125180821</v>
+        <v>8.674525909962538</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -1242,12 +1242,12 @@
         <v>-22.97535206330237</v>
       </c>
       <c r="J35" t="n">
-        <v>3431.793141031814</v>
+        <v>3431.794252795165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.701266547127E12</v>
+        <v>1.701269717299E12</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>18.240552</v>
       </c>
       <c r="E36" t="n">
-        <v>7.592984309554602</v>
+        <v>9.325887361443327</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -1274,12 +1274,12 @@
         <v>-22.97588749586378</v>
       </c>
       <c r="J36" t="n">
-        <v>3501.1787007101893</v>
+        <v>3501.1798124735406</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.701266549759E12</v>
+        <v>1.701269720085E12</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1291,7 +1291,7 @@
         <v>7.653804</v>
       </c>
       <c r="E37" t="n">
-        <v>5.468531649815857</v>
+        <v>6.664389916407127</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -1306,12 +1306,12 @@
         <v>-22.976401837294052</v>
       </c>
       <c r="J37" t="n">
-        <v>3574.285335327629</v>
+        <v>3574.2864470909803</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.70126655303E12</v>
+        <v>1.701269723495E12</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1323,7 +1323,7 @@
         <v>20.849026</v>
       </c>
       <c r="E38" t="n">
-        <v>5.8701752779264265</v>
+        <v>9.201410207917041</v>
       </c>
       <c r="F38" t="n">
         <v>2.0</v>
@@ -1338,12 +1338,12 @@
         <v>-22.97630247800425</v>
       </c>
       <c r="J38" t="n">
-        <v>3689.490255477003</v>
+        <v>3689.4906486868526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.701266556373E12</v>
+        <v>1.70126972703E12</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1355,7 +1355,7 @@
         <v>13.52174139130433</v>
       </c>
       <c r="E39" t="n">
-        <v>6.2983523703010675</v>
+        <v>9.175287109197933</v>
       </c>
       <c r="F39" t="n">
         <v>2.0</v>
@@ -1370,12 +1370,12 @@
         <v>-22.97622284442363</v>
       </c>
       <c r="J39" t="n">
-        <v>3784.824363831621</v>
+        <v>3784.824757041471</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.701266558972E12</v>
+        <v>1.701269729773E12</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1384,30 +1384,30 @@
         <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2546975165675394</v>
+        <v>0.25396032736683266</v>
       </c>
       <c r="E40" t="n">
-        <v>6.214457361121718</v>
+        <v>9.176677280568002</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2761.2810724484593</v>
+        <v>2760.396338949678</v>
       </c>
       <c r="H40" t="n">
-        <v>-43.18408265984898</v>
+        <v>-43.18408266037685</v>
       </c>
       <c r="I40" t="n">
-        <v>-22.972215433727914</v>
+        <v>-22.972215434178928</v>
       </c>
       <c r="J40" t="n">
-        <v>3891.6499370836427</v>
+        <v>3891.650256567384</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.701266563913E12</v>
+        <v>1.701269735229E12</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1419,7 +1419,7 @@
         <v>19.642176</v>
       </c>
       <c r="E41" t="n">
-        <v>7.652974814591952</v>
+        <v>6.0098743021944525</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -1428,18 +1428,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H41" t="n">
-        <v>-43.183046146356844</v>
+        <v>-43.18304618597444</v>
       </c>
       <c r="I41" t="n">
-        <v>-22.97132981270136</v>
+        <v>-22.971329846522934</v>
       </c>
       <c r="J41" t="n">
-        <v>4036.4188164556845</v>
+        <v>4036.4136784650577</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.701266565026E12</v>
+        <v>1.701269736562E12</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1451,7 +1451,7 @@
         <v>19.642176</v>
       </c>
       <c r="E42" t="n">
-        <v>7.5057620213828935</v>
+        <v>6.168267216409021</v>
       </c>
       <c r="F42" t="n">
         <v>2.0</v>
@@ -1460,18 +1460,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H42" t="n">
-        <v>-43.182675750325274</v>
+        <v>-43.182675793791695</v>
       </c>
       <c r="I42" t="n">
-        <v>-22.97104720400511</v>
+        <v>-22.97104723351589</v>
       </c>
       <c r="J42" t="n">
-        <v>4085.7029917217515</v>
+        <v>4085.697697987271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.701266573126E12</v>
+        <v>1.701269745175E12</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1483,7 +1483,7 @@
         <v>6.787184</v>
       </c>
       <c r="E43" t="n">
-        <v>8.940028479930803</v>
+        <v>8.852395520636634</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -1492,18 +1492,18 @@
         <v>6705.602987690254</v>
       </c>
       <c r="H43" t="n">
-        <v>-43.180324056921776</v>
+        <v>-43.18032283973089</v>
       </c>
       <c r="I43" t="n">
-        <v>-22.96943581381201</v>
+        <v>-22.969437387700577</v>
       </c>
       <c r="J43" t="n">
-        <v>4390.275833952824</v>
+        <v>4390.048772538012</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.701266575189E12</v>
+        <v>1.7012697474E12</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1515,7 +1515,7 @@
         <v>11.628847999999996</v>
       </c>
       <c r="E44" t="n">
-        <v>7.717862803066539</v>
+        <v>6.7647841467996646</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -1524,18 +1524,18 @@
         <v>10058.693442674647</v>
       </c>
       <c r="H44" t="n">
-        <v>-43.180590012968516</v>
+        <v>-43.18059175837725</v>
       </c>
       <c r="I44" t="n">
-        <v>-22.969455758225</v>
+        <v>-22.969456843942815</v>
       </c>
       <c r="J44" t="n">
-        <v>4425.089642292252</v>
+        <v>4425.25184713448</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.701266578405E12</v>
+        <v>1.701269750725E12</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1547,7 +1547,7 @@
         <v>19.642176</v>
       </c>
       <c r="E45" t="n">
-        <v>7.910764632921626</v>
+        <v>6.51156379869118</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -1556,18 +1556,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H45" t="n">
-        <v>-43.18156974284216</v>
+        <v>-43.181571446879026</v>
       </c>
       <c r="I45" t="n">
-        <v>-22.970072660572995</v>
+        <v>-22.97007380047619</v>
       </c>
       <c r="J45" t="n">
-        <v>4546.614070895232</v>
+        <v>4546.7762483311235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.701266580867E12</v>
+        <v>1.70126975331E12</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1579,7 +1579,7 @@
         <v>19.642176</v>
       </c>
       <c r="E46" t="n">
-        <v>9.49210444013498</v>
+        <v>9.108385444534271</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -1588,18 +1588,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H46" t="n">
-        <v>-43.1823916146155</v>
+        <v>-43.182393307949624</v>
       </c>
       <c r="I46" t="n">
-        <v>-22.970623591672886</v>
+        <v>-22.970624744738927</v>
       </c>
       <c r="J46" t="n">
-        <v>4650.694387083857</v>
+        <v>4650.856545460818</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.701266583278E12</v>
+        <v>1.701269755808E12</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1611,7 +1611,7 @@
         <v>19.642176</v>
       </c>
       <c r="E47" t="n">
-        <v>8.724430317708437</v>
+        <v>8.413966609181104</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -1620,18 +1620,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H47" t="n">
-        <v>-43.18315537735977</v>
+        <v>-43.18315692794289</v>
       </c>
       <c r="I47" t="n">
-        <v>-22.971180081452946</v>
+        <v>-22.971181396612366</v>
       </c>
       <c r="J47" t="n">
-        <v>4750.523018969435</v>
+        <v>4750.6844070095185</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.701266583618E12</v>
+        <v>1.701269756153E12</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>19.642176</v>
       </c>
       <c r="E48" t="n">
-        <v>6.410866650609478</v>
+        <v>5.7946233646067045</v>
       </c>
       <c r="F48" t="n">
         <v>2.0</v>
@@ -1652,18 +1652,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H48" t="n">
-        <v>-43.18325413772266</v>
+        <v>-43.183255686543816</v>
       </c>
       <c r="I48" t="n">
-        <v>-22.971263900033453</v>
+        <v>-22.971265214181052</v>
       </c>
       <c r="J48" t="n">
-        <v>4764.274196646629</v>
+        <v>4764.435375693442</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.701266587026E12</v>
+        <v>1.701269759717E12</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -1675,7 +1675,7 @@
         <v>19.642176</v>
       </c>
       <c r="E49" t="n">
-        <v>7.145271792008258</v>
+        <v>6.999872713923217</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -1684,18 +1684,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H49" t="n">
-        <v>-43.1842826851903</v>
+        <v>-43.184284184139074</v>
       </c>
       <c r="I49" t="n">
-        <v>-22.972137762901575</v>
+        <v>-22.97213912588365</v>
       </c>
       <c r="J49" t="n">
-        <v>4907.557796034212</v>
+        <v>4907.718997168721</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.701266587711E12</v>
+        <v>1.701269760445E12</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1707,7 +1707,7 @@
         <v>19.642176</v>
       </c>
       <c r="E50" t="n">
-        <v>5.902441015024933</v>
+        <v>6.745962632584362</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -1716,18 +1716,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H50" t="n">
-        <v>-43.18450518125726</v>
+        <v>-43.18450658831742</v>
       </c>
       <c r="I50" t="n">
-        <v>-22.972307252119503</v>
+        <v>-22.972308695023777</v>
       </c>
       <c r="J50" t="n">
-        <v>4938.619450035963</v>
+        <v>4938.774144144874</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.701266591875E12</v>
+        <v>1.701269764707E12</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -1739,7 +1739,7 @@
         <v>19.642176</v>
       </c>
       <c r="E51" t="n">
-        <v>6.322187310162175</v>
+        <v>7.7103372569253805</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -1748,18 +1748,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H51" t="n">
-        <v>-43.185681786717154</v>
+        <v>-43.18568320636275</v>
       </c>
       <c r="I51" t="n">
-        <v>-22.973470941250763</v>
+        <v>-22.97347237614709</v>
       </c>
       <c r="J51" t="n">
-        <v>5117.168737126896</v>
+        <v>5117.323637153268</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.701266592054E12</v>
+        <v>1.701269764895E12</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1771,7 +1771,7 @@
         <v>19.642176</v>
       </c>
       <c r="E52" t="n">
-        <v>6.322187310162175</v>
+        <v>7.7103372569253805</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
@@ -1780,18 +1780,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H52" t="n">
-        <v>-43.18573358053858</v>
+        <v>-43.18573500024949</v>
       </c>
       <c r="I52" t="n">
-        <v>-22.97352312198894</v>
+        <v>-22.973524554480242</v>
       </c>
       <c r="J52" t="n">
-        <v>5125.02887530545</v>
+        <v>5125.183577061991</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.701266594448E12</v>
+        <v>1.701269767477E12</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -1803,7 +1803,7 @@
         <v>19.642176</v>
       </c>
       <c r="E53" t="n">
-        <v>8.326230943103422</v>
+        <v>8.389918607360249</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -1812,18 +1812,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H53" t="n">
-        <v>-43.18638562127509</v>
+        <v>-43.18638683786558</v>
       </c>
       <c r="I53" t="n">
-        <v>-22.974245782209994</v>
+        <v>-22.974247367060958</v>
       </c>
       <c r="J53" t="n">
-        <v>5229.529995906345</v>
+        <v>5229.684808309813</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.701266597758E12</v>
+        <v>1.701269770947E12</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -1835,7 +1835,7 @@
         <v>19.642176</v>
       </c>
       <c r="E54" t="n">
-        <v>7.29545526622991</v>
+        <v>9.117863266703731</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -1844,18 +1844,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H54" t="n">
-        <v>-43.18717879127182</v>
+        <v>-43.18717986009079</v>
       </c>
       <c r="I54" t="n">
-        <v>-22.975353755465818</v>
+        <v>-22.975355425750855</v>
       </c>
       <c r="J54" t="n">
-        <v>5377.107523114031</v>
+        <v>5377.262023373302</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.701266599288E12</v>
+        <v>1.701269772536E12</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -1867,7 +1867,7 @@
         <v>19.642176</v>
       </c>
       <c r="E55" t="n">
-        <v>6.219153422040185</v>
+        <v>8.73938178352665</v>
       </c>
       <c r="F55" t="n">
         <v>2.0</v>
@@ -1876,18 +1876,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H55" t="n">
-        <v>-43.18752403988953</v>
+        <v>-43.18752507042166</v>
       </c>
       <c r="I55" t="n">
-        <v>-22.97588476608942</v>
+        <v>-22.975886457173424</v>
       </c>
       <c r="J55" t="n">
-        <v>5445.926549041726</v>
+        <v>5446.081104079522</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.701266601613E12</v>
+        <v>1.701269774987E12</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -1899,7 +1899,7 @@
         <v>8.221952</v>
       </c>
       <c r="E56" t="n">
-        <v>5.391435811293138</v>
+        <v>6.7747964499079165</v>
       </c>
       <c r="F56" t="n">
         <v>2.0</v>
@@ -1914,12 +1914,12 @@
         <v>-22.976401621014087</v>
       </c>
       <c r="J56" t="n">
-        <v>5519.488651406751</v>
+        <v>5519.427593204893</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.701266604582E12</v>
+        <v>1.701269778089E12</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1931,7 +1931,7 @@
         <v>22.451088</v>
       </c>
       <c r="E57" t="n">
-        <v>8.15149789197812</v>
+        <v>6.8796333714984</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -1946,12 +1946,12 @@
         <v>-22.97630301968294</v>
       </c>
       <c r="J57" t="n">
-        <v>5633.93241131307</v>
+        <v>5633.87135310888</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.701266608203E12</v>
+        <v>1.701269782428E12</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -1960,30 +1960,30 @@
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>11.95384927999999</v>
+        <v>11.263849279999972</v>
       </c>
       <c r="E58" t="n">
-        <v>6.047664496261799</v>
+        <v>7.094613813396455</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
       </c>
       <c r="G58" t="n">
-        <v>10296.954320821182</v>
+        <v>9793.08715657093</v>
       </c>
       <c r="H58" t="n">
-        <v>-43.18997172518194</v>
+        <v>-43.18997128949449</v>
       </c>
       <c r="I58" t="n">
-        <v>-22.976222339268965</v>
+        <v>-22.976222376684248</v>
       </c>
       <c r="J58" t="n">
-        <v>5730.520448857262</v>
+        <v>5730.4145948836685</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.701266610778E12</v>
+        <v>1.701269785205E12</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -1992,30 +1992,30 @@
         <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25632536699739283</v>
+        <v>0.2594932300685905</v>
       </c>
       <c r="E59" t="n">
-        <v>8.514710063884797</v>
+        <v>8.067762462314427</v>
       </c>
       <c r="F59" t="n">
         <v>2.0</v>
       </c>
       <c r="G59" t="n">
-        <v>2763.244793751324</v>
+        <v>2767.105995352028</v>
       </c>
       <c r="H59" t="n">
-        <v>-43.184082658683366</v>
+        <v>-43.184082656415015</v>
       </c>
       <c r="I59" t="n">
-        <v>-22.972215432731996</v>
+        <v>-22.9722154307939</v>
       </c>
       <c r="J59" t="n">
-        <v>5837.8540253449255</v>
+        <v>5830.417107860902</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.70126661564E12</v>
+        <v>1.701269790433E12</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2027,7 +2027,7 @@
         <v>21.047688</v>
       </c>
       <c r="E60" t="n">
-        <v>7.15872422651896</v>
+        <v>7.991039300535519</v>
       </c>
       <c r="F60" t="n">
         <v>2.0</v>
@@ -2036,18 +2036,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H60" t="n">
-        <v>-43.183042729597915</v>
+        <v>-43.18304254800275</v>
       </c>
       <c r="I60" t="n">
-        <v>-22.971326895811366</v>
+        <v>-22.97132674078342</v>
       </c>
       <c r="J60" t="n">
-        <v>5983.099771319905</v>
+        <v>5975.687890382192</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.701266616711E12</v>
+        <v>1.701269791519E12</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2059,7 +2059,7 @@
         <v>21.047688</v>
       </c>
       <c r="E61" t="n">
-        <v>7.599334070159121</v>
+        <v>9.558837525689393</v>
       </c>
       <c r="F61" t="n">
         <v>2.0</v>
@@ -2068,18 +2068,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H61" t="n">
-        <v>-43.18267747143247</v>
+        <v>-43.182677272195434</v>
       </c>
       <c r="I61" t="n">
-        <v>-22.97104837252133</v>
+        <v>-22.971048237252763</v>
       </c>
       <c r="J61" t="n">
-        <v>6031.68773119654</v>
+        <v>6024.275814954762</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.701266624139E12</v>
+        <v>1.701269799477E12</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2091,7 +2091,7 @@
         <v>7.254242</v>
       </c>
       <c r="E62" t="n">
-        <v>9.099219795829322</v>
+        <v>9.192176221644228</v>
       </c>
       <c r="F62" t="n">
         <v>2.0</v>
@@ -2100,18 +2100,18 @@
         <v>7013.024546096211</v>
       </c>
       <c r="H62" t="n">
-        <v>-43.18032539912328</v>
+        <v>-43.18032554262777</v>
       </c>
       <c r="I62" t="n">
-        <v>-22.96943407827848</v>
+        <v>-22.96943389272</v>
       </c>
       <c r="J62" t="n">
-        <v>6336.713872471509</v>
+        <v>6329.300961989289</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.70126662603E12</v>
+        <v>1.701269801463E12</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2123,7 +2123,7 @@
         <v>11.847473999999997</v>
       </c>
       <c r="E63" t="n">
-        <v>7.6070006135636845</v>
+        <v>6.590944378533418</v>
       </c>
       <c r="F63" t="n">
         <v>2.0</v>
@@ -2132,18 +2132,18 @@
         <v>10218.78724174052</v>
       </c>
       <c r="H63" t="n">
-        <v>-43.180588672665046</v>
+        <v>-43.18058876920805</v>
       </c>
       <c r="I63" t="n">
-        <v>-22.969454924499733</v>
+        <v>-22.969454984553554</v>
       </c>
       <c r="J63" t="n">
-        <v>6371.102927511996</v>
+        <v>6363.678094539423</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.701266628923E12</v>
+        <v>1.701269804633E12</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2155,7 +2155,7 @@
         <v>21.047688</v>
       </c>
       <c r="E64" t="n">
-        <v>7.871663127701603</v>
+        <v>5.900702714317404</v>
       </c>
       <c r="F64" t="n">
         <v>2.0</v>
@@ -2164,18 +2164,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H64" t="n">
-        <v>-43.181580108809506</v>
+        <v>-43.18158020306413</v>
       </c>
       <c r="I64" t="n">
-        <v>-22.970079594812205</v>
+        <v>-22.970079657863156</v>
       </c>
       <c r="J64" t="n">
-        <v>6494.1047098038325</v>
+        <v>6486.679874501436</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.701266631139E12</v>
+        <v>1.701269806992E12</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2187,7 +2187,7 @@
         <v>21.047688</v>
       </c>
       <c r="E65" t="n">
-        <v>7.982397750333634</v>
+        <v>6.2628932116267615</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -2196,18 +2196,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H65" t="n">
-        <v>-43.18239429856915</v>
+        <v>-43.18239439223178</v>
       </c>
       <c r="I65" t="n">
-        <v>-22.97062541929554</v>
+        <v>-22.970625483074564</v>
       </c>
       <c r="J65" t="n">
-        <v>6597.215007498956</v>
+        <v>6589.7901712019575</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.701266633243E12</v>
+        <v>1.701269809224E12</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2219,7 +2219,7 @@
         <v>21.047688</v>
       </c>
       <c r="E66" t="n">
-        <v>7.320831703001379</v>
+        <v>7.730589812593021</v>
       </c>
       <c r="F66" t="n">
         <v>2.0</v>
@@ -2228,18 +2228,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H66" t="n">
-        <v>-43.183163975214015</v>
+        <v>-43.183164060980715</v>
       </c>
       <c r="I66" t="n">
-        <v>-22.971187373902378</v>
+        <v>-22.9711874466472</v>
       </c>
       <c r="J66" t="n">
-        <v>6697.897711674127</v>
+        <v>6690.472913255832</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.701266633535E12</v>
+        <v>1.70126980951E12</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2251,7 +2251,7 @@
         <v>21.047688</v>
       </c>
       <c r="E67" t="n">
-        <v>5.5759188080794715</v>
+        <v>7.730589812593021</v>
       </c>
       <c r="F67" t="n">
         <v>2.0</v>
@@ -2260,18 +2260,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H67" t="n">
-        <v>-43.183254673906546</v>
+        <v>-43.183254759575796</v>
       </c>
       <c r="I67" t="n">
-        <v>-22.971264354976082</v>
+        <v>-22.971264427664934</v>
       </c>
       <c r="J67" t="n">
-        <v>6710.526737778912</v>
+        <v>6703.10192781934</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.701266636631E12</v>
+        <v>1.701269812653E12</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2283,7 +2283,7 @@
         <v>21.047688</v>
       </c>
       <c r="E68" t="n">
-        <v>6.422969438285231</v>
+        <v>5.4806474691056115</v>
       </c>
       <c r="F68" t="n">
         <v>2.0</v>
@@ -2292,18 +2292,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H68" t="n">
-        <v>-43.18428137150352</v>
+        <v>-43.184281454414204</v>
       </c>
       <c r="I68" t="n">
-        <v>-22.97213656837675</v>
+        <v>-22.972136643766763</v>
       </c>
       <c r="J68" t="n">
-        <v>6853.546765299491</v>
+        <v>6846.121953348641</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.701266637267E12</v>
+        <v>1.701269813314E12</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2315,7 +2315,7 @@
         <v>21.047688</v>
       </c>
       <c r="E69" t="n">
-        <v>6.422969438285231</v>
+        <v>6.630803911999478</v>
       </c>
       <c r="F69" t="n">
         <v>2.0</v>
@@ -2324,18 +2324,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H69" t="n">
-        <v>-43.18450397093751</v>
+        <v>-43.1845040487656</v>
       </c>
       <c r="I69" t="n">
-        <v>-22.9723060109675</v>
+        <v>-22.972306090778215</v>
       </c>
       <c r="J69" t="n">
-        <v>6884.5606728337425</v>
+        <v>6877.13551256573</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.701266644745E12</v>
+        <v>1.701269820608E12</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2347,7 +2347,7 @@
         <v>13.520000000000039</v>
       </c>
       <c r="E70" t="n">
-        <v>5.497254174173548</v>
+        <v>8.809458450672278</v>
       </c>
       <c r="F70" t="n">
         <v>2.0</v>
@@ -2362,12 +2362,12 @@
         <v>-22.973465453949366</v>
       </c>
       <c r="J70" t="n">
-        <v>7062.404884075429</v>
+        <v>7054.967800653455</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.701266644973E12</v>
+        <v>1.701269820844E12</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>14.820000000000038</v>
       </c>
       <c r="E71" t="n">
-        <v>5.497254174173548</v>
+        <v>8.809458450672278</v>
       </c>
       <c r="F71" t="n">
         <v>2.0</v>
@@ -2394,12 +2394,12 @@
         <v>-22.973512947561186</v>
       </c>
       <c r="J71" t="n">
-        <v>7069.55884344262</v>
+        <v>7062.1217600206455</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.701266647418E12</v>
+        <v>1.701269823433E12</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2411,7 +2411,7 @@
         <v>21.047688</v>
       </c>
       <c r="E72" t="n">
-        <v>9.217466238347868</v>
+        <v>6.139055075752525</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -2426,12 +2426,12 @@
         <v>-22.97425221304825</v>
       </c>
       <c r="J72" t="n">
-        <v>7176.466880508501</v>
+        <v>7169.029797086527</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.701266650593E12</v>
+        <v>1.701269826791E12</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2443,7 +2443,7 @@
         <v>21.047688</v>
       </c>
       <c r="E73" t="n">
-        <v>6.107159198930968</v>
+        <v>5.583241955695064</v>
       </c>
       <c r="F73" t="n">
         <v>2.0</v>
@@ -2458,12 +2458,12 @@
         <v>-22.975360668505594</v>
       </c>
       <c r="J73" t="n">
-        <v>7324.06084435625</v>
+        <v>7316.623760934275</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.701266652039E12</v>
+        <v>1.701269828332E12</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2475,7 +2475,7 @@
         <v>21.047688</v>
       </c>
       <c r="E74" t="n">
-        <v>5.23668102232034</v>
+        <v>7.001993998557597</v>
       </c>
       <c r="F74" t="n">
         <v>2.0</v>
@@ -2490,12 +2490,12 @@
         <v>-22.975880823883266</v>
       </c>
       <c r="J74" t="n">
-        <v>7391.48507479195</v>
+        <v>7384.0479913699755</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.701266654444E12</v>
+        <v>1.701269830936E12</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2507,7 +2507,7 @@
         <v>8.791675999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>9.597648409344472</v>
+        <v>6.650231760619041</v>
       </c>
       <c r="F75" t="n">
         <v>2.0</v>
@@ -2522,12 +2522,12 @@
         <v>-22.976401618295483</v>
       </c>
       <c r="J75" t="n">
-        <v>7465.554595371128</v>
+        <v>7458.117511949154</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.701266657448E12</v>
+        <v>1.701269834119E12</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>24.057593999999998</v>
       </c>
       <c r="E76" t="n">
-        <v>7.823099573723587</v>
+        <v>8.765614417548576</v>
       </c>
       <c r="F76" t="n">
         <v>2.0</v>
@@ -2554,12 +2554,12 @@
         <v>-22.97630278171148</v>
       </c>
       <c r="J76" t="n">
-        <v>7580.28256997283</v>
+        <v>7572.845486550857</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.701266662996E12</v>
+        <v>1.701269840051E12</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2571,7 +2571,7 @@
         <v>10.919999999999993</v>
       </c>
       <c r="E77" t="n">
-        <v>5.484217850513121</v>
+        <v>9.37318484757795</v>
       </c>
       <c r="F77" t="n">
         <v>2.0</v>
@@ -2586,12 +2586,12 @@
         <v>-22.976223292088612</v>
       </c>
       <c r="J77" t="n">
-        <v>7675.444648481376</v>
+        <v>7668.007565059402</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.701266667177E12</v>
+        <v>1.701269842974E12</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -2600,30 +2600,30 @@
         <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25138716703280806</v>
+        <v>0.24776501540560275</v>
       </c>
       <c r="E78" t="n">
-        <v>7.326295036253267</v>
+        <v>9.483977941632794</v>
       </c>
       <c r="F78" t="n">
         <v>2.0</v>
       </c>
       <c r="G78" t="n">
-        <v>2757.3304455673656</v>
+        <v>2753.073360823088</v>
       </c>
       <c r="H78" t="n">
-        <v>-43.18408266221936</v>
+        <v>-43.184082664813005</v>
       </c>
       <c r="I78" t="n">
-        <v>-22.972215435753185</v>
+        <v>-22.97221543796922</v>
       </c>
       <c r="J78" t="n">
-        <v>7784.878234485464</v>
+        <v>7770.222509435509</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.701266672156E12</v>
+        <v>1.70126984832E12</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>20.029032</v>
       </c>
       <c r="E79" t="n">
-        <v>6.950287917574743</v>
+        <v>6.358288623351374</v>
       </c>
       <c r="F79" t="n">
         <v>2.0</v>
@@ -2644,18 +2644,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H79" t="n">
-        <v>-43.183036556558356</v>
+        <v>-43.18303675640886</v>
       </c>
       <c r="I79" t="n">
-        <v>-22.971321625882258</v>
+        <v>-22.9713217964948</v>
       </c>
       <c r="J79" t="n">
-        <v>7930.98632148157</v>
+        <v>7916.303056574378</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.701266673233E12</v>
+        <v>1.701269849501E12</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -2667,7 +2667,7 @@
         <v>20.029032</v>
       </c>
       <c r="E80" t="n">
-        <v>6.4459744101734975</v>
+        <v>6.694978133234727</v>
       </c>
       <c r="F80" t="n">
         <v>2.0</v>
@@ -2676,18 +2676,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H80" t="n">
-        <v>-43.18267337169036</v>
+        <v>-43.182673590956234</v>
       </c>
       <c r="I80" t="n">
-        <v>-22.971045589071718</v>
+        <v>-22.971045737938518</v>
       </c>
       <c r="J80" t="n">
-        <v>7979.234320010762</v>
+        <v>7964.5510178756485</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.701266680962E12</v>
+        <v>1.701269857778E12</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -2699,7 +2699,7 @@
         <v>6.915737999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>6.358756672464384</v>
+        <v>8.110848051654756</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -2714,12 +2714,12 @@
         <v>-22.96943697756417</v>
       </c>
       <c r="J81" t="n">
-        <v>8283.357389266635</v>
+        <v>8268.701354131965</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.701266683512E12</v>
+        <v>1.701269862105E12</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -2728,30 +2728,30 @@
         <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>3.6099498823529306</v>
+        <v>2.8599999999999994</v>
       </c>
       <c r="E82" t="n">
-        <v>5.46404769007045</v>
+        <v>7.157333392519471</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
       </c>
       <c r="G82" t="n">
-        <v>4705.213736422087</v>
+        <v>4256.164415555553</v>
       </c>
       <c r="H82" t="n">
-        <v>-43.18058357033254</v>
+        <v>-43.18058150627943</v>
       </c>
       <c r="I82" t="n">
-        <v>-22.9694517506338</v>
+        <v>-22.969450466705744</v>
       </c>
       <c r="J82" t="n">
-        <v>8317.503084430009</v>
+        <v>8302.592027124196</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.701266687478E12</v>
+        <v>1.701269866283E12</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -2763,7 +2763,7 @@
         <v>20.029032</v>
       </c>
       <c r="E83" t="n">
-        <v>6.866591116204911</v>
+        <v>8.21822572795296</v>
       </c>
       <c r="F83" t="n">
         <v>2.0</v>
@@ -2772,18 +2772,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H83" t="n">
-        <v>-43.181576189371455</v>
+        <v>-43.18156785491092</v>
       </c>
       <c r="I83" t="n">
-        <v>-22.970076972932347</v>
+        <v>-22.970071397654987</v>
       </c>
       <c r="J83" t="n">
-        <v>8440.639284272242</v>
+        <v>8424.92860924731</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.70126668982E12</v>
+        <v>1.701269868727E12</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -2795,7 +2795,7 @@
         <v>20.029032</v>
       </c>
       <c r="E84" t="n">
-        <v>5.333553442665384</v>
+        <v>5.204134518870481</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -2804,18 +2804,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H84" t="n">
-        <v>-43.18239839317994</v>
+        <v>-43.182390111066624</v>
       </c>
       <c r="I84" t="n">
-        <v>-22.970628207496972</v>
+        <v>-22.970622567840017</v>
       </c>
       <c r="J84" t="n">
-        <v>8544.766966614801</v>
+        <v>8529.056383122861</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.701266692003E12</v>
+        <v>1.701269871086E12</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -2827,7 +2827,7 @@
         <v>20.029032</v>
       </c>
       <c r="E85" t="n">
-        <v>7.723564075737576</v>
+        <v>5.680645230649248</v>
       </c>
       <c r="F85" t="n">
         <v>2.0</v>
@@ -2836,18 +2836,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H85" t="n">
-        <v>-43.183161369182315</v>
+        <v>-43.18315378526554</v>
       </c>
       <c r="I85" t="n">
-        <v>-22.97118516354223</v>
+        <v>-22.971178731085015</v>
       </c>
       <c r="J85" t="n">
-        <v>8644.56579946244</v>
+        <v>8628.85449471004</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.701266692259E12</v>
+        <v>1.701269871422E12</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -2859,7 +2859,7 @@
         <v>20.029032</v>
       </c>
       <c r="E86" t="n">
-        <v>7.723564075737576</v>
+        <v>5.207264380514083</v>
       </c>
       <c r="F86" t="n">
         <v>2.0</v>
@@ -2868,18 +2868,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H86" t="n">
-        <v>-43.18324768041388</v>
+        <v>-43.1832544926851</v>
       </c>
       <c r="I86" t="n">
-        <v>-22.971258421120137</v>
+        <v>-22.97126420121286</v>
       </c>
       <c r="J86" t="n">
-        <v>8656.583937370195</v>
+        <v>8642.876705891627</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.70126669548E12</v>
+        <v>1.701269874785E12</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -2891,7 +2891,7 @@
         <v>20.029032</v>
       </c>
       <c r="E87" t="n">
-        <v>8.784038986893346</v>
+        <v>8.50563726321087</v>
       </c>
       <c r="F87" t="n">
         <v>2.0</v>
@@ -2900,18 +2900,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H87" t="n">
-        <v>-43.18428214445521</v>
+        <v>-43.184288737369826</v>
       </c>
       <c r="I87" t="n">
-        <v>-22.97213727121551</v>
+        <v>-22.972143266099785</v>
       </c>
       <c r="J87" t="n">
-        <v>8800.68874999787</v>
+        <v>8786.981791192486</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.701266696101E12</v>
+        <v>1.70126987549E12</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -2923,7 +2923,7 @@
         <v>20.029032</v>
       </c>
       <c r="E88" t="n">
-        <v>8.784038986893346</v>
+        <v>7.58158149855231</v>
       </c>
       <c r="F88" t="n">
         <v>2.0</v>
@@ -2932,18 +2932,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H88" t="n">
-        <v>-43.18449538983225</v>
+        <v>-43.18450157858778</v>
       </c>
       <c r="I88" t="n">
-        <v>-22.972297211263136</v>
+        <v>-22.97230355767393</v>
       </c>
       <c r="J88" t="n">
-        <v>8830.356763767013</v>
+        <v>8816.621167651678</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.70126670007E12</v>
+        <v>1.701269879582E12</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>20.029032</v>
       </c>
       <c r="E89" t="n">
-        <v>7.150168400950644</v>
+        <v>5.380507430420309</v>
       </c>
       <c r="F89" t="n">
         <v>2.0</v>
@@ -2964,18 +2964,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H89" t="n">
-        <v>-43.185681644503696</v>
+        <v>-43.18567470100361</v>
       </c>
       <c r="I89" t="n">
-        <v>-22.973470797509563</v>
+        <v>-22.973463779418005</v>
       </c>
       <c r="J89" t="n">
-        <v>9010.366555784725</v>
+        <v>8994.62700044168</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.701266700261E12</v>
+        <v>1.701269879786E12</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -2987,7 +2987,7 @@
         <v>20.029032</v>
       </c>
       <c r="E90" t="n">
-        <v>7.150168400950644</v>
+        <v>5.380507430420309</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -2996,18 +2996,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H90" t="n">
-        <v>-43.18573445722775</v>
+        <v>-43.18572751340823</v>
       </c>
       <c r="I90" t="n">
-        <v>-22.973524006570166</v>
+        <v>-22.973517000241593</v>
       </c>
       <c r="J90" t="n">
-        <v>9018.381466349103</v>
+        <v>9002.642863132518</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.701266702666E12</v>
+        <v>1.701269882462E12</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3019,7 +3019,7 @@
         <v>20.029032</v>
       </c>
       <c r="E91" t="n">
-        <v>6.524867597909803</v>
+        <v>6.3913530773809</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -3028,18 +3028,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H91" t="n">
-        <v>-43.18638664017839</v>
+        <v>-43.1863919911799</v>
       </c>
       <c r="I91" t="n">
-        <v>-22.974247109534097</v>
+        <v>-22.97425408027736</v>
       </c>
       <c r="J91" t="n">
-        <v>9122.9308518047</v>
+        <v>9109.194463338965</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.701266706094E12</v>
+        <v>1.70126988605E12</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>20.029032</v>
       </c>
       <c r="E92" t="n">
-        <v>7.081395789325282</v>
+        <v>9.106184922062514</v>
       </c>
       <c r="F92" t="n">
         <v>2.0</v>
@@ -3060,18 +3060,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H92" t="n">
-        <v>-43.18718414048067</v>
+        <v>-43.187178912876966</v>
       </c>
       <c r="I92" t="n">
-        <v>-22.975362114882913</v>
+        <v>-22.97535394550291</v>
       </c>
       <c r="J92" t="n">
-        <v>9271.40632343987</v>
+        <v>9255.666439074848</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.701266707603E12</v>
+        <v>1.70126988769E12</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3083,7 +3083,7 @@
         <v>20.029032</v>
       </c>
       <c r="E93" t="n">
-        <v>7.880134138580461</v>
+        <v>6.681217411556397</v>
       </c>
       <c r="F93" t="n">
         <v>2.0</v>
@@ -3092,18 +3092,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H93" t="n">
-        <v>-43.18752609599123</v>
+        <v>-43.18752105564882</v>
       </c>
       <c r="I93" t="n">
-        <v>-22.97588814011398</v>
+        <v>-22.975879869006043</v>
       </c>
       <c r="J93" t="n">
-        <v>9339.576697353781</v>
+        <v>9323.836656448442</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.701266709923E12</v>
+        <v>1.701269890235E12</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3115,7 +3115,7 @@
         <v>8.378764</v>
       </c>
       <c r="E94" t="n">
-        <v>6.092489705807525</v>
+        <v>7.098615850447173</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -3124,18 +3124,18 @@
         <v>7767.244184571964</v>
       </c>
       <c r="H94" t="n">
-        <v>-43.18791926208547</v>
+        <v>-43.18791423631572</v>
       </c>
       <c r="I94" t="n">
-        <v>-22.976401717021556</v>
+        <v>-22.976402726277215</v>
       </c>
       <c r="J94" t="n">
-        <v>9412.672825193156</v>
+        <v>9397.442145196726</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.701266712968E12</v>
+        <v>1.701269893457E12</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3147,7 +3147,7 @@
         <v>22.893265999999997</v>
       </c>
       <c r="E95" t="n">
-        <v>8.100293624525966</v>
+        <v>6.019544430731072</v>
       </c>
       <c r="F95" t="n">
         <v>2.0</v>
@@ -3156,18 +3156,18 @@
         <v>3768.5187396742563</v>
       </c>
       <c r="H95" t="n">
-        <v>-43.1890458786515</v>
+        <v>-43.18904075686043</v>
       </c>
       <c r="I95" t="n">
-        <v>-22.976301856079676</v>
+        <v>-22.976302295525173</v>
       </c>
       <c r="J95" t="n">
-        <v>9528.561058629462</v>
+        <v>9513.329708838839</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.7012667161E12</v>
+        <v>1.701269896804E12</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3176,30 +3176,30 @@
         <v>15</v>
       </c>
       <c r="D96" t="n">
-        <v>13.47197686274504</v>
+        <v>13.576264599999986</v>
       </c>
       <c r="E96" t="n">
-        <v>5.536613210649827</v>
+        <v>5.388625675108096</v>
       </c>
       <c r="F96" t="n">
         <v>2.0</v>
       </c>
       <c r="G96" t="n">
-        <v>11431.870170692933</v>
+        <v>11511.16139178586</v>
       </c>
       <c r="H96" t="n">
-        <v>-43.1899651163311</v>
+        <v>-43.18996663881701</v>
       </c>
       <c r="I96" t="n">
-        <v>-22.976222906813476</v>
+        <v>-22.97622277606782</v>
       </c>
       <c r="J96" t="n">
-        <v>9623.075189059919</v>
+        <v>9608.526985000437</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.701266719443E12</v>
+        <v>1.701269900162E12</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3208,30 +3208,30 @@
         <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>0.24911098612379284</v>
+        <v>0.25073545590136204</v>
       </c>
       <c r="E97" t="n">
-        <v>9.281830790398853</v>
+        <v>5.89860785327434</v>
       </c>
       <c r="F97" t="n">
         <v>2.0</v>
       </c>
       <c r="G97" t="n">
-        <v>2754.6472590131375</v>
+        <v>2756.559433521535</v>
       </c>
       <c r="H97" t="n">
-        <v>-43.184082663849225</v>
+        <v>-43.18408266268602</v>
       </c>
       <c r="I97" t="n">
-        <v>-22.972215437145753</v>
+        <v>-22.972215436151902</v>
       </c>
       <c r="J97" t="n">
-        <v>9730.12911884564</v>
+        <v>9715.952183255216</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.701266724989E12</v>
+        <v>1.701269906037E12</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3240,30 +3240,30 @@
         <v>16</v>
       </c>
       <c r="D98" t="n">
-        <v>10.80364973936152</v>
+        <v>11.27807638894761</v>
       </c>
       <c r="E98" t="n">
-        <v>6.743678545782047</v>
+        <v>5.943966491246026</v>
       </c>
       <c r="F98" t="n">
         <v>2.0</v>
       </c>
       <c r="G98" t="n">
-        <v>6386.7562499418445</v>
+        <v>7084.930881342023</v>
       </c>
       <c r="H98" t="n">
-        <v>-43.18304992774032</v>
+        <v>-43.18304775978857</v>
       </c>
       <c r="I98" t="n">
-        <v>-22.971333040871638</v>
+        <v>-22.97133119008939</v>
       </c>
       <c r="J98" t="n">
-        <v>9874.370624780204</v>
+        <v>9860.496204313862</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.701266726591E12</v>
+        <v>1.701269907628E12</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3275,7 +3275,7 @@
         <v>16.15464</v>
       </c>
       <c r="E99" t="n">
-        <v>7.361320147730521</v>
+        <v>7.381620589143305</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -3284,18 +3284,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H99" t="n">
-        <v>-43.18267601552818</v>
+        <v>-43.182678831542034</v>
       </c>
       <c r="I99" t="n">
-        <v>-22.971047384060075</v>
+        <v>-22.971049295944404</v>
       </c>
       <c r="J99" t="n">
-        <v>9924.14989355209</v>
+        <v>9909.614048437401</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.701266735606E12</v>
+        <v>1.701269917205E12</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3307,7 +3307,7 @@
         <v>5.628259999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>5.741427926264991</v>
+        <v>5.408676138367397</v>
       </c>
       <c r="F100" t="n">
         <v>2.0</v>
@@ -3316,18 +3316,18 @@
         <v>5957.581786315545</v>
       </c>
       <c r="H100" t="n">
-        <v>-43.180321340727794</v>
+        <v>-43.180323220041366</v>
       </c>
       <c r="I100" t="n">
-        <v>-22.969439325986393</v>
+        <v>-22.96943689594015</v>
       </c>
       <c r="J100" t="n">
-        <v>10228.288545806725</v>
+        <v>10214.452992395669</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.701266737835E12</v>
+        <v>1.701269919537E12</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3339,7 +3339,7 @@
         <v>10.961219999999996</v>
       </c>
       <c r="E101" t="n">
-        <v>5.8906767168956256</v>
+        <v>8.020587906705753</v>
       </c>
       <c r="F101" t="n">
         <v>2.0</v>
@@ -3348,18 +3348,18 @@
         <v>9574.452594746153</v>
       </c>
       <c r="H101" t="n">
-        <v>-43.18058977624469</v>
+        <v>-43.18059213226921</v>
       </c>
       <c r="I101" t="n">
-        <v>-22.969455610972798</v>
+        <v>-22.969457076519383</v>
       </c>
       <c r="J101" t="n">
-        <v>10263.536826512442</v>
+        <v>10249.669558021153</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.70126674125E12</v>
+        <v>1.701269923101E12</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3371,7 +3371,7 @@
         <v>16.15464</v>
       </c>
       <c r="E102" t="n">
-        <v>8.715819786121891</v>
+        <v>9.433114563585562</v>
       </c>
       <c r="F102" t="n">
         <v>2.0</v>
@@ -3380,18 +3380,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H102" t="n">
-        <v>-43.181565258847016</v>
+        <v>-43.18156755902611</v>
       </c>
       <c r="I102" t="n">
-        <v>-22.97006966103674</v>
+        <v>-22.970071199724977</v>
       </c>
       <c r="J102" t="n">
-        <v>10384.523112509642</v>
+        <v>10370.655826273112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.701266744112E12</v>
+        <v>1.701269926056E12</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3403,7 +3403,7 @@
         <v>16.15464</v>
       </c>
       <c r="E103" t="n">
-        <v>5.80237297421321</v>
+        <v>6.729724860338248</v>
       </c>
       <c r="F103" t="n">
         <v>2.0</v>
@@ -3412,18 +3412,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H103" t="n">
-        <v>-43.18238155259344</v>
+        <v>-43.18238383832553</v>
       </c>
       <c r="I103" t="n">
-        <v>-22.970616739997407</v>
+        <v>-22.970618296453395</v>
       </c>
       <c r="J103" t="n">
-        <v>10487.889616406119</v>
+        <v>10474.022301981946</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.701266746863E12</v>
+        <v>1.701269928903E12</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3435,7 +3435,7 @@
         <v>16.15464</v>
       </c>
       <c r="E104" t="n">
-        <v>5.924578566664644</v>
+        <v>6.730916743573911</v>
       </c>
       <c r="F104" t="n">
         <v>2.0</v>
@@ -3444,18 +3444,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H104" t="n">
-        <v>-43.18315766380611</v>
+        <v>-43.18314813918974</v>
       </c>
       <c r="I104" t="n">
-        <v>-22.971182020750106</v>
+        <v>-22.971173942248043</v>
       </c>
       <c r="J104" t="n">
-        <v>10589.318637872222</v>
+        <v>10573.834384036656</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.701266747227E12</v>
+        <v>1.701269929335E12</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>16.15464</v>
       </c>
       <c r="E105" t="n">
-        <v>5.924578566664644</v>
+        <v>6.730916743573911</v>
       </c>
       <c r="F105" t="n">
         <v>2.0</v>
@@ -3476,18 +3476,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H105" t="n">
-        <v>-43.183250489473586</v>
+        <v>-43.183252580136106</v>
       </c>
       <c r="I105" t="n">
-        <v>-22.971260804558057</v>
+        <v>-22.971262578448563</v>
       </c>
       <c r="J105" t="n">
-        <v>10602.243636472074</v>
+        <v>10588.376247328466</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.701266751106E12</v>
+        <v>1.701269933848E12</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3499,7 +3499,7 @@
         <v>16.15464</v>
       </c>
       <c r="E106" t="n">
-        <v>7.845316001602251</v>
+        <v>8.029796910296048</v>
       </c>
       <c r="F106" t="n">
         <v>2.0</v>
@@ -3508,18 +3508,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H106" t="n">
-        <v>-43.18428185467051</v>
+        <v>-43.18428387801325</v>
       </c>
       <c r="I106" t="n">
-        <v>-22.972137007716604</v>
+        <v>-22.972138847525898</v>
       </c>
       <c r="J106" t="n">
-        <v>10745.915659090664</v>
+        <v>10732.048443993383</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.701266751893E12</v>
+        <v>1.701269934608E12</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3531,7 +3531,7 @@
         <v>16.15464</v>
       </c>
       <c r="E107" t="n">
-        <v>5.480769940577892</v>
+        <v>6.4882623662955545</v>
       </c>
       <c r="F107" t="n">
         <v>2.0</v>
@@ -3540,18 +3540,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H107" t="n">
-        <v>-43.18450188976161</v>
+        <v>-43.18449324674977</v>
       </c>
       <c r="I107" t="n">
-        <v>-22.97230387677475</v>
+        <v>-22.972295013586766</v>
       </c>
       <c r="J107" t="n">
-        <v>10776.764988108505</v>
+        <v>10761.325241790391</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.701266756966E12</v>
+        <v>1.701269940001E12</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3563,7 +3563,7 @@
         <v>16.15464</v>
       </c>
       <c r="E108" t="n">
-        <v>6.089475493474583</v>
+        <v>6.4726397646062175</v>
       </c>
       <c r="F108" t="n">
         <v>2.0</v>
@@ -3572,18 +3572,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H108" t="n">
-        <v>-43.18567389626018</v>
+        <v>-43.18567581255621</v>
       </c>
       <c r="I108" t="n">
-        <v>-22.973462966029505</v>
+        <v>-22.97346490291161</v>
       </c>
       <c r="J108" t="n">
-        <v>10954.78517276407</v>
+        <v>10940.961230225632</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.701266757194E12</v>
+        <v>1.701269940281E12</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3595,7 +3595,7 @@
         <v>16.15464</v>
       </c>
       <c r="E109" t="n">
-        <v>6.089475493474583</v>
+        <v>6.4726397646062175</v>
       </c>
       <c r="F109" t="n">
         <v>2.0</v>
@@ -3604,18 +3604,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H109" t="n">
-        <v>-43.18572714128016</v>
+        <v>-43.18572905766435</v>
       </c>
       <c r="I109" t="n">
-        <v>-22.97351662476358</v>
+        <v>-22.973518558399284</v>
       </c>
       <c r="J109" t="n">
-        <v>10962.866865729704</v>
+        <v>10949.04265253874</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.701266760187E12</v>
+        <v>1.701269943426E12</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -3627,7 +3627,7 @@
         <v>16.15464</v>
       </c>
       <c r="E110" t="n">
-        <v>8.655762606204876</v>
+        <v>8.769408511097566</v>
       </c>
       <c r="F110" t="n">
         <v>2.0</v>
@@ -3636,18 +3636,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H110" t="n">
-        <v>-43.18638519071277</v>
+        <v>-43.18638683291667</v>
       </c>
       <c r="I110" t="n">
-        <v>-22.97424522131697</v>
+        <v>-22.974247360614015</v>
       </c>
       <c r="J110" t="n">
-        <v>11068.269392878072</v>
+        <v>11054.445605163253</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.701266764289E12</v>
+        <v>1.70126994764E12</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -3659,7 +3659,7 @@
         <v>16.15464</v>
       </c>
       <c r="E111" t="n">
-        <v>5.967137462396325</v>
+        <v>6.519571113224032</v>
       </c>
       <c r="F111" t="n">
         <v>2.0</v>
@@ -3668,18 +3668,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H111" t="n">
-        <v>-43.18717688077788</v>
+        <v>-43.1871783235137</v>
       </c>
       <c r="I111" t="n">
-        <v>-22.975350769862494</v>
+        <v>-22.975353024481972</v>
       </c>
       <c r="J111" t="n">
-        <v>11215.53791986498</v>
+        <v>11201.713786783383</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.701266766194E12</v>
+        <v>1.70126994964E12</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -3691,7 +3691,7 @@
         <v>16.15464</v>
       </c>
       <c r="E112" t="n">
-        <v>6.639223240879005</v>
+        <v>7.153556521695687</v>
       </c>
       <c r="F112" t="n">
         <v>2.0</v>
@@ -3700,18 +3700,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H112" t="n">
-        <v>-43.187517905177515</v>
+        <v>-43.187519296232175</v>
       </c>
       <c r="I112" t="n">
-        <v>-22.97587469914136</v>
+        <v>-22.975876981836137</v>
       </c>
       <c r="J112" t="n">
-        <v>11283.458841392257</v>
+        <v>11269.634727936073</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.701266769079E12</v>
+        <v>1.701269952694E12</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>6.808279999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>9.098715688839347</v>
+        <v>5.888966565337998</v>
       </c>
       <c r="F113" t="n">
         <v>2.0</v>
@@ -3732,18 +3732,18 @@
         <v>6719.414701872323</v>
       </c>
       <c r="H113" t="n">
-        <v>-43.18791805891381</v>
+        <v>-43.187918251017045</v>
       </c>
       <c r="I113" t="n">
-        <v>-22.97640195863784</v>
+        <v>-22.97640192006041</v>
       </c>
       <c r="J113" t="n">
-        <v>11358.141612053607</v>
+        <v>11344.047243301571</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.701266772579E12</v>
+        <v>1.701269956386E12</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -3755,7 +3755,7 @@
         <v>18.46482</v>
       </c>
       <c r="E114" t="n">
-        <v>6.146324979212354</v>
+        <v>8.04762425067552</v>
       </c>
       <c r="F114" t="n">
         <v>2.0</v>
@@ -3764,18 +3764,18 @@
         <v>2905.366011636562</v>
       </c>
       <c r="H114" t="n">
-        <v>-43.1890339473117</v>
+        <v>-43.18903414308522</v>
       </c>
       <c r="I114" t="n">
-        <v>-22.9763028797789</v>
+        <v>-22.97630286298169</v>
       </c>
       <c r="J114" t="n">
-        <v>11472.929575059445</v>
+        <v>11458.835084047858</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.701266777546E12</v>
+        <v>1.701269961748E12</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -3787,7 +3787,7 @@
         <v>10.919999999999993</v>
       </c>
       <c r="E115" t="n">
-        <v>7.368371706607892</v>
+        <v>5.483323093234592</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -3802,12 +3802,12 @@
         <v>-22.976223292088612</v>
       </c>
       <c r="J115" t="n">
-        <v>11568.209172565408</v>
+        <v>11554.094552658993</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.701266780686E12</v>
+        <v>1.701269964982E12</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3816,30 +3816,30 @@
         <v>17</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0</v>
+        <v>0.2551087826807052</v>
       </c>
       <c r="E116" t="n">
-        <v>8.507195976884493</v>
+        <v>7.442909768796502</v>
       </c>
       <c r="F116" t="n">
         <v>2.0</v>
       </c>
       <c r="G116" t="n">
-        <v>2624.722222222222</v>
+        <v>2761.7758860659246</v>
       </c>
       <c r="H116" t="n">
-        <v>-43.1840828422253</v>
+        <v>-43.1840826595545</v>
       </c>
       <c r="I116" t="n">
-        <v>-22.97221558955183</v>
+        <v>-22.972215433476304</v>
       </c>
       <c r="J116" t="n">
-        <v>11675.82040366108</v>
+        <v>11661.731296972446</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.701266786054E12</v>
+        <v>1.701269970727E12</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -3851,7 +3851,7 @@
         <v>20.330352</v>
       </c>
       <c r="E117" t="n">
-        <v>8.958005899748787</v>
+        <v>6.262220772878116</v>
       </c>
       <c r="F117" t="n">
         <v>2.0</v>
@@ -3860,18 +3860,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H117" t="n">
-        <v>-43.18304334419725</v>
+        <v>-43.183043617572665</v>
       </c>
       <c r="I117" t="n">
-        <v>-22.97132742049534</v>
+        <v>-22.97132765387616</v>
       </c>
       <c r="J117" t="n">
-        <v>11821.00597765311</v>
+        <v>11806.853190508094</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.701266787218E12</v>
+        <v>1.701269971913E12</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -3883,7 +3883,7 @@
         <v>20.330352</v>
       </c>
       <c r="E118" t="n">
-        <v>7.095193163992266</v>
+        <v>6.053559897860688</v>
       </c>
       <c r="F118" t="n">
         <v>2.0</v>
@@ -3892,18 +3892,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H118" t="n">
-        <v>-43.18267513345131</v>
+        <v>-43.18267543338499</v>
       </c>
       <c r="I118" t="n">
-        <v>-22.971046785189106</v>
+        <v>-22.97104698882394</v>
       </c>
       <c r="J118" t="n">
-        <v>11869.97706588966</v>
+        <v>11855.824206358326</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.701266795298E12</v>
+        <v>1.701269980434E12</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -3915,7 +3915,7 @@
         <v>7.015868</v>
       </c>
       <c r="E119" t="n">
-        <v>6.344492373685858</v>
+        <v>9.594960266733443</v>
       </c>
       <c r="F119" t="n">
         <v>2.0</v>
@@ -3930,12 +3930,12 @@
         <v>-22.969435877849833</v>
       </c>
       <c r="J119" t="n">
-        <v>12174.464477816138</v>
+        <v>12160.349769908738</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.701266797445E12</v>
+        <v>1.701269982635E12</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -3947,7 +3947,7 @@
         <v>11.863195999999997</v>
       </c>
       <c r="E120" t="n">
-        <v>5.844023050904335</v>
+        <v>7.779164451243721</v>
       </c>
       <c r="F120" t="n">
         <v>2.0</v>
@@ -3962,12 +3962,12 @@
         <v>-22.96945994723488</v>
       </c>
       <c r="J120" t="n">
-        <v>12210.091027953942</v>
+        <v>12195.976320046542</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.701266800644E12</v>
+        <v>1.701269986006E12</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -3979,7 +3979,7 @@
         <v>20.330352</v>
       </c>
       <c r="E121" t="n">
-        <v>5.941529366783839</v>
+        <v>6.439076949620324</v>
       </c>
       <c r="F121" t="n">
         <v>2.0</v>
@@ -3994,12 +3994,12 @@
         <v>-22.97007281127681</v>
       </c>
       <c r="J121" t="n">
-        <v>12330.811966729936</v>
+        <v>12316.697258822536</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.701266803107E12</v>
+        <v>1.701269988591E12</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4011,7 +4011,7 @@
         <v>20.330352</v>
       </c>
       <c r="E122" t="n">
-        <v>5.896958289775086</v>
+        <v>8.085319583259295</v>
       </c>
       <c r="F122" t="n">
         <v>2.0</v>
@@ -4026,12 +4026,12 @@
         <v>-22.970621504764935</v>
       </c>
       <c r="J122" t="n">
-        <v>12434.473525662348</v>
+        <v>12420.35881775495</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.701266807558E12</v>
+        <v>1.701269992954E12</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4040,30 +4040,30 @@
         <v>17</v>
       </c>
       <c r="D123" t="n">
-        <v>13.427701725490165</v>
+        <v>13.617701725490162</v>
       </c>
       <c r="E123" t="n">
-        <v>7.710448697419457</v>
+        <v>6.940173179330795</v>
       </c>
       <c r="F123" t="n">
         <v>2.0</v>
       </c>
       <c r="G123" t="n">
-        <v>11398.258885747608</v>
+        <v>11542.713938328076</v>
       </c>
       <c r="H123" t="n">
-        <v>-43.18314838978821</v>
+        <v>-43.183148666371956</v>
       </c>
       <c r="I123" t="n">
-        <v>-22.971174154798362</v>
+        <v>-22.971174389388636</v>
       </c>
       <c r="J123" t="n">
-        <v>12533.720474227253</v>
+        <v>12519.644300910484</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.70126680805E12</v>
+        <v>1.701269993425E12</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4072,30 +4072,30 @@
         <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>16.027701725490164</v>
+        <v>15.95770172549016</v>
       </c>
       <c r="E124" t="n">
-        <v>7.710448697419457</v>
+        <v>6.940173179330795</v>
       </c>
       <c r="F124" t="n">
         <v>2.0</v>
       </c>
       <c r="G124" t="n">
-        <v>13424.200336848859</v>
+        <v>13368.265524319131</v>
       </c>
       <c r="H124" t="n">
-        <v>-43.18325511853405</v>
+        <v>-43.18324510988616</v>
       </c>
       <c r="I124" t="n">
-        <v>-22.97126473223472</v>
+        <v>-22.971256240072425</v>
       </c>
       <c r="J124" t="n">
-        <v>12548.580852135456</v>
+        <v>12533.072767263106</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.701266811687E12</v>
+        <v>1.701269997349E12</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4107,7 +4107,7 @@
         <v>20.330352</v>
       </c>
       <c r="E125" t="n">
-        <v>5.936248586895957</v>
+        <v>7.906139826445404</v>
       </c>
       <c r="F125" t="n">
         <v>2.0</v>
@@ -4116,18 +4116,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H125" t="n">
-        <v>-43.18428114842921</v>
+        <v>-43.18428481719867</v>
       </c>
       <c r="I125" t="n">
-        <v>-22.972136365537065</v>
+        <v>-22.97213970151966</v>
       </c>
       <c r="J125" t="n">
-        <v>12691.50686524229</v>
+        <v>12677.919961417268</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.701266812387E12</v>
+        <v>1.7012699981E12</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4139,7 +4139,7 @@
         <v>20.330352</v>
       </c>
       <c r="E126" t="n">
-        <v>5.936248586895957</v>
+        <v>7.7039465613125815</v>
       </c>
       <c r="F126" t="n">
         <v>2.0</v>
@@ -4148,18 +4148,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H126" t="n">
-        <v>-43.18449720779288</v>
+        <v>-43.184500651659306</v>
       </c>
       <c r="I126" t="n">
-        <v>-22.972299075535346</v>
+        <v>-22.972302607132445</v>
       </c>
       <c r="J126" t="n">
-        <v>12721.575897916604</v>
+        <v>12707.973280676688</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.701266816687E12</v>
+        <v>1.701270002738E12</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4171,7 +4171,7 @@
         <v>20.330352</v>
       </c>
       <c r="E127" t="n">
-        <v>6.826807996440927</v>
+        <v>9.179733892940952</v>
       </c>
       <c r="F127" t="n">
         <v>2.0</v>
@@ -4180,18 +4180,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H127" t="n">
-        <v>-43.18567436400343</v>
+        <v>-43.18567783867347</v>
       </c>
       <c r="I127" t="n">
-        <v>-22.973463438797552</v>
+        <v>-22.9734669507947</v>
       </c>
       <c r="J127" t="n">
-        <v>12900.186206675686</v>
+        <v>12886.584083956172</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.701266816874E12</v>
+        <v>1.701270002938E12</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>20.330352</v>
       </c>
       <c r="E128" t="n">
-        <v>6.826807996440927</v>
+        <v>9.116583987633724</v>
       </c>
       <c r="F128" t="n">
         <v>2.0</v>
@@ -4212,18 +4212,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H128" t="n">
-        <v>-43.185727970015265</v>
+        <v>-43.18573144484516</v>
       </c>
       <c r="I128" t="n">
-        <v>-22.973517460959055</v>
+        <v>-22.97352096706976</v>
       </c>
       <c r="J128" t="n">
-        <v>12908.322653388253</v>
+        <v>12894.720060039273</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.701266819448E12</v>
+        <v>1.701270005601E12</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4235,7 +4235,7 @@
         <v>20.330352</v>
       </c>
       <c r="E129" t="n">
-        <v>8.446277692230561</v>
+        <v>6.234128036717934</v>
       </c>
       <c r="F129" t="n">
         <v>2.0</v>
@@ -4244,18 +4244,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H129" t="n">
-        <v>-43.18638992211348</v>
+        <v>-43.186392899793624</v>
       </c>
       <c r="I129" t="n">
-        <v>-22.974251384907006</v>
+        <v>-22.97425526392737</v>
       </c>
       <c r="J129" t="n">
-        <v>13014.437956534886</v>
+        <v>13000.83655363501</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.701266822994E12</v>
+        <v>1.701270009348E12</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -4267,7 +4267,7 @@
         <v>20.330352</v>
       </c>
       <c r="E130" t="n">
-        <v>5.655443660730953</v>
+        <v>9.145876680544715</v>
       </c>
       <c r="F130" t="n">
         <v>2.0</v>
@@ -4276,18 +4276,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H130" t="n">
-        <v>-43.187177920988844</v>
+        <v>-43.187180536989096</v>
       </c>
       <c r="I130" t="n">
-        <v>-22.9753523954407</v>
+        <v>-22.975356483566227</v>
       </c>
       <c r="J130" t="n">
-        <v>13161.076851432073</v>
+        <v>13147.474998452271</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.701266824677E12</v>
+        <v>1.701270011084E12</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -4299,7 +4299,7 @@
         <v>20.330352</v>
       </c>
       <c r="E131" t="n">
-        <v>7.476294871995114</v>
+        <v>6.667057468610658</v>
       </c>
       <c r="F131" t="n">
         <v>2.0</v>
@@ -4308,18 +4308,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H131" t="n">
-        <v>-43.18752499589182</v>
+        <v>-43.18752751818268</v>
       </c>
       <c r="I131" t="n">
-        <v>-22.975886334871355</v>
+        <v>-22.97589047390363</v>
       </c>
       <c r="J131" t="n">
-        <v>13230.271430518673</v>
+        <v>13216.669707804243</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.701266827131E12</v>
+        <v>1.701270013678E12</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -4331,7 +4331,7 @@
         <v>8.500904</v>
       </c>
       <c r="E132" t="n">
-        <v>7.849088241534595</v>
+        <v>5.817630748280565</v>
       </c>
       <c r="F132" t="n">
         <v>2.0</v>
@@ -4346,12 +4346,12 @@
         <v>-22.97640239853453</v>
       </c>
       <c r="J132" t="n">
-        <v>13303.22171182422</v>
+        <v>13289.09226026709</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.701266830398E12</v>
+        <v>1.701270017157E12</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -4363,7 +4363,7 @@
         <v>23.237676</v>
       </c>
       <c r="E133" t="n">
-        <v>8.308611081709687</v>
+        <v>7.7455431392046155</v>
       </c>
       <c r="F133" t="n">
         <v>2.0</v>
@@ -4378,12 +4378,12 @@
         <v>-22.976303172589006</v>
       </c>
       <c r="J133" t="n">
-        <v>13417.886963846307</v>
+        <v>13403.757512279146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.701266834075E12</v>
+        <v>1.701270021181E12</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4392,30 +4392,30 @@
         <v>17</v>
       </c>
       <c r="D134" t="n">
-        <v>12.464305846153833</v>
+        <v>12.274305846153835</v>
       </c>
       <c r="E134" t="n">
-        <v>5.8272988307215865</v>
+        <v>7.7808580478329015</v>
       </c>
       <c r="F134" t="n">
         <v>2.0</v>
       </c>
       <c r="G134" t="n">
-        <v>10674.521611261493</v>
+        <v>10533.507138589086</v>
       </c>
       <c r="H134" t="n">
-        <v>-43.189964674922734</v>
+        <v>-43.18996758361831</v>
       </c>
       <c r="I134" t="n">
-        <v>-22.97622294472005</v>
+        <v>-22.97622269493166</v>
       </c>
       <c r="J134" t="n">
-        <v>13513.933342259072</v>
+        <v>13500.102955997003</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.70126683673E12</v>
+        <v>1.701270024008E12</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4424,30 +4424,30 @@
         <v>18</v>
       </c>
       <c r="D135" t="n">
-        <v>0.25375294987251984</v>
+        <v>0.24954985742201097</v>
       </c>
       <c r="E135" t="n">
-        <v>8.55518811945985</v>
+        <v>6.1342947587814045</v>
       </c>
       <c r="F135" t="n">
         <v>2.0</v>
       </c>
       <c r="G135" t="n">
-        <v>2760.1479681454207</v>
+        <v>2755.162497027292</v>
       </c>
       <c r="H135" t="n">
-        <v>-43.18408266052534</v>
+        <v>-43.18408266353497</v>
       </c>
       <c r="I135" t="n">
-        <v>-22.972215434305802</v>
+        <v>-22.972215436877253</v>
       </c>
       <c r="J135" t="n">
-        <v>13622.311112987574</v>
+        <v>13607.696707393792</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.70126684217E12</v>
+        <v>1.701270029964E12</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4459,7 +4459,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E136" t="n">
-        <v>7.504143822972237</v>
+        <v>7.931795401647165</v>
       </c>
       <c r="F136" t="n">
         <v>2.0</v>
@@ -4468,18 +4468,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H136" t="n">
-        <v>-43.183042461210874</v>
+        <v>-43.18304265998542</v>
       </c>
       <c r="I136" t="n">
-        <v>-22.971326666689116</v>
+        <v>-22.971326836383113</v>
       </c>
       <c r="J136" t="n">
-        <v>13767.59458803446</v>
+        <v>13752.952850931977</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.70126684346E12</v>
+        <v>1.701270031401E12</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4491,7 +4491,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E137" t="n">
-        <v>6.069198603694637</v>
+        <v>5.636192238094943</v>
       </c>
       <c r="F137" t="n">
         <v>2.0</v>
@@ -4500,18 +4500,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H137" t="n">
-        <v>-43.18267861510645</v>
+        <v>-43.18267883319183</v>
       </c>
       <c r="I137" t="n">
-        <v>-22.971049148999175</v>
+        <v>-22.971049297064507</v>
       </c>
       <c r="J137" t="n">
-        <v>13815.999842669562</v>
+        <v>13801.35813756744</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.701266852688E12</v>
+        <v>1.701270041258E12</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4523,7 +4523,7 @@
         <v>5.98356</v>
       </c>
       <c r="E138" t="n">
-        <v>6.62853728501964</v>
+        <v>6.334862568533859</v>
       </c>
       <c r="F138" t="n">
         <v>2.0</v>
@@ -4532,18 +4532,18 @@
         <v>6184.666849869978</v>
       </c>
       <c r="H138" t="n">
-        <v>-43.18032187120023</v>
+        <v>-43.180321721157995</v>
       </c>
       <c r="I138" t="n">
-        <v>-22.969438640059067</v>
+        <v>-22.969438834071163</v>
       </c>
       <c r="J138" t="n">
-        <v>14120.565620212321</v>
+        <v>14105.926678547647</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.70126685541E12</v>
+        <v>1.701270043783E12</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -4555,7 +4555,7 @@
         <v>11.065319999999996</v>
       </c>
       <c r="E139" t="n">
-        <v>5.631202142443428</v>
+        <v>8.705899493290993</v>
       </c>
       <c r="F139" t="n">
         <v>2.0</v>
@@ -4564,18 +4564,18 @@
         <v>9649.497417836052</v>
       </c>
       <c r="H139" t="n">
-        <v>-43.180590207112324</v>
+        <v>-43.18059005964342</v>
       </c>
       <c r="I139" t="n">
-        <v>-22.969455878990637</v>
+        <v>-22.96945578725876</v>
       </c>
       <c r="J139" t="n">
-        <v>14155.7755047361</v>
+        <v>14141.144285985096</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.701266859129E12</v>
+        <v>1.701270047612E12</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -4587,7 +4587,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E140" t="n">
-        <v>6.727567173059966</v>
+        <v>5.693837662370006</v>
       </c>
       <c r="F140" t="n">
         <v>2.0</v>
@@ -4596,18 +4596,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H140" t="n">
-        <v>-43.18157446403283</v>
+        <v>-43.18157432005941</v>
       </c>
       <c r="I140" t="n">
-        <v>-22.970075818779495</v>
+        <v>-22.970075722469517</v>
       </c>
       <c r="J140" t="n">
-        <v>14277.873378831237</v>
+        <v>14263.242160344327</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.701266862598E12</v>
+        <v>1.701270050747E12</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -4619,7 +4619,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E141" t="n">
-        <v>7.7307350665446695</v>
+        <v>7.847440809739358</v>
       </c>
       <c r="F141" t="n">
         <v>2.0</v>
@@ -4628,18 +4628,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H141" t="n">
-        <v>-43.182390333545506</v>
+        <v>-43.18239019047636</v>
       </c>
       <c r="I141" t="n">
-        <v>-22.970622719335715</v>
+        <v>-22.970622621913613</v>
       </c>
       <c r="J141" t="n">
-        <v>14381.193118502464</v>
+        <v>14366.561901643769</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.701266865984E12</v>
+        <v>1.701270053739E12</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -4651,7 +4651,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E142" t="n">
-        <v>7.332141539203873</v>
+        <v>5.901637907358229</v>
       </c>
       <c r="F142" t="n">
         <v>2.0</v>
@@ -4660,18 +4660,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H142" t="n">
-        <v>-43.18313982691107</v>
+        <v>-43.18315208247852</v>
       </c>
       <c r="I142" t="n">
-        <v>-22.97116689201549</v>
+        <v>-22.97117728683068</v>
       </c>
       <c r="J142" t="n">
-        <v>14479.02037094892</v>
+        <v>14466.113388644435</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.701266866491E12</v>
+        <v>1.701270054169E12</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -4683,7 +4683,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E143" t="n">
-        <v>7.332141539203873</v>
+        <v>5.72038207860423</v>
       </c>
       <c r="F143" t="n">
         <v>2.0</v>
@@ -4692,18 +4692,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H143" t="n">
-        <v>-43.18325118970437</v>
+        <v>-43.18325105884507</v>
       </c>
       <c r="I143" t="n">
-        <v>-22.97126139869161</v>
+        <v>-22.97126128765979</v>
       </c>
       <c r="J143" t="n">
-        <v>14494.525706117127</v>
+        <v>14479.894561932342</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.701266871404E12</v>
+        <v>1.701270058659E12</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -4715,7 +4715,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E144" t="n">
-        <v>8.678209872911216</v>
+        <v>7.606720691548472</v>
       </c>
       <c r="F144" t="n">
         <v>2.0</v>
@@ -4724,18 +4724,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H144" t="n">
-        <v>-43.18427684262746</v>
+        <v>-43.1842886900851</v>
       </c>
       <c r="I144" t="n">
-        <v>-22.972132450306137</v>
+        <v>-22.972143223104162</v>
       </c>
       <c r="J144" t="n">
-        <v>14637.378810732345</v>
+        <v>14624.471078697703</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.70126687239E12</v>
+        <v>1.701270059494E12</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -4747,7 +4747,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E145" t="n">
-        <v>6.448784358802637</v>
+        <v>7.058606060639143</v>
       </c>
       <c r="F145" t="n">
         <v>2.0</v>
@@ -4756,18 +4756,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H145" t="n">
-        <v>-43.184498504342734</v>
+        <v>-43.18449838546077</v>
       </c>
       <c r="I145" t="n">
-        <v>-22.972300405114126</v>
+        <v>-22.9723002832037</v>
       </c>
       <c r="J145" t="n">
-        <v>14667.736037475977</v>
+        <v>14653.766404970014</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.701266878625E12</v>
+        <v>1.701270065248E12</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -4779,7 +4779,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E146" t="n">
-        <v>9.482929943374918</v>
+        <v>6.370105187383022</v>
       </c>
       <c r="F146" t="n">
         <v>2.0</v>
@@ -4788,18 +4788,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H146" t="n">
-        <v>-43.18567917160945</v>
+        <v>-43.185679051664145</v>
       </c>
       <c r="I146" t="n">
-        <v>-22.97346829804992</v>
+        <v>-22.973468176816084</v>
       </c>
       <c r="J146" t="n">
-        <v>14847.032241613098</v>
+        <v>14833.062586034303</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.701266878824E12</v>
+        <v>1.701270065472E12</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -4811,7 +4811,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E147" t="n">
-        <v>6.000878410946827</v>
+        <v>6.370105187383022</v>
       </c>
       <c r="F147" t="n">
         <v>2.0</v>
@@ -4820,18 +4820,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H147" t="n">
-        <v>-43.18571325472357</v>
+        <v>-43.18572447589741</v>
       </c>
       <c r="I147" t="n">
-        <v>-22.973502613198637</v>
+        <v>-22.973513935386755</v>
       </c>
       <c r="J147" t="n">
-        <v>14852.202778597328</v>
+        <v>14839.955686541929</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.701266882581E12</v>
+        <v>1.701270068771E12</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -4843,7 +4843,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E148" t="n">
-        <v>9.560888747669054</v>
+        <v>7.475667351085171</v>
       </c>
       <c r="F148" t="n">
         <v>2.0</v>
@@ -4852,18 +4852,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H148" t="n">
-        <v>-43.18639306802987</v>
+        <v>-43.186392965240614</v>
       </c>
       <c r="I148" t="n">
-        <v>-22.97425548308853</v>
+        <v>-22.974255349185086</v>
       </c>
       <c r="J148" t="n">
-        <v>14961.111996183568</v>
+        <v>14947.142453339531</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.701266886965E12</v>
+        <v>1.701270072986E12</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -4875,7 +4875,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E149" t="n">
-        <v>6.992593369553147</v>
+        <v>7.316020602311392</v>
       </c>
       <c r="F149" t="n">
         <v>2.0</v>
@@ -4884,18 +4884,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H149" t="n">
-        <v>-43.18718080428537</v>
+        <v>-43.18718071398127</v>
       </c>
       <c r="I149" t="n">
-        <v>-22.975356901280527</v>
+        <v>-22.975356760158792</v>
       </c>
       <c r="J149" t="n">
-        <v>15107.77432916322</v>
+        <v>15093.80493779082</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.701266888918E12</v>
+        <v>1.701270074828E12</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -4907,7 +4907,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E150" t="n">
-        <v>9.047801413669104</v>
+        <v>7.717550853567595</v>
       </c>
       <c r="F150" t="n">
         <v>2.0</v>
@@ -4916,18 +4916,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H150" t="n">
-        <v>-43.18751845471006</v>
+        <v>-43.1875183676408</v>
       </c>
       <c r="I150" t="n">
-        <v>-22.975875600914023</v>
+        <v>-22.975875458034988</v>
       </c>
       <c r="J150" t="n">
-        <v>15175.018772206238</v>
+        <v>15161.049451182682</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.701266891821E12</v>
+        <v>1.701270077816E12</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -4939,7 +4939,7 @@
         <v>7.24168</v>
       </c>
       <c r="E151" t="n">
-        <v>7.962191207407194</v>
+        <v>7.712740488050182</v>
       </c>
       <c r="F151" t="n">
         <v>2.0</v>
@@ -4954,12 +4954,12 @@
         <v>-22.976401762985574</v>
       </c>
       <c r="J151" t="n">
-        <v>15249.67345438073</v>
+        <v>15235.735817882825</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.701266895342E12</v>
+        <v>1.701270081492E12</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -4971,7 +4971,7 @@
         <v>19.68692</v>
       </c>
       <c r="E152" t="n">
-        <v>7.855387665985502</v>
+        <v>5.896620774813004</v>
       </c>
       <c r="F152" t="n">
         <v>2.0</v>
@@ -4980,18 +4980,18 @@
         <v>3112.806682050462</v>
       </c>
       <c r="H152" t="n">
-        <v>-43.189013515490046</v>
+        <v>-43.18902936151098</v>
       </c>
       <c r="I152" t="n">
-        <v>-22.97630463281253</v>
+        <v>-22.97630327323686</v>
       </c>
       <c r="J152" t="n">
-        <v>15362.257524241191</v>
+        <v>15349.94912837363</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.701266899048E12</v>
+        <v>1.701270085004E12</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5000,30 +5000,30 @@
         <v>18</v>
       </c>
       <c r="D153" t="n">
-        <v>13.42803906976741</v>
+        <v>13.378614577217158</v>
       </c>
       <c r="E153" t="n">
-        <v>7.293357666732772</v>
+        <v>6.7427960177233</v>
       </c>
       <c r="F153" t="n">
         <v>2.0</v>
       </c>
       <c r="G153" t="n">
-        <v>11398.51486288831</v>
+        <v>11361.030558472557</v>
       </c>
       <c r="H153" t="n">
-        <v>-43.18997225142362</v>
+        <v>-43.18996375334473</v>
       </c>
       <c r="I153" t="n">
-        <v>-22.97622229407721</v>
+        <v>-22.976223023861877</v>
       </c>
       <c r="J153" t="n">
-        <v>15460.83275410422</v>
+        <v>15446.02136297417</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.701266901919E12</v>
+        <v>1.701270087865E12</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -5032,30 +5032,30 @@
         <v>19</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0</v>
+        <v>0.2585625449579675</v>
       </c>
       <c r="E154" t="n">
-        <v>8.173907771063137</v>
+        <v>6.57590647512335</v>
       </c>
       <c r="F154" t="n">
         <v>2.0</v>
       </c>
       <c r="G154" t="n">
-        <v>2624.722222222222</v>
+        <v>2765.9661709104525</v>
       </c>
       <c r="H154" t="n">
-        <v>-43.1840828422253</v>
+        <v>-43.18408265708143</v>
       </c>
       <c r="I154" t="n">
-        <v>-22.97221558955183</v>
+        <v>-22.972215431363292</v>
       </c>
       <c r="J154" t="n">
-        <v>15567.801191871291</v>
+        <v>15552.89749249878</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.701266907862E12</v>
+        <v>1.701270093255E12</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -5067,7 +5067,7 @@
         <v>18.232776</v>
       </c>
       <c r="E155" t="n">
-        <v>7.933722723224548</v>
+        <v>5.929853834474276</v>
       </c>
       <c r="F155" t="n">
         <v>2.0</v>
@@ -5076,18 +5076,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H155" t="n">
-        <v>-43.183045701023715</v>
+        <v>-43.18304577312453</v>
       </c>
       <c r="I155" t="n">
-        <v>-22.971329432520086</v>
+        <v>-22.971329494072616</v>
       </c>
       <c r="J155" t="n">
-        <v>15712.657718514503</v>
+        <v>15697.71809400983</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.701266909151E12</v>
+        <v>1.701270094526E12</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -5099,7 +5099,7 @@
         <v>18.232776</v>
       </c>
       <c r="E156" t="n">
-        <v>8.33902218988051</v>
+        <v>6.369675846626473</v>
       </c>
       <c r="F156" t="n">
         <v>2.0</v>
@@ -5108,18 +5108,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H156" t="n">
-        <v>-43.182674294311425</v>
+        <v>-43.1826743734168</v>
       </c>
       <c r="I156" t="n">
-        <v>-22.971046215469467</v>
+        <v>-22.971046269176707</v>
       </c>
       <c r="J156" t="n">
-        <v>15762.064787103649</v>
+        <v>15747.125401306295</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.701266918249E12</v>
+        <v>1.70127010354E12</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5131,7 +5131,7 @@
         <v>6.318834</v>
       </c>
       <c r="E157" t="n">
-        <v>7.101681551183137</v>
+        <v>7.677953442763783</v>
       </c>
       <c r="F157" t="n">
         <v>2.0</v>
@@ -5140,18 +5140,18 @@
         <v>6400.7700958107325</v>
       </c>
       <c r="H157" t="n">
-        <v>-43.18032449705719</v>
+        <v>-43.18032444007995</v>
       </c>
       <c r="I157" t="n">
-        <v>-22.96943524469495</v>
+        <v>-22.96943531836937</v>
       </c>
       <c r="J157" t="n">
-        <v>16066.518462571044</v>
+        <v>16051.605963815287</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.701266920494E12</v>
+        <v>1.701270105683E12</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5163,7 +5163,7 @@
         <v>11.408897999999995</v>
       </c>
       <c r="E158" t="n">
-        <v>9.397631572069365</v>
+        <v>9.231369255141333</v>
       </c>
       <c r="F158" t="n">
         <v>2.0</v>
@@ -5172,18 +5172,18 @@
         <v>9898.387363481284</v>
       </c>
       <c r="H158" t="n">
-        <v>-43.180595497816675</v>
+        <v>-43.18059544690754</v>
       </c>
       <c r="I158" t="n">
-        <v>-22.969459170031797</v>
+        <v>-22.96945913836417</v>
       </c>
       <c r="J158" t="n">
-        <v>16101.904196610436</v>
+        <v>16087.002453728173</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.701266923829E12</v>
+        <v>1.70127010877E12</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5195,7 +5195,7 @@
         <v>18.232776</v>
       </c>
       <c r="E159" t="n">
-        <v>8.689164002996867</v>
+        <v>6.346102038952294</v>
       </c>
       <c r="F159" t="n">
         <v>2.0</v>
@@ -5204,18 +5204,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H159" t="n">
-        <v>-43.181568931683806</v>
+        <v>-43.181568881981384</v>
       </c>
       <c r="I159" t="n">
-        <v>-22.97007211795446</v>
+        <v>-22.97007208470638</v>
       </c>
       <c r="J159" t="n">
-        <v>16222.648270954109</v>
+        <v>16207.746528353173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.701266926565E12</v>
+        <v>1.701270111148E12</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5227,7 +5227,7 @@
         <v>18.232776</v>
       </c>
       <c r="E160" t="n">
-        <v>5.7870488552538735</v>
+        <v>8.033385887405274</v>
       </c>
       <c r="F160" t="n">
         <v>2.0</v>
@@ -5236,18 +5236,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H160" t="n">
-        <v>-43.182389420745025</v>
+        <v>-43.18238937135478</v>
       </c>
       <c r="I160" t="n">
-        <v>-22.970622097769535</v>
+        <v>-22.97062206413753</v>
       </c>
       <c r="J160" t="n">
-        <v>16326.5518766785</v>
+        <v>16311.650137020819</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.701266929232E12</v>
+        <v>1.701270113248E12</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5259,7 +5259,7 @@
         <v>18.232776</v>
       </c>
       <c r="E161" t="n">
-        <v>9.146900851626686</v>
+        <v>9.106988821557492</v>
       </c>
       <c r="F161" t="n">
         <v>2.0</v>
@@ -5268,18 +5268,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H161" t="n">
-        <v>-43.18315412477244</v>
+        <v>-43.18315407954587</v>
       </c>
       <c r="I161" t="n">
-        <v>-22.971179019044875</v>
+        <v>-22.971178980685018</v>
       </c>
       <c r="J161" t="n">
-        <v>16426.484790149534</v>
+        <v>16411.583056632076</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.701266929566E12</v>
+        <v>1.701270113529E12</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5291,7 +5291,7 @@
         <v>18.232776</v>
       </c>
       <c r="E162" t="n">
-        <v>9.146900851626686</v>
+        <v>9.106988821557492</v>
       </c>
       <c r="F162" t="n">
         <v>2.0</v>
@@ -5300,18 +5300,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H162" t="n">
-        <v>-43.18324579960161</v>
+        <v>-43.18324575442643</v>
       </c>
       <c r="I162" t="n">
-        <v>-22.971256825283895</v>
+        <v>-22.971256786953553</v>
       </c>
       <c r="J162" t="n">
-        <v>16439.249483024643</v>
+        <v>16424.347755595696</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.701266932683E12</v>
+        <v>1.701270116633E12</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5323,7 +5323,7 @@
         <v>18.232776</v>
       </c>
       <c r="E163" t="n">
-        <v>7.0249429991228345</v>
+        <v>8.391422541291881</v>
       </c>
       <c r="F163" t="n">
         <v>2.0</v>
@@ -5332,18 +5332,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H163" t="n">
-        <v>-43.18427914166145</v>
+        <v>-43.18427909794092</v>
       </c>
       <c r="I163" t="n">
-        <v>-22.972134540799267</v>
+        <v>-22.972134501044547</v>
       </c>
       <c r="J163" t="n">
-        <v>16583.18416878867</v>
+        <v>16568.28244246727</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.701266933234E12</v>
+        <v>1.701270117302E12</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5355,7 +5355,7 @@
         <v>18.232776</v>
       </c>
       <c r="E164" t="n">
-        <v>7.2408860825755585</v>
+        <v>8.0319180241975</v>
       </c>
       <c r="F164" t="n">
         <v>2.0</v>
@@ -5364,18 +5364,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H164" t="n">
-        <v>-43.1844999570827</v>
+        <v>-43.184499916042334</v>
       </c>
       <c r="I164" t="n">
-        <v>-22.972301894861864</v>
+        <v>-22.97230185277602</v>
       </c>
       <c r="J164" t="n">
-        <v>16614.04045596216</v>
+        <v>16599.138925487663</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.701266939594E12</v>
+        <v>1.701270124446E12</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5384,30 +5384,30 @@
         <v>19</v>
       </c>
       <c r="D165" t="n">
-        <v>13.520000000000039</v>
+        <v>13.260000000000039</v>
       </c>
       <c r="E165" t="n">
-        <v>8.57681743417822</v>
+        <v>8.069976138206398</v>
       </c>
       <c r="F165" t="n">
         <v>2.0</v>
       </c>
       <c r="G165" t="n">
-        <v>11468.36152888891</v>
+        <v>11271.227882222243</v>
       </c>
       <c r="H165" t="n">
-        <v>-43.18565330310134</v>
+        <v>-43.18564441429309</v>
       </c>
       <c r="I165" t="n">
-        <v>-22.973484871795712</v>
+        <v>-22.9734758906928</v>
       </c>
       <c r="J165" t="n">
-        <v>16796.097530428924</v>
+        <v>16780.020967683296</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.701266939743E12</v>
+        <v>1.701270124634E12</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5419,7 +5419,7 @@
         <v>14.820000000000038</v>
       </c>
       <c r="E166" t="n">
-        <v>8.57681743417822</v>
+        <v>8.069976138206398</v>
       </c>
       <c r="F166" t="n">
         <v>2.0</v>
@@ -5434,12 +5434,12 @@
         <v>-22.973532372907872</v>
       </c>
       <c r="J166" t="n">
-        <v>16803.24534419045</v>
+        <v>16788.51985541893</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.701266941437E12</v>
+        <v>1.701270126594E12</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5451,7 +5451,7 @@
         <v>18.232776</v>
       </c>
       <c r="E167" t="n">
-        <v>7.6562753542431</v>
+        <v>6.716734191247351</v>
       </c>
       <c r="F167" t="n">
         <v>2.0</v>
@@ -5466,12 +5466,12 @@
         <v>-22.974244810668203</v>
       </c>
       <c r="J167" t="n">
-        <v>16911.153068470747</v>
+        <v>16896.413041041767</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.701266943652E12</v>
+        <v>1.701270129131E12</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5483,7 +5483,7 @@
         <v>18.232776</v>
       </c>
       <c r="E168" t="n">
-        <v>5.295592656629306</v>
+        <v>6.87757684159576</v>
       </c>
       <c r="F168" t="n">
         <v>2.0</v>
@@ -5498,12 +5498,12 @@
         <v>-22.975355591367087</v>
       </c>
       <c r="J168" t="n">
-        <v>17059.09966337547</v>
+        <v>17044.359635946483</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.701266944674E12</v>
+        <v>1.701270130261E12</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5512,30 +5512,30 @@
         <v>19</v>
       </c>
       <c r="D169" t="n">
-        <v>16.389394515872077</v>
+        <v>18.232776</v>
       </c>
       <c r="E169" t="n">
-        <v>8.51291181611179</v>
+        <v>5.719985486780069</v>
       </c>
       <c r="F169" t="n">
         <v>2.0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0</v>
+        <v>2868.6273834517037</v>
       </c>
       <c r="H169" t="n">
-        <v>-43.18752459031405</v>
+        <v>-43.18751902444363</v>
       </c>
       <c r="I169" t="n">
-        <v>-22.975885669325788</v>
+        <v>-22.975876535836193</v>
       </c>
       <c r="J169" t="n">
-        <v>17127.796969037572</v>
+        <v>17111.892414591664</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.701266946227E12</v>
+        <v>1.701270131937E12</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5547,7 +5547,7 @@
         <v>7.650651999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>6.111116333188803</v>
+        <v>6.303452300659613</v>
       </c>
       <c r="F170" t="n">
         <v>2.0</v>
@@ -5556,18 +5556,18 @@
         <v>7276.631944152616</v>
       </c>
       <c r="H170" t="n">
-        <v>-43.18791861503268</v>
+        <v>-43.18791412735689</v>
       </c>
       <c r="I170" t="n">
-        <v>-22.976401846960197</v>
+        <v>-22.976402748157906</v>
       </c>
       <c r="J170" t="n">
-        <v>17201.13140113444</v>
+        <v>17185.92077243787</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.701266947897E12</v>
+        <v>1.701270133951E12</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5579,7 +5579,7 @@
         <v>20.840138</v>
       </c>
       <c r="E171" t="n">
-        <v>6.243628577170206</v>
+        <v>9.433537269428244</v>
       </c>
       <c r="F171" t="n">
         <v>2.0</v>
@@ -5588,18 +5588,18 @@
         <v>3330.0584288157183</v>
       </c>
       <c r="H171" t="n">
-        <v>-43.18903824614909</v>
+        <v>-43.1890336727327</v>
       </c>
       <c r="I171" t="n">
-        <v>-22.976302510942155</v>
+        <v>-22.97630290333755</v>
       </c>
       <c r="J171" t="n">
-        <v>17316.30189191757</v>
+        <v>17301.09275685372</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.701266949576E12</v>
+        <v>1.701270135867E12</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -5608,30 +5608,30 @@
         <v>19</v>
       </c>
       <c r="D172" t="n">
-        <v>13.532446782608694</v>
+        <v>13.633498893616988</v>
       </c>
       <c r="E172" t="n">
-        <v>5.789873100885679</v>
+        <v>5.526581941642269</v>
       </c>
       <c r="F172" t="n">
         <v>2.0</v>
       </c>
       <c r="G172" t="n">
-        <v>11477.82537831654</v>
+        <v>11554.749883788469</v>
       </c>
       <c r="H172" t="n">
-        <v>-43.18996599912522</v>
+        <v>-43.18996742230624</v>
       </c>
       <c r="I172" t="n">
-        <v>-22.976222831002268</v>
+        <v>-22.976222708784565</v>
       </c>
       <c r="J172" t="n">
-        <v>17411.691540300886</v>
+        <v>17397.098958471128</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.701266950852E12</v>
+        <v>1.70127013736E12</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -5640,30 +5640,30 @@
         <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2473407541573979</v>
+        <v>0.25345410639978944</v>
       </c>
       <c r="E173" t="n">
-        <v>8.974712114230941</v>
+        <v>6.532345267075103</v>
       </c>
       <c r="F173" t="n">
         <v>2.0</v>
       </c>
       <c r="G173" t="n">
-        <v>2752.5792185347095</v>
+        <v>2759.790446367703</v>
       </c>
       <c r="H173" t="n">
-        <v>-43.1840826651168</v>
+        <v>-43.18408266073933</v>
       </c>
       <c r="I173" t="n">
-        <v>-22.972215438228783</v>
+        <v>-22.972215434488632</v>
       </c>
       <c r="J173" t="n">
-        <v>17518.52145841839</v>
+        <v>17504.205055955612</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.701266953398E12</v>
+        <v>1.701270140371E12</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -5675,7 +5675,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E174" t="n">
-        <v>8.775911855312597</v>
+        <v>8.275142379503256</v>
       </c>
       <c r="F174" t="n">
         <v>2.0</v>
@@ -5684,18 +5684,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H174" t="n">
-        <v>-43.18304007956765</v>
+        <v>-43.183039799213304</v>
       </c>
       <c r="I174" t="n">
-        <v>-22.97132463347827</v>
+        <v>-22.971324394139536</v>
       </c>
       <c r="J174" t="n">
-        <v>17664.138087137882</v>
+        <v>17649.86021487611</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.701266953964E12</v>
+        <v>1.701270141084E12</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -5707,7 +5707,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E175" t="n">
-        <v>8.775911855312597</v>
+        <v>8.275142379503256</v>
       </c>
       <c r="F175" t="n">
         <v>2.0</v>
@@ -5716,18 +5716,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H175" t="n">
-        <v>-43.18267535867164</v>
+        <v>-43.18268814712363</v>
       </c>
       <c r="I175" t="n">
-        <v>-22.971046938098585</v>
+        <v>-22.971055620598825</v>
       </c>
       <c r="J175" t="n">
-        <v>17712.62538565399</v>
+        <v>17696.681661679755</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.701266957668E12</v>
+        <v>1.701270146058E12</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -5739,7 +5739,7 @@
         <v>5.795573999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>5.595818708826214</v>
+        <v>6.026015292199564</v>
       </c>
       <c r="F176" t="n">
         <v>2.0</v>
@@ -5754,12 +5754,12 @@
         <v>-22.96943712088178</v>
       </c>
       <c r="J176" t="n">
-        <v>18016.98703530783</v>
+        <v>18002.66352775539</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.701266958666E12</v>
+        <v>1.701270147772E12</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -5768,30 +5768,30 @@
         <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>4.012484902777766</v>
+        <v>2.8599999999999994</v>
       </c>
       <c r="E177" t="n">
-        <v>5.721599634393417</v>
+        <v>8.44456023992985</v>
       </c>
       <c r="F177" t="n">
         <v>2.0</v>
       </c>
       <c r="G177" t="n">
-        <v>4949.8823496919595</v>
+        <v>4256.164415555553</v>
       </c>
       <c r="H177" t="n">
-        <v>-43.18058247563356</v>
+        <v>-43.18058150627943</v>
       </c>
       <c r="I177" t="n">
-        <v>-22.96945106968488</v>
+        <v>-22.969450466705744</v>
       </c>
       <c r="J177" t="n">
-        <v>18051.032927586377</v>
+        <v>18036.589652572427</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.701266960227E12</v>
+        <v>1.701270150069E12</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -5803,7 +5803,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E178" t="n">
-        <v>9.294937692728436</v>
+        <v>7.420080544000989</v>
       </c>
       <c r="F178" t="n">
         <v>2.0</v>
@@ -5812,18 +5812,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H178" t="n">
-        <v>-43.18157435688973</v>
+        <v>-43.18156705982593</v>
       </c>
       <c r="I178" t="n">
-        <v>-22.970075747106893</v>
+        <v>-22.97007086578861</v>
       </c>
       <c r="J178" t="n">
-        <v>18174.07255687459</v>
+        <v>18158.82554399278</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.701266961236E12</v>
+        <v>1.701270151471E12</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -5835,7 +5835,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E179" t="n">
-        <v>8.997260296911218</v>
+        <v>8.488791912552804</v>
       </c>
       <c r="F179" t="n">
         <v>2.0</v>
@@ -5844,18 +5844,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H179" t="n">
-        <v>-43.182389735465</v>
+        <v>-43.18238248423273</v>
       </c>
       <c r="I179" t="n">
-        <v>-22.970622312076273</v>
+        <v>-22.97061737439177</v>
       </c>
       <c r="J179" t="n">
-        <v>18277.329697788115</v>
+        <v>18262.0827686471</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.701266962229E12</v>
+        <v>1.701270152875E12</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -5867,7 +5867,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E180" t="n">
-        <v>5.833586039104188</v>
+        <v>6.2223183808084865</v>
       </c>
       <c r="F180" t="n">
         <v>2.0</v>
@@ -5876,18 +5876,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H180" t="n">
-        <v>-43.18315202931409</v>
+        <v>-43.1831573691212</v>
       </c>
       <c r="I180" t="n">
-        <v>-22.97117724173816</v>
+        <v>-22.97118177080695</v>
       </c>
       <c r="J180" t="n">
-        <v>18376.93179607683</v>
+        <v>18363.35098010603</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.70126696238E12</v>
+        <v>1.701270153084E12</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -5899,7 +5899,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E181" t="n">
-        <v>5.833586039104188</v>
+        <v>6.2223183808084865</v>
       </c>
       <c r="F181" t="n">
         <v>2.0</v>
@@ -5908,18 +5908,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H181" t="n">
-        <v>-43.18324775481769</v>
+        <v>-43.18326505469205</v>
       </c>
       <c r="I181" t="n">
-        <v>-22.97125848425047</v>
+        <v>-22.971273162890615</v>
       </c>
       <c r="J181" t="n">
-        <v>18390.26037938892</v>
+        <v>18378.34477914398</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.701266963801E12</v>
+        <v>1.701270154835E12</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -5931,7 +5931,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E182" t="n">
-        <v>5.930075181655299</v>
+        <v>7.750140823129769</v>
       </c>
       <c r="F182" t="n">
         <v>2.0</v>
@@ -5940,18 +5940,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H182" t="n">
-        <v>-43.18428719936599</v>
+        <v>-43.1842807805349</v>
       </c>
       <c r="I182" t="n">
-        <v>-22.972141867605256</v>
+        <v>-22.972136031013726</v>
       </c>
       <c r="J182" t="n">
-        <v>18535.08244422512</v>
+        <v>18519.834298754817</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.701266964072E12</v>
+        <v>1.701270155164E12</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
@@ -5963,7 +5963,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E183" t="n">
-        <v>8.773424501034533</v>
+        <v>7.750140823129769</v>
       </c>
       <c r="F183" t="n">
         <v>2.0</v>
@@ -5972,18 +5972,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H183" t="n">
-        <v>-43.18450195027697</v>
+        <v>-43.184495924933294</v>
       </c>
       <c r="I183" t="n">
-        <v>-22.972303938831704</v>
+        <v>-22.972297759995595</v>
       </c>
       <c r="J183" t="n">
-        <v>18565.147493583238</v>
+        <v>18549.305503140884</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.701266965704E12</v>
+        <v>1.701270157369E12</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -5995,7 +5995,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E184" t="n">
-        <v>6.155695396060038</v>
+        <v>5.597615976070215</v>
       </c>
       <c r="F184" t="n">
         <v>2.0</v>
@@ -6004,18 +6004,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H184" t="n">
-        <v>-43.18567718798067</v>
+        <v>-43.18567111406817</v>
       </c>
       <c r="I184" t="n">
-        <v>-22.973466293111745</v>
+        <v>-22.973460167328025</v>
       </c>
       <c r="J184" t="n">
-        <v>18743.631439393743</v>
+        <v>18727.790481755368</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.701266965788E12</v>
+        <v>1.701270157488E12</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -6027,7 +6027,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E185" t="n">
-        <v>6.155695396060038</v>
+        <v>6.0980397808239175</v>
       </c>
       <c r="F185" t="n">
         <v>2.0</v>
@@ -6036,18 +6036,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H185" t="n">
-        <v>-43.185721122165546</v>
+        <v>-43.185715042648596</v>
       </c>
       <c r="I185" t="n">
-        <v>-22.973510551464216</v>
+        <v>-22.973504417218766</v>
       </c>
       <c r="J185" t="n">
-        <v>18750.2984810925</v>
+        <v>18734.456455251788</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.701266966789E12</v>
+        <v>1.70127015875E12</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
@@ -6059,7 +6059,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E186" t="n">
-        <v>5.504977935347976</v>
+        <v>6.868059520517248</v>
       </c>
       <c r="F186" t="n">
         <v>2.0</v>
@@ -6068,18 +6068,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H186" t="n">
-        <v>-43.186389099735514</v>
+        <v>-43.18638389002526</v>
       </c>
       <c r="I186" t="n">
-        <v>-22.974250313596215</v>
+        <v>-22.97424352691291</v>
       </c>
       <c r="J186" t="n">
-        <v>18857.308278312452</v>
+        <v>18841.465625039822</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.701266968139E12</v>
+        <v>1.701270160429E12</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6091,7 +6091,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E187" t="n">
-        <v>7.484685245728548</v>
+        <v>8.58015365790809</v>
       </c>
       <c r="F187" t="n">
         <v>2.0</v>
@@ -6100,18 +6100,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H187" t="n">
-        <v>-43.18717825467809</v>
+        <v>-43.18719845072573</v>
       </c>
       <c r="I187" t="n">
-        <v>-22.975352916909877</v>
+        <v>-22.975384478060462</v>
       </c>
       <c r="J187" t="n">
-        <v>19004.160406489016</v>
+        <v>18993.315147629517</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.701266968749E12</v>
+        <v>1.701270161277E12</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6123,7 +6123,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E188" t="n">
-        <v>7.484685245728548</v>
+        <v>8.58015365790809</v>
       </c>
       <c r="F188" t="n">
         <v>2.0</v>
@@ -6132,18 +6132,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H188" t="n">
-        <v>-43.187521375260765</v>
+        <v>-43.18752492414679</v>
       </c>
       <c r="I188" t="n">
-        <v>-22.97588039348329</v>
+        <v>-22.975886217139095</v>
       </c>
       <c r="J188" t="n">
-        <v>19072.530202396938</v>
+        <v>19058.35418606727</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.701266969678E12</v>
+        <v>1.701270162369E12</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -6152,30 +6152,30 @@
         <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>7.012372</v>
+        <v>7.532372</v>
       </c>
       <c r="E189" t="n">
-        <v>6.730232609230189</v>
+        <v>8.019156293814008</v>
       </c>
       <c r="F189" t="n">
         <v>2.0</v>
       </c>
       <c r="G189" t="n">
-        <v>6853.396089726667</v>
+        <v>7197.719068067999</v>
       </c>
       <c r="H189" t="n">
-        <v>-43.18791531256855</v>
+        <v>-43.18792708716933</v>
       </c>
       <c r="I189" t="n">
-        <v>-22.976402510148283</v>
+        <v>-22.976400145618456</v>
       </c>
       <c r="J189" t="n">
-        <v>19146.195137513256</v>
+        <v>19132.493857911242</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.70126697077E12</v>
+        <v>1.701270163648E12</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
@@ -6187,7 +6187,7 @@
         <v>19.040318</v>
       </c>
       <c r="E190" t="n">
-        <v>9.014302983258098</v>
+        <v>6.2263734657192895</v>
       </c>
       <c r="F190" t="n">
         <v>2.0</v>
@@ -6196,18 +6196,18 @@
         <v>3000.130581620045</v>
       </c>
       <c r="H190" t="n">
-        <v>-43.189038890768</v>
+        <v>-43.18905501016854</v>
       </c>
       <c r="I190" t="n">
-        <v>-22.97630245563438</v>
+        <v>-22.97630107260296</v>
       </c>
       <c r="J190" t="n">
-        <v>19261.778654414393</v>
+        <v>19248.499489843132</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.701266971911E12</v>
+        <v>1.701270164965E12</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -6216,10 +6216,10 @@
         <v>20</v>
       </c>
       <c r="D191" t="n">
-        <v>3.576716315891486</v>
+        <v>3.569541664728726</v>
       </c>
       <c r="E191" t="n">
-        <v>5.982812353107031</v>
+        <v>6.344446643731569</v>
       </c>
       <c r="F191" t="n">
         <v>2.0</v>
@@ -6228,13 +6228,13 @@
         <v>0.0</v>
       </c>
       <c r="H191" t="n">
-        <v>-43.189954092541434</v>
+        <v>-43.18995414142103</v>
       </c>
       <c r="I191" t="n">
-        <v>-22.976223853497164</v>
+        <v>-22.976223849299558</v>
       </c>
       <c r="J191" t="n">
-        <v>19355.877815132044</v>
+        <v>19340.94632746238</v>
       </c>
     </row>
   </sheetData>

--- a/RelatorioCarros.xlsx
+++ b/RelatorioCarros.xlsx
@@ -159,7 +159,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.701269635364E12</v>
+        <v>1.701289046388E12</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -171,7 +171,7 @@
         <v>0.49804023823371696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>7.762213813583273</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -191,7 +191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.701269637984E12</v>
+        <v>1.701289049019E12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -203,7 +203,7 @@
         <v>20.6064</v>
       </c>
       <c r="E3" t="n">
-        <v>8.818010536052155</v>
+        <v>6.052573411929618</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -212,18 +212,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.18305306250289</v>
+        <v>-43.183038296939834</v>
       </c>
       <c r="I3" t="n">
-        <v>-22.971335717021102</v>
+        <v>-22.9713231116474</v>
       </c>
       <c r="J3" t="n">
-        <v>143.8287533191384</v>
+        <v>145.89024533878717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.701269638583E12</v>
+        <v>1.701289049616E12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -235,7 +235,7 @@
         <v>20.6064</v>
       </c>
       <c r="E4" t="n">
-        <v>9.349661750085314</v>
+        <v>7.69304701355987</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -250,12 +250,12 @@
         <v>-22.971039489337283</v>
       </c>
       <c r="J4" t="n">
-        <v>195.52397969569074</v>
+        <v>195.5239871097654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.701269642957E12</v>
+        <v>1.701289053952E12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -267,7 +267,7 @@
         <v>7.1076</v>
       </c>
       <c r="E5" t="n">
-        <v>5.7793514576745055</v>
+        <v>5.744721246755365</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
@@ -282,12 +282,12 @@
         <v>-22.969435245637314</v>
       </c>
       <c r="J5" t="n">
-        <v>498.7290733936934</v>
+        <v>498.72528021296966</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.701269644096E12</v>
+        <v>1.701289055098E12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -299,7 +299,7 @@
         <v>11.697199999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>9.26343388413872</v>
+        <v>5.874949310482208</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -314,12 +314,12 @@
         <v>-22.969455633337162</v>
       </c>
       <c r="J6" t="n">
-        <v>533.4083230036513</v>
+        <v>533.4045298229275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.701269645988E12</v>
+        <v>1.701289056967E12</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -331,7 +331,7 @@
         <v>20.6064</v>
       </c>
       <c r="E7" t="n">
-        <v>6.08432132297313</v>
+        <v>5.687047295011664</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -346,12 +346,12 @@
         <v>-22.97008111940327</v>
       </c>
       <c r="J7" t="n">
-        <v>656.5577226140724</v>
+        <v>656.5539294333486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.701269647441E12</v>
+        <v>1.701289058393E12</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -363,7 +363,7 @@
         <v>20.6064</v>
       </c>
       <c r="E8" t="n">
-        <v>7.579029060178518</v>
+        <v>9.428593719199139</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -378,12 +378,12 @@
         <v>-22.97062641776776</v>
       </c>
       <c r="J8" t="n">
-        <v>759.566320436622</v>
+        <v>759.5625272558983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.701269648883E12</v>
+        <v>1.701289059847E12</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -395,7 +395,7 @@
         <v>20.6064</v>
       </c>
       <c r="E9" t="n">
-        <v>8.963300631495455</v>
+        <v>8.713816180698773</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -410,12 +410,12 @@
         <v>-22.971175592573214</v>
       </c>
       <c r="J9" t="n">
-        <v>858.1305789601196</v>
+        <v>858.1267881829468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.701269649094E12</v>
+        <v>1.701289060072E12</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -427,7 +427,7 @@
         <v>20.6064</v>
       </c>
       <c r="E10" t="n">
-        <v>8.963300631495455</v>
+        <v>8.713816180698773</v>
       </c>
       <c r="F10" t="n">
         <v>2.0</v>
@@ -442,12 +442,12 @@
         <v>-22.971263528437305</v>
       </c>
       <c r="J10" t="n">
-        <v>872.5574756375698</v>
+        <v>872.5536848603971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.701269651329E12</v>
+        <v>1.701289062235E12</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -459,7 +459,7 @@
         <v>20.6064</v>
       </c>
       <c r="E11" t="n">
-        <v>7.01171376316014</v>
+        <v>8.356769260138554</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -474,12 +474,12 @@
         <v>-22.97214279443907</v>
       </c>
       <c r="J11" t="n">
-        <v>1016.6982302361607</v>
+        <v>1016.6944392233949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.701269651789E12</v>
+        <v>1.701289062671E12</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -491,7 +491,7 @@
         <v>20.6064</v>
       </c>
       <c r="E12" t="n">
-        <v>7.124651239764587</v>
+        <v>9.586196531400748</v>
       </c>
       <c r="F12" t="n">
         <v>2.0</v>
@@ -506,12 +506,12 @@
         <v>-22.97230846769871</v>
       </c>
       <c r="J12" t="n">
-        <v>1047.1006045487522</v>
+        <v>1047.0968135359863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.701269656132E12</v>
+        <v>1.701289066495E12</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -520,30 +520,30 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>13.829478260869452</v>
+        <v>14.969478260869453</v>
       </c>
       <c r="E13" t="n">
-        <v>8.082516660284695</v>
+        <v>6.549803653860031</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
       </c>
       <c r="G13" t="n">
-        <v>11704.393399272032</v>
+        <v>12586.816261185075</v>
       </c>
       <c r="H13" t="n">
-        <v>-43.18567573858899</v>
+        <v>-43.1856773426835</v>
       </c>
       <c r="I13" t="n">
-        <v>-22.97346482814978</v>
+        <v>-22.97346644947649</v>
       </c>
       <c r="J13" t="n">
-        <v>1224.5036318128004</v>
+        <v>1224.7437010267568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.701269656311E12</v>
+        <v>1.701289066676E12</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -552,30 +552,30 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>15.129478260869451</v>
+        <v>16.269478260869455</v>
       </c>
       <c r="E14" t="n">
-        <v>8.082516660284695</v>
+        <v>6.549803653860031</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>12712.29788390971</v>
+        <v>13617.98814582283</v>
       </c>
       <c r="H14" t="n">
-        <v>-43.185723896595874</v>
+        <v>-43.185729253958044</v>
       </c>
       <c r="I14" t="n">
-        <v>-22.97351335087028</v>
+        <v>-22.97351875646003</v>
       </c>
       <c r="J14" t="n">
-        <v>1231.8124273351</v>
+        <v>1232.6223155163493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.701269658233E12</v>
+        <v>1.701289068517E12</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>20.6064</v>
       </c>
       <c r="E15" t="n">
-        <v>6.517603184767715</v>
+        <v>8.493728360783793</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -596,18 +596,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H15" t="n">
-        <v>-43.18638677677115</v>
+        <v>-43.18639154719539</v>
       </c>
       <c r="I15" t="n">
-        <v>-22.97424728747332</v>
+        <v>-22.974253501899266</v>
       </c>
       <c r="J15" t="n">
-        <v>1337.9896761932193</v>
+        <v>1338.8308799267777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.701269660751E12</v>
+        <v>1.701289071029E12</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>20.6064</v>
       </c>
       <c r="E16" t="n">
-        <v>5.844626715292375</v>
+        <v>6.9233647143667145</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -628,18 +628,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H16" t="n">
-        <v>-43.18718501021469</v>
+        <v>-43.18717898634388</v>
       </c>
       <c r="I16" t="n">
-        <v>-22.97536347405016</v>
+        <v>-22.975354060312526</v>
       </c>
       <c r="J16" t="n">
-        <v>1486.6163368041005</v>
+        <v>1485.3964672998275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.701269661943E12</v>
+        <v>1.701289072233E12</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -651,7 +651,7 @@
         <v>20.6064</v>
       </c>
       <c r="E17" t="n">
-        <v>8.991660336126223</v>
+        <v>5.78705959691176</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -660,18 +660,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H17" t="n">
-        <v>-43.18752646813861</v>
+        <v>-43.187520660052684</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.97588875080089</v>
+        <v>-22.975879219840156</v>
       </c>
       <c r="J17" t="n">
-        <v>1554.689164297274</v>
+        <v>1553.469045803242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.701269663908E12</v>
+        <v>1.701289074047E12</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -683,7 +683,7 @@
         <v>8.6128</v>
       </c>
       <c r="E18" t="n">
-        <v>8.076202746716424</v>
+        <v>7.719876147618805</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -692,18 +692,18 @@
         <v>7926.708617699551</v>
       </c>
       <c r="H18" t="n">
-        <v>-43.18791736354092</v>
+        <v>-43.18791610688423</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.976402098279937</v>
+        <v>-22.976402350636874</v>
       </c>
       <c r="J18" t="n">
-        <v>1627.4871136564468</v>
+        <v>1627.349850873785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.701269666383E12</v>
+        <v>1.701289076529E12</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
         <v>23.5532</v>
       </c>
       <c r="E19" t="n">
-        <v>9.387581628440401</v>
+        <v>9.408756779287263</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -724,18 +724,18 @@
         <v>3923.507379606223</v>
       </c>
       <c r="H19" t="n">
-        <v>-43.189041412079554</v>
+        <v>-43.18904013141344</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.976302239307905</v>
+        <v>-22.976302349188014</v>
       </c>
       <c r="J19" t="n">
-        <v>1743.11445971557</v>
+        <v>1742.9768706500931</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.701269669143E12</v>
+        <v>1.701289079192E12</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -744,30 +744,30 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>13.501853846153812</v>
+        <v>13.527173913043525</v>
       </c>
       <c r="E20" t="n">
-        <v>6.838550268426915</v>
+        <v>5.548986261955424</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
       </c>
       <c r="G20" t="n">
-        <v>11454.568548687821</v>
+        <v>11473.81588115026</v>
       </c>
       <c r="H20" t="n">
-        <v>-43.189965552502095</v>
+        <v>-43.18996592214714</v>
       </c>
       <c r="I20" t="n">
-        <v>-22.97622286935667</v>
+        <v>-22.976222837612873</v>
       </c>
       <c r="J20" t="n">
-        <v>1838.132675127923</v>
+        <v>1838.1647670673212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.70126967127E12</v>
+        <v>1.701289081311E12</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -776,30 +776,30 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24933526028716008</v>
+        <v>0.25397333028377034</v>
       </c>
       <c r="E21" t="n">
-        <v>6.23928753217265</v>
+        <v>6.043022238087638</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
       </c>
       <c r="G21" t="n">
-        <v>2754.910432637234</v>
+        <v>2760.4119197080768</v>
       </c>
       <c r="H21" t="n">
-        <v>-43.184082663688635</v>
+        <v>-43.18408266036754</v>
       </c>
       <c r="I21" t="n">
-        <v>-22.972215437008543</v>
+        <v>-22.972215434170973</v>
       </c>
       <c r="J21" t="n">
-        <v>1946.4219474691288</v>
+        <v>2.381046386066585</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.701269675873E12</v>
+        <v>1.701289085852E12</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>18.240552</v>
       </c>
       <c r="E22" t="n">
-        <v>9.055374154858779</v>
+        <v>9.537598456198376</v>
       </c>
       <c r="F22" t="n">
         <v>2.0</v>
@@ -820,18 +820,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H22" t="n">
-        <v>-43.183045990788706</v>
+        <v>-43.183045758149326</v>
       </c>
       <c r="I22" t="n">
-        <v>-22.9713296798927</v>
+        <v>-22.97132948128827</v>
       </c>
       <c r="J22" t="n">
-        <v>2091.2130817370935</v>
+        <v>147.2041975392185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.701269677033E12</v>
+        <v>1.701289086963E12</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>18.240552</v>
       </c>
       <c r="E23" t="n">
-        <v>6.864633111824306</v>
+        <v>9.515130707030977</v>
       </c>
       <c r="F23" t="n">
         <v>2.0</v>
@@ -852,18 +852,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H23" t="n">
-        <v>-43.18267444717002</v>
+        <v>-43.182674191929856</v>
       </c>
       <c r="I23" t="n">
-        <v>-22.971046319250192</v>
+        <v>-22.971046145959257</v>
       </c>
       <c r="J23" t="n">
-        <v>2140.641425351634</v>
+        <v>196.63247894401314</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.701269684794E12</v>
+        <v>1.701289094595E12</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -875,7 +875,7 @@
         <v>6.3214179999999995</v>
       </c>
       <c r="E24" t="n">
-        <v>7.944362081647363</v>
+        <v>8.791898687823576</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -890,12 +890,12 @@
         <v>-22.969439066784908</v>
       </c>
       <c r="J24" t="n">
-        <v>2444.6189019713083</v>
+        <v>500.5774866072602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.701269690406E12</v>
+        <v>1.701289100417E12</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>2.8599999999999994</v>
       </c>
       <c r="E25" t="n">
-        <v>5.711624094190526</v>
+        <v>9.33084005731255</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -922,12 +922,12 @@
         <v>-22.969450466705744</v>
       </c>
       <c r="J25" t="n">
-        <v>2478.812415131844</v>
+        <v>534.7709998624003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.70126969441E12</v>
+        <v>1.701289104398E12</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -939,7 +939,7 @@
         <v>18.240552</v>
       </c>
       <c r="E26" t="n">
-        <v>7.32092668321037</v>
+        <v>9.06798444089602</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -954,12 +954,12 @@
         <v>-22.970074881920493</v>
       </c>
       <c r="J26" t="n">
-        <v>2601.8081293511323</v>
+        <v>657.7667140816862</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.701269696991E12</v>
+        <v>1.701289107096E12</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -971,7 +971,7 @@
         <v>18.240552</v>
       </c>
       <c r="E27" t="n">
-        <v>8.216646226009331</v>
+        <v>7.640241075570044</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -986,12 +986,12 @@
         <v>-22.970625130686486</v>
       </c>
       <c r="J27" t="n">
-        <v>2705.75601870916</v>
+        <v>761.714603439717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.701269699436E12</v>
+        <v>1.701289109543E12</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>18.240552</v>
       </c>
       <c r="E28" t="n">
-        <v>7.576365461849678</v>
+        <v>7.90280258302719</v>
       </c>
       <c r="F28" t="n">
         <v>2.0</v>
@@ -1018,12 +1018,12 @@
         <v>-22.97118273918673</v>
       </c>
       <c r="J28" t="n">
-        <v>2805.7323687415724</v>
+        <v>861.6909534721311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.701269699773E12</v>
+        <v>1.701289109903E12</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1035,7 +1035,7 @@
         <v>18.240552</v>
       </c>
       <c r="E29" t="n">
-        <v>5.778084844529768</v>
+        <v>6.135129032900477</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -1050,12 +1050,12 @@
         <v>-22.971260575739702</v>
       </c>
       <c r="J29" t="n">
-        <v>2818.501915090904</v>
+        <v>874.4604998214625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.701269703419E12</v>
+        <v>1.701289113482E12</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>18.240552</v>
       </c>
       <c r="E30" t="n">
-        <v>6.5735367835726795</v>
+        <v>5.3101403604480595</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -1082,12 +1082,12 @@
         <v>-22.972138818953063</v>
       </c>
       <c r="J30" t="n">
-        <v>2962.498066863912</v>
+        <v>1018.4566518994458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.701269704182E12</v>
+        <v>1.701289114199E12</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>18.240552</v>
       </c>
       <c r="E31" t="n">
-        <v>5.461202715522827</v>
+        <v>6.883755491678121</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -1114,12 +1114,12 @@
         <v>-22.97230650713765</v>
       </c>
       <c r="J31" t="n">
-        <v>2993.3450247851715</v>
+        <v>1049.3036098207049</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.701269708685E12</v>
+        <v>1.70128911869E12</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1131,7 +1131,7 @@
         <v>18.240552</v>
       </c>
       <c r="E32" t="n">
-        <v>8.533863529525766</v>
+        <v>8.233817459463046</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -1146,12 +1146,12 @@
         <v>-22.97347122374239</v>
       </c>
       <c r="J32" t="n">
-        <v>3172.1169756763898</v>
+        <v>1228.0755616460906</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.701269708887E12</v>
+        <v>1.701289118896E12</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>18.240552</v>
       </c>
       <c r="E33" t="n">
-        <v>6.041133312241654</v>
+        <v>5.942374659107843</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -1178,12 +1178,12 @@
         <v>-22.97351967914897</v>
       </c>
       <c r="J33" t="n">
-        <v>3179.416387736539</v>
+        <v>1235.3749737062392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.701269711597E12</v>
+        <v>1.701289121604E12</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1195,7 +1195,7 @@
         <v>18.240552</v>
       </c>
       <c r="E34" t="n">
-        <v>9.490637466731304</v>
+        <v>6.451869867369786</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -1210,12 +1210,12 @@
         <v>-22.97425440773751</v>
       </c>
       <c r="J34" t="n">
-        <v>3285.609650854325</v>
+        <v>1341.568236824023</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.701269715463E12</v>
+        <v>1.701289125408E12</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>18.240552</v>
       </c>
       <c r="E35" t="n">
-        <v>8.674525909962538</v>
+        <v>5.859781457150485</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -1242,12 +1242,12 @@
         <v>-22.97535206330237</v>
       </c>
       <c r="J35" t="n">
-        <v>3431.794252795165</v>
+        <v>1487.7528387424748</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.701269717299E12</v>
+        <v>1.701289127226E12</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>18.240552</v>
       </c>
       <c r="E36" t="n">
-        <v>9.325887361443327</v>
+        <v>7.378172362006973</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -1274,12 +1274,12 @@
         <v>-22.97588749586378</v>
       </c>
       <c r="J36" t="n">
-        <v>3501.1798124735406</v>
+        <v>1557.1383984208517</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.701269720085E12</v>
+        <v>1.701289130102E12</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1291,7 +1291,7 @@
         <v>7.653804</v>
       </c>
       <c r="E37" t="n">
-        <v>6.664389916407127</v>
+        <v>8.494344605860519</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -1306,12 +1306,12 @@
         <v>-22.976401837294052</v>
       </c>
       <c r="J37" t="n">
-        <v>3574.2864470909803</v>
+        <v>1630.245033038291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.701269723495E12</v>
+        <v>1.701289133519E12</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1323,7 +1323,7 @@
         <v>20.849026</v>
       </c>
       <c r="E38" t="n">
-        <v>9.201410207917041</v>
+        <v>9.403343848845875</v>
       </c>
       <c r="F38" t="n">
         <v>2.0</v>
@@ -1338,12 +1338,12 @@
         <v>-22.97630247800425</v>
       </c>
       <c r="J38" t="n">
-        <v>3689.4906486868526</v>
+        <v>1745.4499531876636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.70126972703E12</v>
+        <v>1.701289136981E12</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1355,7 +1355,7 @@
         <v>13.52174139130433</v>
       </c>
       <c r="E39" t="n">
-        <v>9.175287109197933</v>
+        <v>9.279948971928933</v>
       </c>
       <c r="F39" t="n">
         <v>2.0</v>
@@ -1370,12 +1370,12 @@
         <v>-22.97622284442363</v>
       </c>
       <c r="J39" t="n">
-        <v>3784.824757041471</v>
+        <v>1840.7840615422815</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.701269729773E12</v>
+        <v>1.701289139722E12</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1384,30 +1384,30 @@
         <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>0.25396032736683266</v>
+        <v>0.25918560356250964</v>
       </c>
       <c r="E40" t="n">
-        <v>9.176677280568002</v>
+        <v>8.667552195697015</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2760.396338949678</v>
+        <v>2766.7287392920307</v>
       </c>
       <c r="H40" t="n">
-        <v>-43.18408266037685</v>
+        <v>-43.18408265663529</v>
       </c>
       <c r="I40" t="n">
-        <v>-22.972215434178928</v>
+        <v>-22.972215430982104</v>
       </c>
       <c r="J40" t="n">
-        <v>3891.650256567384</v>
+        <v>2.1111127381302266</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.701269735229E12</v>
+        <v>1.701289145056E12</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1419,7 +1419,7 @@
         <v>19.642176</v>
       </c>
       <c r="E41" t="n">
-        <v>6.0098743021944525</v>
+        <v>9.240100076078505</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -1428,18 +1428,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H41" t="n">
-        <v>-43.18304618597444</v>
+        <v>-43.18304590516067</v>
       </c>
       <c r="I41" t="n">
-        <v>-22.971329846522934</v>
+        <v>-22.97132960679198</v>
       </c>
       <c r="J41" t="n">
-        <v>4036.4136784650577</v>
+        <v>146.91321780299128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.701269736562E12</v>
+        <v>1.701289146232E12</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1451,7 +1451,7 @@
         <v>19.642176</v>
       </c>
       <c r="E42" t="n">
-        <v>6.168267216409021</v>
+        <v>9.509580969963286</v>
       </c>
       <c r="F42" t="n">
         <v>2.0</v>
@@ -1460,18 +1460,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H42" t="n">
-        <v>-43.182675793791695</v>
+        <v>-43.182675485697025</v>
       </c>
       <c r="I42" t="n">
-        <v>-22.97104723351589</v>
+        <v>-22.971047024340294</v>
       </c>
       <c r="J42" t="n">
-        <v>4085.697697987271</v>
+        <v>196.197422154845</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.701269745175E12</v>
+        <v>1.701289154877E12</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1483,7 +1483,7 @@
         <v>6.787184</v>
       </c>
       <c r="E43" t="n">
-        <v>8.852395520636634</v>
+        <v>6.246927669984999</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -1492,18 +1492,18 @@
         <v>6705.602987690254</v>
       </c>
       <c r="H43" t="n">
-        <v>-43.18032283973089</v>
+        <v>-43.180323517088176</v>
       </c>
       <c r="I43" t="n">
-        <v>-22.969437387700577</v>
+        <v>-22.9694365118438</v>
       </c>
       <c r="J43" t="n">
-        <v>4390.048772538012</v>
+        <v>500.6297106416799</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.7012697474E12</v>
+        <v>1.701289157187E12</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1515,7 +1515,7 @@
         <v>11.628847999999996</v>
       </c>
       <c r="E44" t="n">
-        <v>6.7647841467996646</v>
+        <v>5.813995728521299</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -1524,18 +1524,18 @@
         <v>10058.693442674647</v>
       </c>
       <c r="H44" t="n">
-        <v>-43.18059175837725</v>
+        <v>-43.180594973704196</v>
       </c>
       <c r="I44" t="n">
-        <v>-22.969456843942815</v>
+        <v>-22.969458844011736</v>
       </c>
       <c r="J44" t="n">
-        <v>4425.25184713448</v>
+        <v>536.1520894994685</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.701269750725E12</v>
+        <v>1.701289160551E12</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1547,7 +1547,7 @@
         <v>19.642176</v>
       </c>
       <c r="E45" t="n">
-        <v>6.51156379869118</v>
+        <v>7.701412223772544</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -1556,18 +1556,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H45" t="n">
-        <v>-43.181571446879026</v>
+        <v>-43.18157458599229</v>
       </c>
       <c r="I45" t="n">
-        <v>-22.97007380047619</v>
+        <v>-22.970075900363398</v>
       </c>
       <c r="J45" t="n">
-        <v>4546.7762483311235</v>
+        <v>657.6764870248983</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.70126975331E12</v>
+        <v>1.70128916318E12</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1579,7 +1579,7 @@
         <v>19.642176</v>
       </c>
       <c r="E46" t="n">
-        <v>9.108385444534271</v>
+        <v>9.295944459499749</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -1588,18 +1588,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H46" t="n">
-        <v>-43.182393307949624</v>
+        <v>-43.18239642734669</v>
       </c>
       <c r="I46" t="n">
-        <v>-22.970624744738927</v>
+        <v>-22.970626868874238</v>
       </c>
       <c r="J46" t="n">
-        <v>4650.856545460818</v>
+        <v>761.7567506417607</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.701269755808E12</v>
+        <v>1.701289165674E12</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1611,7 +1611,7 @@
         <v>19.642176</v>
       </c>
       <c r="E47" t="n">
-        <v>8.413966609181104</v>
+        <v>7.101052281383824</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -1620,18 +1620,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H47" t="n">
-        <v>-43.18315692794289</v>
+        <v>-43.18315978436936</v>
       </c>
       <c r="I47" t="n">
-        <v>-22.971181396612366</v>
+        <v>-22.971183819350063</v>
       </c>
       <c r="J47" t="n">
-        <v>4750.6844070095185</v>
+        <v>861.5848161368949</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.701269756153E12</v>
+        <v>1.701289166016E12</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>19.642176</v>
       </c>
       <c r="E48" t="n">
-        <v>5.7946233646067045</v>
+        <v>8.287667077762785</v>
       </c>
       <c r="F48" t="n">
         <v>2.0</v>
@@ -1652,18 +1652,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H48" t="n">
-        <v>-43.183255686543816</v>
+        <v>-43.183258539724456</v>
       </c>
       <c r="I48" t="n">
-        <v>-22.971265214181052</v>
+        <v>-22.97126763505481</v>
       </c>
       <c r="J48" t="n">
-        <v>4764.435375693442</v>
+        <v>875.3353987548744</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.701269759717E12</v>
+        <v>1.701289169582E12</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -1675,7 +1675,7 @@
         <v>19.642176</v>
       </c>
       <c r="E49" t="n">
-        <v>6.999872713923217</v>
+        <v>5.798222903704308</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -1684,18 +1684,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H49" t="n">
-        <v>-43.184284184139074</v>
+        <v>-43.18428694544667</v>
       </c>
       <c r="I49" t="n">
-        <v>-22.97213912588365</v>
+        <v>-22.972141636718465</v>
       </c>
       <c r="J49" t="n">
-        <v>4907.718997168721</v>
+        <v>1018.6191398611492</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.701269760445E12</v>
+        <v>1.701289170258E12</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1707,7 +1707,7 @@
         <v>19.642176</v>
       </c>
       <c r="E50" t="n">
-        <v>6.745962632584362</v>
+        <v>9.12211968063985</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -1716,18 +1716,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H50" t="n">
-        <v>-43.18450658831742</v>
+        <v>-43.18449636210856</v>
       </c>
       <c r="I50" t="n">
-        <v>-22.972308695023777</v>
+        <v>-22.97229820830767</v>
       </c>
       <c r="J50" t="n">
-        <v>4938.774144144874</v>
+        <v>1047.7572951137045</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.701269764707E12</v>
+        <v>1.701289174563E12</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -1739,7 +1739,7 @@
         <v>19.642176</v>
       </c>
       <c r="E51" t="n">
-        <v>7.7103372569253805</v>
+        <v>9.144732144152336</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -1748,18 +1748,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H51" t="n">
-        <v>-43.18568320636275</v>
+        <v>-43.18567289022446</v>
       </c>
       <c r="I51" t="n">
-        <v>-22.97347237614709</v>
+        <v>-22.973461953052453</v>
       </c>
       <c r="J51" t="n">
-        <v>5117.323637153268</v>
+        <v>1226.3058671499211</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.701269764895E12</v>
+        <v>1.701289174764E12</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1771,7 +1771,7 @@
         <v>19.642176</v>
       </c>
       <c r="E52" t="n">
-        <v>7.7103372569253805</v>
+        <v>9.144732144152336</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
@@ -1780,18 +1780,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H52" t="n">
-        <v>-43.18573500024949</v>
+        <v>-43.185724682097785</v>
       </c>
       <c r="I52" t="n">
-        <v>-22.973524554480242</v>
+        <v>-22.97351414344337</v>
       </c>
       <c r="J52" t="n">
-        <v>5125.183577061991</v>
+        <v>1234.1666678930967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.701269767477E12</v>
+        <v>1.701289177358E12</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -1803,7 +1803,7 @@
         <v>19.642176</v>
       </c>
       <c r="E53" t="n">
-        <v>8.389918607360249</v>
+        <v>8.113426388907026</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -1812,18 +1812,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H53" t="n">
-        <v>-43.18638683786558</v>
+        <v>-43.18638907902325</v>
       </c>
       <c r="I53" t="n">
-        <v>-22.974247367060958</v>
+        <v>-22.97425028661437</v>
       </c>
       <c r="J53" t="n">
-        <v>5229.684808309813</v>
+        <v>1340.6330067260956</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.701269770947E12</v>
+        <v>1.701289180874E12</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -1835,7 +1835,7 @@
         <v>19.642176</v>
       </c>
       <c r="E54" t="n">
-        <v>9.117863266703731</v>
+        <v>6.772166184421181</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -1844,18 +1844,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H54" t="n">
-        <v>-43.18717986009079</v>
+        <v>-43.18718182902927</v>
       </c>
       <c r="I54" t="n">
-        <v>-22.975355425750855</v>
+        <v>-22.975358502687744</v>
       </c>
       <c r="J54" t="n">
-        <v>5377.262023373302</v>
+        <v>1488.2096573922695</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.701269772536E12</v>
+        <v>1.701289182483E12</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -1867,7 +1867,7 @@
         <v>19.642176</v>
       </c>
       <c r="E55" t="n">
-        <v>8.73938178352665</v>
+        <v>6.473321523949569</v>
       </c>
       <c r="F55" t="n">
         <v>2.0</v>
@@ -1876,18 +1876,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H55" t="n">
-        <v>-43.18752507042166</v>
+        <v>-43.18752696882955</v>
       </c>
       <c r="I55" t="n">
-        <v>-22.975886457173424</v>
+        <v>-22.975889572425388</v>
       </c>
       <c r="J55" t="n">
-        <v>5446.081104079522</v>
+        <v>1557.0288674552557</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.701269774987E12</v>
+        <v>1.701289184953E12</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -1899,7 +1899,7 @@
         <v>8.221952</v>
       </c>
       <c r="E56" t="n">
-        <v>6.7747964499079165</v>
+        <v>6.899818160138086</v>
       </c>
       <c r="F56" t="n">
         <v>2.0</v>
@@ -1914,12 +1914,12 @@
         <v>-22.976401621014087</v>
       </c>
       <c r="J56" t="n">
-        <v>5519.427593204893</v>
+        <v>1629.9781625853511</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.701269778089E12</v>
+        <v>1.701289188116E12</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1931,7 +1931,7 @@
         <v>22.451088</v>
       </c>
       <c r="E57" t="n">
-        <v>6.8796333714984</v>
+        <v>6.346381793146053</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -1946,12 +1946,12 @@
         <v>-22.97630301968294</v>
       </c>
       <c r="J57" t="n">
-        <v>5633.87135310888</v>
+        <v>1744.4219224916712</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.701269782428E12</v>
+        <v>1.70128919196E12</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -1960,30 +1960,30 @@
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>11.263849279999972</v>
+        <v>11.95384927999999</v>
       </c>
       <c r="E58" t="n">
-        <v>7.094613813396455</v>
+        <v>8.3549379206953</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
       </c>
       <c r="G58" t="n">
-        <v>9793.08715657093</v>
+        <v>10296.954320821182</v>
       </c>
       <c r="H58" t="n">
-        <v>-43.18997128949449</v>
+        <v>-43.18997172518194</v>
       </c>
       <c r="I58" t="n">
-        <v>-22.976222376684248</v>
+        <v>-22.976222339268965</v>
       </c>
       <c r="J58" t="n">
-        <v>5730.4145948836685</v>
+        <v>1841.009960035867</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.701269785205E12</v>
+        <v>1.701289194699E12</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -1992,30 +1992,30 @@
         <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2594932300685905</v>
+        <v>0.25932607014966197</v>
       </c>
       <c r="E59" t="n">
-        <v>8.067762462314427</v>
+        <v>5.249416186383757</v>
       </c>
       <c r="F59" t="n">
         <v>2.0</v>
       </c>
       <c r="G59" t="n">
-        <v>2767.105995352028</v>
+        <v>2766.900938322469</v>
       </c>
       <c r="H59" t="n">
-        <v>-43.184082656415015</v>
+        <v>-43.184082656534706</v>
       </c>
       <c r="I59" t="n">
-        <v>-22.9722154307939</v>
+        <v>-22.972215430896167</v>
       </c>
       <c r="J59" t="n">
-        <v>5830.417107860902</v>
+        <v>2.271355218787535</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.701269790433E12</v>
+        <v>1.701289199775E12</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2027,7 +2027,7 @@
         <v>21.047688</v>
       </c>
       <c r="E60" t="n">
-        <v>7.991039300535519</v>
+        <v>5.984063867678531</v>
       </c>
       <c r="F60" t="n">
         <v>2.0</v>
@@ -2036,18 +2036,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H60" t="n">
-        <v>-43.18304254800275</v>
+        <v>-43.18304255758506</v>
       </c>
       <c r="I60" t="n">
-        <v>-22.97132674078342</v>
+        <v>-22.971326748963843</v>
       </c>
       <c r="J60" t="n">
-        <v>5975.687890382192</v>
+        <v>147.54081439305762</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.701269791519E12</v>
+        <v>1.701289200799E12</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2059,7 +2059,7 @@
         <v>21.047688</v>
       </c>
       <c r="E61" t="n">
-        <v>9.558837525689393</v>
+        <v>7.293434593350612</v>
       </c>
       <c r="F61" t="n">
         <v>2.0</v>
@@ -2068,18 +2068,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H61" t="n">
-        <v>-43.182677272195434</v>
+        <v>-43.18267728270865</v>
       </c>
       <c r="I61" t="n">
-        <v>-22.971048237252763</v>
+        <v>-22.971048244390534</v>
       </c>
       <c r="J61" t="n">
-        <v>6024.275814954762</v>
+        <v>196.12874078119862</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.701269799477E12</v>
+        <v>1.701289208746E12</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2091,7 +2091,7 @@
         <v>7.254242</v>
       </c>
       <c r="E62" t="n">
-        <v>9.192176221644228</v>
+        <v>7.908202116232708</v>
       </c>
       <c r="F62" t="n">
         <v>2.0</v>
@@ -2100,18 +2100,18 @@
         <v>7013.024546096211</v>
       </c>
       <c r="H62" t="n">
-        <v>-43.18032554262777</v>
+        <v>-43.18032553505541</v>
       </c>
       <c r="I62" t="n">
-        <v>-22.96943389272</v>
+        <v>-22.969433902511444</v>
       </c>
       <c r="J62" t="n">
-        <v>6329.300961989289</v>
+        <v>501.1539249079411</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.701269801463E12</v>
+        <v>1.701289210803E12</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2123,7 +2123,7 @@
         <v>11.847473999999997</v>
       </c>
       <c r="E63" t="n">
-        <v>6.590944378533418</v>
+        <v>7.902537228666399</v>
       </c>
       <c r="F63" t="n">
         <v>2.0</v>
@@ -2132,18 +2132,18 @@
         <v>10218.78724174052</v>
       </c>
       <c r="H63" t="n">
-        <v>-43.18058876920805</v>
+        <v>-43.18058876411373</v>
       </c>
       <c r="I63" t="n">
-        <v>-22.969454984553554</v>
+        <v>-22.969454981384672</v>
       </c>
       <c r="J63" t="n">
-        <v>6363.678094539423</v>
+        <v>535.5316837203768</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.701269804633E12</v>
+        <v>1.701289213915E12</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2155,7 +2155,7 @@
         <v>21.047688</v>
       </c>
       <c r="E64" t="n">
-        <v>5.900702714317404</v>
+        <v>6.661629240190042</v>
       </c>
       <c r="F64" t="n">
         <v>2.0</v>
@@ -2164,18 +2164,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H64" t="n">
-        <v>-43.18158020306413</v>
+        <v>-43.18158019809056</v>
       </c>
       <c r="I64" t="n">
-        <v>-22.970079657863156</v>
+        <v>-22.97007965453612</v>
       </c>
       <c r="J64" t="n">
-        <v>6486.679874501436</v>
+        <v>658.5334638037567</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.701269806992E12</v>
+        <v>1.701289216283E12</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2187,7 +2187,7 @@
         <v>21.047688</v>
       </c>
       <c r="E65" t="n">
-        <v>6.2628932116267615</v>
+        <v>6.832843751288492</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -2196,18 +2196,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H65" t="n">
-        <v>-43.18239439223178</v>
+        <v>-43.18239438728945</v>
       </c>
       <c r="I65" t="n">
-        <v>-22.970625483074564</v>
+        <v>-22.97062547970911</v>
       </c>
       <c r="J65" t="n">
-        <v>6589.7901712019575</v>
+        <v>761.6437605570438</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.701269809224E12</v>
+        <v>1.701289218537E12</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2219,7 +2219,7 @@
         <v>21.047688</v>
       </c>
       <c r="E66" t="n">
-        <v>7.730589812593021</v>
+        <v>6.156743330591907</v>
       </c>
       <c r="F66" t="n">
         <v>2.0</v>
@@ -2228,18 +2228,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H66" t="n">
-        <v>-43.183164060980715</v>
+        <v>-43.183164056455034</v>
       </c>
       <c r="I66" t="n">
-        <v>-22.9711874466472</v>
+        <v>-22.971187442808642</v>
       </c>
       <c r="J66" t="n">
-        <v>6690.472913255832</v>
+        <v>862.3265005913457</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.70126980951E12</v>
+        <v>1.701289218835E12</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2251,7 +2251,7 @@
         <v>21.047688</v>
       </c>
       <c r="E67" t="n">
-        <v>7.730589812593021</v>
+        <v>6.156743330591907</v>
       </c>
       <c r="F67" t="n">
         <v>2.0</v>
@@ -2260,18 +2260,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H67" t="n">
-        <v>-43.183254759575796</v>
+        <v>-43.18325475505525</v>
       </c>
       <c r="I67" t="n">
-        <v>-22.971264427664934</v>
+        <v>-22.971264423829332</v>
       </c>
       <c r="J67" t="n">
-        <v>6703.10192781934</v>
+        <v>874.9555157636605</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.701269812653E12</v>
+        <v>1.701289222123E12</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2283,7 +2283,7 @@
         <v>21.047688</v>
       </c>
       <c r="E68" t="n">
-        <v>5.4806474691056115</v>
+        <v>8.189903537537806</v>
       </c>
       <c r="F68" t="n">
         <v>2.0</v>
@@ -2292,18 +2292,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H68" t="n">
-        <v>-43.184281454414204</v>
+        <v>-43.18428145003922</v>
       </c>
       <c r="I68" t="n">
-        <v>-22.972136643766763</v>
+        <v>-22.97213663978863</v>
       </c>
       <c r="J68" t="n">
-        <v>6846.121953348641</v>
+        <v>1017.975541396129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.701269813314E12</v>
+        <v>1.701289222806E12</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2315,7 +2315,7 @@
         <v>21.047688</v>
       </c>
       <c r="E69" t="n">
-        <v>6.630803911999478</v>
+        <v>8.567707209158522</v>
       </c>
       <c r="F69" t="n">
         <v>2.0</v>
@@ -2324,18 +2324,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H69" t="n">
-        <v>-43.1845040487656</v>
+        <v>-43.18450404465881</v>
       </c>
       <c r="I69" t="n">
-        <v>-22.972306090778215</v>
+        <v>-22.97230608656681</v>
       </c>
       <c r="J69" t="n">
-        <v>6877.13551256573</v>
+        <v>1048.3372329669414</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.701269820608E12</v>
+        <v>1.701289230583E12</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2347,7 +2347,7 @@
         <v>13.520000000000039</v>
       </c>
       <c r="E70" t="n">
-        <v>8.809458450672278</v>
+        <v>8.453812980666585</v>
       </c>
       <c r="F70" t="n">
         <v>2.0</v>
@@ -2362,12 +2362,12 @@
         <v>-22.973465453949366</v>
       </c>
       <c r="J70" t="n">
-        <v>7054.967800653455</v>
+        <v>1226.1701482587691</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.701269820844E12</v>
+        <v>1.701289230825E12</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>14.820000000000038</v>
       </c>
       <c r="E71" t="n">
-        <v>8.809458450672278</v>
+        <v>8.453812980666585</v>
       </c>
       <c r="F71" t="n">
         <v>2.0</v>
@@ -2394,12 +2394,12 @@
         <v>-22.973512947561186</v>
       </c>
       <c r="J71" t="n">
-        <v>7062.1217600206455</v>
+        <v>1233.32410762596</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.701269823433E12</v>
+        <v>1.70128923341E12</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2411,7 +2411,7 @@
         <v>21.047688</v>
       </c>
       <c r="E72" t="n">
-        <v>6.139055075752525</v>
+        <v>6.384875413047949</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -2426,12 +2426,12 @@
         <v>-22.97425221304825</v>
       </c>
       <c r="J72" t="n">
-        <v>7169.029797086527</v>
+        <v>1340.232144691843</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.701269826791E12</v>
+        <v>1.701289236776E12</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2443,7 +2443,7 @@
         <v>21.047688</v>
       </c>
       <c r="E73" t="n">
-        <v>5.583241955695064</v>
+        <v>6.52883307659587</v>
       </c>
       <c r="F73" t="n">
         <v>2.0</v>
@@ -2458,12 +2458,12 @@
         <v>-22.975360668505594</v>
       </c>
       <c r="J73" t="n">
-        <v>7316.623760934275</v>
+        <v>1487.8261085395945</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.701269828332E12</v>
+        <v>1.701289238317E12</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2475,7 +2475,7 @@
         <v>21.047688</v>
       </c>
       <c r="E74" t="n">
-        <v>7.001993998557597</v>
+        <v>6.128992791480422</v>
       </c>
       <c r="F74" t="n">
         <v>2.0</v>
@@ -2490,12 +2490,12 @@
         <v>-22.975880823883266</v>
       </c>
       <c r="J74" t="n">
-        <v>7384.0479913699755</v>
+        <v>1555.2503389752926</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.701269830936E12</v>
+        <v>1.701289240856E12</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2507,7 +2507,7 @@
         <v>8.791675999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>6.650231760619041</v>
+        <v>6.775589665259419</v>
       </c>
       <c r="F75" t="n">
         <v>2.0</v>
@@ -2522,12 +2522,12 @@
         <v>-22.976401618295483</v>
       </c>
       <c r="J75" t="n">
-        <v>7458.117511949154</v>
+        <v>1629.3198595544702</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.701269834119E12</v>
+        <v>1.701289244065E12</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>24.057593999999998</v>
       </c>
       <c r="E76" t="n">
-        <v>8.765614417548576</v>
+        <v>6.708164147416548</v>
       </c>
       <c r="F76" t="n">
         <v>2.0</v>
@@ -2554,12 +2554,12 @@
         <v>-22.97630278171148</v>
       </c>
       <c r="J76" t="n">
-        <v>7572.845486550857</v>
+        <v>1744.047834156171</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.701269840051E12</v>
+        <v>1.701289249958E12</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2571,7 +2571,7 @@
         <v>10.919999999999993</v>
       </c>
       <c r="E77" t="n">
-        <v>9.37318484757795</v>
+        <v>8.943749405723295</v>
       </c>
       <c r="F77" t="n">
         <v>2.0</v>
@@ -2586,12 +2586,12 @@
         <v>-22.976223292088612</v>
       </c>
       <c r="J77" t="n">
-        <v>7668.007565059402</v>
+        <v>1839.2099126647197</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.701269842974E12</v>
+        <v>1.701289254485E12</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -2600,30 +2600,30 @@
         <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24776501540560275</v>
+        <v>0.25600854466017336</v>
       </c>
       <c r="E78" t="n">
-        <v>9.483977941632794</v>
+        <v>6.690949890486412</v>
       </c>
       <c r="F78" t="n">
         <v>2.0</v>
       </c>
       <c r="G78" t="n">
-        <v>2753.073360823088</v>
+        <v>2762.861516170215</v>
       </c>
       <c r="H78" t="n">
-        <v>-43.184082664813005</v>
+        <v>-43.18408265891022</v>
       </c>
       <c r="I78" t="n">
-        <v>-22.97221543796922</v>
+        <v>-22.97221543292583</v>
       </c>
       <c r="J78" t="n">
-        <v>7770.222509435509</v>
+        <v>2.4316963289617353</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.70126984832E12</v>
+        <v>1.701289259988E12</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>20.029032</v>
       </c>
       <c r="E79" t="n">
-        <v>6.358288623351374</v>
+        <v>7.914917743845081</v>
       </c>
       <c r="F79" t="n">
         <v>2.0</v>
@@ -2644,18 +2644,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H79" t="n">
-        <v>-43.18303675640886</v>
+        <v>-43.18303630157604</v>
       </c>
       <c r="I79" t="n">
-        <v>-22.9713217964948</v>
+        <v>-22.971321408203636</v>
       </c>
       <c r="J79" t="n">
-        <v>7916.303056574378</v>
+        <v>148.57492043288906</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.701269849501E12</v>
+        <v>1.701289261149E12</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -2667,7 +2667,7 @@
         <v>20.029032</v>
       </c>
       <c r="E80" t="n">
-        <v>6.694978133234727</v>
+        <v>6.221936004937501</v>
       </c>
       <c r="F80" t="n">
         <v>2.0</v>
@@ -2676,18 +2676,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H80" t="n">
-        <v>-43.182673590956234</v>
+        <v>-43.18267309193666</v>
       </c>
       <c r="I80" t="n">
-        <v>-22.971045737938518</v>
+        <v>-22.97104539913773</v>
       </c>
       <c r="J80" t="n">
-        <v>7964.5510178756485</v>
+        <v>196.82296914413533</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.701269857778E12</v>
+        <v>1.701289269385E12</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -2699,7 +2699,7 @@
         <v>6.915737999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>8.110848051654756</v>
+        <v>5.9743829510019</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -2714,12 +2714,12 @@
         <v>-22.96943697756417</v>
       </c>
       <c r="J81" t="n">
-        <v>8268.701354131965</v>
+        <v>500.910444769034</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.701269862105E12</v>
+        <v>1.701289272035E12</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -2728,30 +2728,30 @@
         <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>2.8599999999999994</v>
+        <v>3.799949882352929</v>
       </c>
       <c r="E82" t="n">
-        <v>7.157333392519471</v>
+        <v>8.884823007047478</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
       </c>
       <c r="G82" t="n">
-        <v>4256.164415555553</v>
+        <v>4820.382435254479</v>
       </c>
       <c r="H82" t="n">
-        <v>-43.18058150627943</v>
+        <v>-43.18058195948452</v>
       </c>
       <c r="I82" t="n">
-        <v>-22.969450466705744</v>
+        <v>-22.969450748618417</v>
       </c>
       <c r="J82" t="n">
-        <v>8302.592027124196</v>
+        <v>534.8571130637837</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.701269866283E12</v>
+        <v>1.701289276244E12</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -2763,7 +2763,7 @@
         <v>20.029032</v>
       </c>
       <c r="E83" t="n">
-        <v>8.21822572795296</v>
+        <v>8.551130730850087</v>
       </c>
       <c r="F83" t="n">
         <v>2.0</v>
@@ -2772,18 +2772,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H83" t="n">
-        <v>-43.18156785491092</v>
+        <v>-43.181568128184715</v>
       </c>
       <c r="I83" t="n">
-        <v>-22.970071397654987</v>
+        <v>-22.970071580459525</v>
       </c>
       <c r="J83" t="n">
-        <v>8424.92860924731</v>
+        <v>657.1722811091736</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.701269868727E12</v>
+        <v>1.701289278744E12</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -2795,7 +2795,7 @@
         <v>20.029032</v>
       </c>
       <c r="E84" t="n">
-        <v>5.204134518870481</v>
+        <v>5.868206144132216</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -2804,18 +2804,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H84" t="n">
-        <v>-43.182390111066624</v>
+        <v>-43.182390382624035</v>
       </c>
       <c r="I84" t="n">
-        <v>-22.970622567840017</v>
+        <v>-22.97062275275546</v>
       </c>
       <c r="J84" t="n">
-        <v>8529.056383122861</v>
+        <v>761.3000519892527</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.701269871086E12</v>
+        <v>1.701289281118E12</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -2827,7 +2827,7 @@
         <v>20.029032</v>
       </c>
       <c r="E85" t="n">
-        <v>5.680645230649248</v>
+        <v>9.351122858697373</v>
       </c>
       <c r="F85" t="n">
         <v>2.0</v>
@@ -2836,18 +2836,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H85" t="n">
-        <v>-43.18315378526554</v>
+        <v>-43.183154033930194</v>
       </c>
       <c r="I85" t="n">
-        <v>-22.971178731085015</v>
+        <v>-22.971178941995124</v>
       </c>
       <c r="J85" t="n">
-        <v>8628.85449471004</v>
+        <v>861.0983144931117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.701269871422E12</v>
+        <v>1.701289281456E12</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -2859,7 +2859,7 @@
         <v>20.029032</v>
       </c>
       <c r="E86" t="n">
-        <v>5.207264380514083</v>
+        <v>7.721205606800375</v>
       </c>
       <c r="F86" t="n">
         <v>2.0</v>
@@ -2868,18 +2868,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H86" t="n">
-        <v>-43.1832544926851</v>
+        <v>-43.18325474106719</v>
       </c>
       <c r="I86" t="n">
-        <v>-22.97126420121286</v>
+        <v>-22.971264411960707</v>
       </c>
       <c r="J86" t="n">
-        <v>8642.876705891627</v>
+        <v>875.1204922283807</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.701269874785E12</v>
+        <v>1.701289284968E12</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -2891,7 +2891,7 @@
         <v>20.029032</v>
       </c>
       <c r="E87" t="n">
-        <v>8.50563726321087</v>
+        <v>5.87563402022907</v>
       </c>
       <c r="F87" t="n">
         <v>2.0</v>
@@ -2900,18 +2900,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H87" t="n">
-        <v>-43.184288737369826</v>
+        <v>-43.18428897775396</v>
       </c>
       <c r="I87" t="n">
-        <v>-22.972143266099785</v>
+        <v>-22.972143484679144</v>
       </c>
       <c r="J87" t="n">
-        <v>8786.981791192486</v>
+        <v>1019.2256043516771</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.70126987549E12</v>
+        <v>1.70128928561E12</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -2923,7 +2923,7 @@
         <v>20.029032</v>
       </c>
       <c r="E88" t="n">
-        <v>7.58158149855231</v>
+        <v>8.658296197699244</v>
       </c>
       <c r="F88" t="n">
         <v>2.0</v>
@@ -2932,18 +2932,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H88" t="n">
-        <v>-43.18450157858778</v>
+        <v>-43.18450180423587</v>
       </c>
       <c r="I88" t="n">
-        <v>-22.97230355767393</v>
+        <v>-22.97230378907029</v>
       </c>
       <c r="J88" t="n">
-        <v>8816.621167651678</v>
+        <v>1048.8639217908772</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.701269879582E12</v>
+        <v>1.701289289906E12</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>20.029032</v>
       </c>
       <c r="E89" t="n">
-        <v>5.380507430420309</v>
+        <v>7.374021028169652</v>
       </c>
       <c r="F89" t="n">
         <v>2.0</v>
@@ -2964,18 +2964,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H89" t="n">
-        <v>-43.18567470100361</v>
+        <v>-43.18567492867002</v>
       </c>
       <c r="I89" t="n">
-        <v>-22.973463779418005</v>
+        <v>-22.97346400953014</v>
       </c>
       <c r="J89" t="n">
-        <v>8994.62700044168</v>
+        <v>1226.869774818169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.701269879786E12</v>
+        <v>1.701289290121E12</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -2987,7 +2987,7 @@
         <v>20.029032</v>
       </c>
       <c r="E90" t="n">
-        <v>5.380507430420309</v>
+        <v>7.374021028169652</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -2996,18 +2996,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H90" t="n">
-        <v>-43.18572751340823</v>
+        <v>-43.1857277410851</v>
       </c>
       <c r="I90" t="n">
-        <v>-22.973517000241593</v>
+        <v>-22.973517229968042</v>
       </c>
       <c r="J90" t="n">
-        <v>9002.642863132518</v>
+        <v>1234.8855936520022</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.701269882462E12</v>
+        <v>1.70128929272E12</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3019,7 +3019,7 @@
         <v>20.029032</v>
       </c>
       <c r="E91" t="n">
-        <v>6.3913530773809</v>
+        <v>7.948652437659008</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -3028,18 +3028,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H91" t="n">
-        <v>-43.1863919911799</v>
+        <v>-43.18639218628266</v>
       </c>
       <c r="I91" t="n">
-        <v>-22.97425408027736</v>
+        <v>-22.97425433443749</v>
       </c>
       <c r="J91" t="n">
-        <v>9109.194463338965</v>
+        <v>1341.4366606059878</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.70126988605E12</v>
+        <v>1.701289296358E12</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>20.029032</v>
       </c>
       <c r="E92" t="n">
-        <v>9.106184922062514</v>
+        <v>6.525479891386162</v>
       </c>
       <c r="F92" t="n">
         <v>2.0</v>
@@ -3060,18 +3060,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H92" t="n">
-        <v>-43.187178912876966</v>
+        <v>-43.18717908428183</v>
       </c>
       <c r="I92" t="n">
-        <v>-22.97535394550291</v>
+        <v>-22.975354213363975</v>
       </c>
       <c r="J92" t="n">
-        <v>9255.666439074848</v>
+        <v>1487.9086079308122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.70126988769E12</v>
+        <v>1.701289298138E12</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3083,7 +3083,7 @@
         <v>20.029032</v>
       </c>
       <c r="E93" t="n">
-        <v>6.681217411556397</v>
+        <v>8.554629810683775</v>
       </c>
       <c r="F93" t="n">
         <v>2.0</v>
@@ -3092,18 +3092,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H93" t="n">
-        <v>-43.18752105564882</v>
+        <v>-43.18752122091369</v>
       </c>
       <c r="I93" t="n">
-        <v>-22.975879869006043</v>
+        <v>-22.97588014020261</v>
       </c>
       <c r="J93" t="n">
-        <v>9323.836656448442</v>
+        <v>1556.0788390540783</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.701269890235E12</v>
+        <v>1.70128930072E12</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3115,7 +3115,7 @@
         <v>8.378764</v>
       </c>
       <c r="E94" t="n">
-        <v>7.098615850447173</v>
+        <v>5.929122735424395</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -3130,12 +3130,12 @@
         <v>-22.976402726277215</v>
       </c>
       <c r="J94" t="n">
-        <v>9397.442145196726</v>
+        <v>1629.6497501951656</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.701269893457E12</v>
+        <v>1.701289303984E12</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3147,7 +3147,7 @@
         <v>22.893265999999997</v>
       </c>
       <c r="E95" t="n">
-        <v>6.019544430731072</v>
+        <v>5.270207307710479</v>
       </c>
       <c r="F95" t="n">
         <v>2.0</v>
@@ -3162,12 +3162,12 @@
         <v>-22.976302295525173</v>
       </c>
       <c r="J95" t="n">
-        <v>9513.329708838839</v>
+        <v>1745.5373138372681</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.701269896804E12</v>
+        <v>1.701289307298E12</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3179,7 +3179,7 @@
         <v>13.576264599999986</v>
       </c>
       <c r="E96" t="n">
-        <v>5.388625675108096</v>
+        <v>8.192711580901648</v>
       </c>
       <c r="F96" t="n">
         <v>2.0</v>
@@ -3194,12 +3194,12 @@
         <v>-22.97622277606782</v>
       </c>
       <c r="J96" t="n">
-        <v>9608.526985000437</v>
+        <v>1840.7345899988647</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.701269900162E12</v>
+        <v>1.701289311055E12</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3208,30 +3208,30 @@
         <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>0.25073545590136204</v>
+        <v>0.2487178191994317</v>
       </c>
       <c r="E97" t="n">
-        <v>5.89860785327434</v>
+        <v>7.933334116341655</v>
       </c>
       <c r="F97" t="n">
         <v>2.0</v>
       </c>
       <c r="G97" t="n">
-        <v>2756.559433521535</v>
+        <v>2754.186533544374</v>
       </c>
       <c r="H97" t="n">
-        <v>-43.18408266268602</v>
+        <v>-43.18408266413075</v>
       </c>
       <c r="I97" t="n">
-        <v>-22.972215436151902</v>
+        <v>-22.972215437386293</v>
       </c>
       <c r="J97" t="n">
-        <v>9715.952183255216</v>
+        <v>2.3145182225630356</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.701269906037E12</v>
+        <v>1.701289316961E12</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3240,30 +3240,30 @@
         <v>16</v>
       </c>
       <c r="D98" t="n">
-        <v>11.27807638894761</v>
+        <v>11.199842996875905</v>
       </c>
       <c r="E98" t="n">
-        <v>5.943966491246026</v>
+        <v>6.081858824998521</v>
       </c>
       <c r="F98" t="n">
         <v>2.0</v>
       </c>
       <c r="G98" t="n">
-        <v>7084.930881342023</v>
+        <v>5754.336519507996</v>
       </c>
       <c r="H98" t="n">
-        <v>-43.18304775978857</v>
+        <v>-43.18305213879763</v>
       </c>
       <c r="I98" t="n">
-        <v>-22.97133119008939</v>
+        <v>-22.971334928453135</v>
       </c>
       <c r="J98" t="n">
-        <v>9860.496204313862</v>
+        <v>146.2473669839568</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.701269907628E12</v>
+        <v>1.701289318666E12</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3275,7 +3275,7 @@
         <v>16.15464</v>
       </c>
       <c r="E99" t="n">
-        <v>7.381620589143305</v>
+        <v>7.005424198161219</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -3284,18 +3284,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H99" t="n">
-        <v>-43.182678831542034</v>
+        <v>-43.18267646898771</v>
       </c>
       <c r="I99" t="n">
-        <v>-22.971049295944404</v>
+        <v>-22.971047691928646</v>
       </c>
       <c r="J99" t="n">
-        <v>9909.614048437401</v>
+        <v>196.27771111845797</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.701269917205E12</v>
+        <v>1.701289328168E12</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3307,7 +3307,7 @@
         <v>5.628259999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>5.408676138367397</v>
+        <v>9.54588561107045</v>
       </c>
       <c r="F100" t="n">
         <v>2.0</v>
@@ -3316,18 +3316,18 @@
         <v>5957.581786315545</v>
       </c>
       <c r="H100" t="n">
-        <v>-43.180323220041366</v>
+        <v>-43.180321340727794</v>
       </c>
       <c r="I100" t="n">
-        <v>-22.96943689594015</v>
+        <v>-22.969439325986393</v>
       </c>
       <c r="J100" t="n">
-        <v>10214.452992395669</v>
+        <v>500.4740563981752</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.701269919537E12</v>
+        <v>1.701289330678E12</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3339,7 +3339,7 @@
         <v>10.961219999999996</v>
       </c>
       <c r="E101" t="n">
-        <v>8.020587906705753</v>
+        <v>9.092716573827463</v>
       </c>
       <c r="F101" t="n">
         <v>2.0</v>
@@ -3348,18 +3348,18 @@
         <v>9574.452594746153</v>
       </c>
       <c r="H101" t="n">
-        <v>-43.18059213226921</v>
+        <v>-43.18058977624469</v>
       </c>
       <c r="I101" t="n">
-        <v>-22.969457076519383</v>
+        <v>-22.969455610972798</v>
       </c>
       <c r="J101" t="n">
-        <v>10249.669558021153</v>
+        <v>535.7223371038885</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.701269923101E12</v>
+        <v>1.701289334254E12</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3371,7 +3371,7 @@
         <v>16.15464</v>
       </c>
       <c r="E102" t="n">
-        <v>9.433114563585562</v>
+        <v>7.243753995308312</v>
       </c>
       <c r="F102" t="n">
         <v>2.0</v>
@@ -3380,18 +3380,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H102" t="n">
-        <v>-43.18156755902611</v>
+        <v>-43.181565258847016</v>
       </c>
       <c r="I102" t="n">
-        <v>-22.970071199724977</v>
+        <v>-22.97006966103674</v>
       </c>
       <c r="J102" t="n">
-        <v>10370.655826273112</v>
+        <v>656.7086231010892</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.701269926056E12</v>
+        <v>1.701289337304E12</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3403,7 +3403,7 @@
         <v>16.15464</v>
       </c>
       <c r="E103" t="n">
-        <v>6.729724860338248</v>
+        <v>8.391437457543395</v>
       </c>
       <c r="F103" t="n">
         <v>2.0</v>
@@ -3412,18 +3412,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H103" t="n">
-        <v>-43.18238383832553</v>
+        <v>-43.18238155259344</v>
       </c>
       <c r="I103" t="n">
-        <v>-22.970618296453395</v>
+        <v>-22.970616739997407</v>
       </c>
       <c r="J103" t="n">
-        <v>10474.022301981946</v>
+        <v>760.0751269975652</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.701269928903E12</v>
+        <v>1.701289340292E12</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3435,7 +3435,7 @@
         <v>16.15464</v>
       </c>
       <c r="E104" t="n">
-        <v>6.730916743573911</v>
+        <v>7.79958584472863</v>
       </c>
       <c r="F104" t="n">
         <v>2.0</v>
@@ -3444,18 +3444,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H104" t="n">
-        <v>-43.18314813918974</v>
+        <v>-43.18315766380611</v>
       </c>
       <c r="I104" t="n">
-        <v>-22.971173942248043</v>
+        <v>-22.971182020750106</v>
       </c>
       <c r="J104" t="n">
-        <v>10573.834384036656</v>
+        <v>861.5041484636713</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.701269929335E12</v>
+        <v>1.701289340667E12</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>16.15464</v>
       </c>
       <c r="E105" t="n">
-        <v>6.730916743573911</v>
+        <v>7.16526405347452</v>
       </c>
       <c r="F105" t="n">
         <v>2.0</v>
@@ -3476,18 +3476,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H105" t="n">
-        <v>-43.183252580136106</v>
+        <v>-43.183250489473586</v>
       </c>
       <c r="I105" t="n">
-        <v>-22.971262578448563</v>
+        <v>-22.971260804558057</v>
       </c>
       <c r="J105" t="n">
-        <v>10588.376247328466</v>
+        <v>874.4291470635233</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.701269933848E12</v>
+        <v>1.701289344754E12</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3499,7 +3499,7 @@
         <v>16.15464</v>
       </c>
       <c r="E106" t="n">
-        <v>8.029796910296048</v>
+        <v>6.718436238963134</v>
       </c>
       <c r="F106" t="n">
         <v>2.0</v>
@@ -3508,18 +3508,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H106" t="n">
-        <v>-43.18428387801325</v>
+        <v>-43.18428185467051</v>
       </c>
       <c r="I106" t="n">
-        <v>-22.972138847525898</v>
+        <v>-22.972137007716604</v>
       </c>
       <c r="J106" t="n">
-        <v>10732.048443993383</v>
+        <v>1018.1011696821107</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.701269934608E12</v>
+        <v>1.701289345628E12</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3531,7 +3531,7 @@
         <v>16.15464</v>
       </c>
       <c r="E107" t="n">
-        <v>6.4882623662955545</v>
+        <v>9.554456918355871</v>
       </c>
       <c r="F107" t="n">
         <v>2.0</v>
@@ -3540,18 +3540,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H107" t="n">
-        <v>-43.18449324674977</v>
+        <v>-43.18450188976161</v>
       </c>
       <c r="I107" t="n">
-        <v>-22.972295013586766</v>
+        <v>-22.97230387677475</v>
       </c>
       <c r="J107" t="n">
-        <v>10761.325241790391</v>
+        <v>1048.9504986999514</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.701269940001E12</v>
+        <v>1.701289351299E12</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3563,7 +3563,7 @@
         <v>16.15464</v>
       </c>
       <c r="E108" t="n">
-        <v>6.4726397646062175</v>
+        <v>6.677457719048505</v>
       </c>
       <c r="F108" t="n">
         <v>2.0</v>
@@ -3572,18 +3572,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H108" t="n">
-        <v>-43.18567581255621</v>
+        <v>-43.18567389626018</v>
       </c>
       <c r="I108" t="n">
-        <v>-22.97346490291161</v>
+        <v>-22.973462966029505</v>
       </c>
       <c r="J108" t="n">
-        <v>10940.961230225632</v>
+        <v>1226.9706833555174</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.701269940281E12</v>
+        <v>1.701289351657E12</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3595,7 +3595,7 @@
         <v>16.15464</v>
       </c>
       <c r="E109" t="n">
-        <v>6.4726397646062175</v>
+        <v>9.183048365879932</v>
       </c>
       <c r="F109" t="n">
         <v>2.0</v>
@@ -3604,18 +3604,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H109" t="n">
-        <v>-43.18572905766435</v>
+        <v>-43.18572714128016</v>
       </c>
       <c r="I109" t="n">
-        <v>-22.973518558399284</v>
+        <v>-22.97351662476358</v>
       </c>
       <c r="J109" t="n">
-        <v>10949.04265253874</v>
+        <v>1235.0523763211527</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.701269943426E12</v>
+        <v>1.701289355519E12</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -3627,7 +3627,7 @@
         <v>16.15464</v>
       </c>
       <c r="E110" t="n">
-        <v>8.769408511097566</v>
+        <v>8.493901145219908</v>
       </c>
       <c r="F110" t="n">
         <v>2.0</v>
@@ -3636,18 +3636,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H110" t="n">
-        <v>-43.18638683291667</v>
+        <v>-43.18638519071277</v>
       </c>
       <c r="I110" t="n">
-        <v>-22.974247360614015</v>
+        <v>-22.97424522131697</v>
       </c>
       <c r="J110" t="n">
-        <v>11054.445605163253</v>
+        <v>1340.4549034695176</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.70126994764E12</v>
+        <v>1.701289359997E12</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -3659,7 +3659,7 @@
         <v>16.15464</v>
       </c>
       <c r="E111" t="n">
-        <v>6.519571113224032</v>
+        <v>7.894974390560785</v>
       </c>
       <c r="F111" t="n">
         <v>2.0</v>
@@ -3668,18 +3668,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H111" t="n">
-        <v>-43.1871783235137</v>
+        <v>-43.18717688077788</v>
       </c>
       <c r="I111" t="n">
-        <v>-22.975353024481972</v>
+        <v>-22.975350769862494</v>
       </c>
       <c r="J111" t="n">
-        <v>11201.713786783383</v>
+        <v>1487.7234304564242</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.70126994964E12</v>
+        <v>1.701289362609E12</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -3691,7 +3691,7 @@
         <v>16.15464</v>
       </c>
       <c r="E112" t="n">
-        <v>7.153556521695687</v>
+        <v>7.14903355687205</v>
       </c>
       <c r="F112" t="n">
         <v>2.0</v>
@@ -3700,18 +3700,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H112" t="n">
-        <v>-43.187519296232175</v>
+        <v>-43.187517905177515</v>
       </c>
       <c r="I112" t="n">
-        <v>-22.975876981836137</v>
+        <v>-22.97587469914136</v>
       </c>
       <c r="J112" t="n">
-        <v>11269.634727936073</v>
+        <v>1555.6443510871964</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.701269952694E12</v>
+        <v>1.701289366442E12</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>6.808279999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>5.888966565337998</v>
+        <v>8.422648971644803</v>
       </c>
       <c r="F113" t="n">
         <v>2.0</v>
@@ -3732,18 +3732,18 @@
         <v>6719.414701872323</v>
       </c>
       <c r="H113" t="n">
-        <v>-43.187918251017045</v>
+        <v>-43.18791805891381</v>
       </c>
       <c r="I113" t="n">
-        <v>-22.97640192006041</v>
+        <v>-22.97640195863784</v>
       </c>
       <c r="J113" t="n">
-        <v>11344.047243301571</v>
+        <v>1630.3246695054777</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.701269956386E12</v>
+        <v>1.701289370638E12</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -3755,7 +3755,7 @@
         <v>18.46482</v>
       </c>
       <c r="E114" t="n">
-        <v>8.04762425067552</v>
+        <v>7.657232561984587</v>
       </c>
       <c r="F114" t="n">
         <v>2.0</v>
@@ -3764,18 +3764,18 @@
         <v>2905.366011636562</v>
       </c>
       <c r="H114" t="n">
-        <v>-43.18903414308522</v>
+        <v>-43.1890339473117</v>
       </c>
       <c r="I114" t="n">
-        <v>-22.97630286298169</v>
+        <v>-22.9763028797789</v>
       </c>
       <c r="J114" t="n">
-        <v>11458.835084047858</v>
+        <v>1745.1126157671397</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.701269961748E12</v>
+        <v>1.701289376709E12</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -3787,7 +3787,7 @@
         <v>10.919999999999993</v>
       </c>
       <c r="E115" t="n">
-        <v>5.483323093234592</v>
+        <v>5.295667497035371</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -3802,12 +3802,12 @@
         <v>-22.976223292088612</v>
       </c>
       <c r="J115" t="n">
-        <v>11554.094552658993</v>
+        <v>1840.3922132731</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.701269964982E12</v>
+        <v>1.701289380441E12</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3816,30 +3816,30 @@
         <v>17</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2551087826807052</v>
+        <v>0.2589154133340344</v>
       </c>
       <c r="E116" t="n">
-        <v>7.442909768796502</v>
+        <v>8.951348332710412</v>
       </c>
       <c r="F116" t="n">
         <v>2.0</v>
       </c>
       <c r="G116" t="n">
-        <v>2761.7758860659246</v>
+        <v>2766.397801182978</v>
       </c>
       <c r="H116" t="n">
-        <v>-43.1840826595545</v>
+        <v>-43.18408265682876</v>
       </c>
       <c r="I116" t="n">
-        <v>-22.972215433476304</v>
+        <v>-22.972215431147408</v>
       </c>
       <c r="J116" t="n">
-        <v>11661.731296972446</v>
+        <v>1.8726320553443576</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.701269970727E12</v>
+        <v>1.701289386645E12</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -3851,7 +3851,7 @@
         <v>20.330352</v>
       </c>
       <c r="E117" t="n">
-        <v>6.262220772878116</v>
+        <v>8.138947342645201</v>
       </c>
       <c r="F117" t="n">
         <v>2.0</v>
@@ -3860,18 +3860,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H117" t="n">
-        <v>-43.183043617572665</v>
+        <v>-43.1830579725762</v>
       </c>
       <c r="I117" t="n">
-        <v>-22.97132765387616</v>
+        <v>-22.971339908754853</v>
       </c>
       <c r="J117" t="n">
-        <v>11806.853190508094</v>
+        <v>144.98997308656737</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.701269971913E12</v>
+        <v>1.701289388103E12</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -3883,7 +3883,7 @@
         <v>20.330352</v>
       </c>
       <c r="E118" t="n">
-        <v>6.053559897860688</v>
+        <v>6.944854340092245</v>
       </c>
       <c r="F118" t="n">
         <v>2.0</v>
@@ -3892,18 +3892,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H118" t="n">
-        <v>-43.18267543338499</v>
+        <v>-43.18267519995911</v>
       </c>
       <c r="I118" t="n">
-        <v>-22.97104698882394</v>
+        <v>-22.971046830343433</v>
       </c>
       <c r="J118" t="n">
-        <v>11855.824206358326</v>
+        <v>195.99491467585864</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.701269980434E12</v>
+        <v>1.701289397561E12</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -3912,30 +3912,30 @@
         <v>17</v>
       </c>
       <c r="D119" t="n">
-        <v>7.015868</v>
+        <v>6.755868</v>
       </c>
       <c r="E119" t="n">
-        <v>9.594960266733443</v>
+        <v>7.780618661649274</v>
       </c>
       <c r="F119" t="n">
         <v>2.0</v>
       </c>
       <c r="G119" t="n">
-        <v>6855.696824867263</v>
+        <v>2106.4361058246004</v>
       </c>
       <c r="H119" t="n">
-        <v>-43.18032400739715</v>
+        <v>-43.18032003465359</v>
       </c>
       <c r="I119" t="n">
-        <v>-22.969435877849833</v>
+        <v>-22.969441014805533</v>
       </c>
       <c r="J119" t="n">
-        <v>12160.349769908738</v>
+        <v>499.77021834760325</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.701269982635E12</v>
+        <v>1.701289399954E12</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -3944,30 +3944,30 @@
         <v>17</v>
       </c>
       <c r="D120" t="n">
-        <v>11.863195999999997</v>
+        <v>11.603195999999997</v>
       </c>
       <c r="E120" t="n">
-        <v>7.779164451243721</v>
+        <v>9.086467168566209</v>
       </c>
       <c r="F120" t="n">
         <v>2.0</v>
       </c>
       <c r="G120" t="n">
-        <v>10230.328952064046</v>
+        <v>10039.958379325379</v>
       </c>
       <c r="H120" t="n">
-        <v>-43.18059674725463</v>
+        <v>-43.180587143853415</v>
       </c>
       <c r="I120" t="n">
-        <v>-22.96945994723488</v>
+        <v>-22.969453973514447</v>
       </c>
       <c r="J120" t="n">
-        <v>12195.976320046542</v>
+        <v>534.8960090790123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.701269986006E12</v>
+        <v>1.701289403757E12</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -3979,7 +3979,7 @@
         <v>20.330352</v>
       </c>
       <c r="E121" t="n">
-        <v>6.439076949620324</v>
+        <v>6.509201974916563</v>
       </c>
       <c r="F121" t="n">
         <v>2.0</v>
@@ -3994,12 +3994,12 @@
         <v>-22.97007281127681</v>
       </c>
       <c r="J121" t="n">
-        <v>12316.697258822536</v>
+        <v>656.803486040709</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.701269988591E12</v>
+        <v>1.701289406556E12</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4011,7 +4011,7 @@
         <v>20.330352</v>
       </c>
       <c r="E122" t="n">
-        <v>8.085319583259295</v>
+        <v>5.430405254572961</v>
       </c>
       <c r="F122" t="n">
         <v>2.0</v>
@@ -4020,18 +4020,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H122" t="n">
-        <v>-43.18238854988864</v>
+        <v>-43.18237258323945</v>
       </c>
       <c r="I122" t="n">
-        <v>-22.970621504764935</v>
+        <v>-22.970610632367904</v>
       </c>
       <c r="J122" t="n">
-        <v>12420.35881775495</v>
+        <v>758.4319223783654</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.701269992954E12</v>
+        <v>1.701289411804E12</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4040,30 +4040,30 @@
         <v>17</v>
       </c>
       <c r="D123" t="n">
-        <v>13.617701725490162</v>
+        <v>13.23770172549017</v>
       </c>
       <c r="E123" t="n">
-        <v>6.940173179330795</v>
+        <v>8.150593116037951</v>
       </c>
       <c r="F123" t="n">
         <v>2.0</v>
       </c>
       <c r="G123" t="n">
-        <v>11542.713938328076</v>
+        <v>11254.37060316714</v>
       </c>
       <c r="H123" t="n">
-        <v>-43.183148666371956</v>
+        <v>-43.183147329327724</v>
       </c>
       <c r="I123" t="n">
-        <v>-22.971174389388636</v>
+        <v>-22.97117325534668</v>
       </c>
       <c r="J123" t="n">
-        <v>12519.644300910484</v>
+        <v>859.5646279372442</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.701269993425E12</v>
+        <v>1.701289412369E12</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4072,30 +4072,30 @@
         <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>15.95770172549016</v>
+        <v>15.577701725490169</v>
       </c>
       <c r="E124" t="n">
-        <v>6.940173179330795</v>
+        <v>8.149498551276242</v>
       </c>
       <c r="F124" t="n">
         <v>2.0</v>
       </c>
       <c r="G124" t="n">
-        <v>13368.265524319131</v>
+        <v>13065.961749158198</v>
       </c>
       <c r="H124" t="n">
-        <v>-43.18324510988616</v>
+        <v>-43.1832413176529</v>
       </c>
       <c r="I124" t="n">
-        <v>-22.971256240072425</v>
+        <v>-22.97125302242898</v>
       </c>
       <c r="J124" t="n">
-        <v>12533.072767263106</v>
+        <v>872.6512491421098</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.701269997349E12</v>
+        <v>1.701289416812E12</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4107,7 +4107,7 @@
         <v>20.330352</v>
       </c>
       <c r="E125" t="n">
-        <v>7.906139826445404</v>
+        <v>7.468667764502593</v>
       </c>
       <c r="F125" t="n">
         <v>2.0</v>
@@ -4116,18 +4116,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H125" t="n">
-        <v>-43.18428481719867</v>
+        <v>-43.184290772227996</v>
       </c>
       <c r="I125" t="n">
-        <v>-22.97213970151966</v>
+        <v>-22.972145116379966</v>
       </c>
       <c r="J125" t="n">
-        <v>12677.919961417268</v>
+        <v>1018.8829859059088</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.7012699981E12</v>
+        <v>1.701289417634E12</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4139,7 +4139,7 @@
         <v>20.330352</v>
       </c>
       <c r="E126" t="n">
-        <v>7.7039465613125815</v>
+        <v>9.590439779832662</v>
       </c>
       <c r="F126" t="n">
         <v>2.0</v>
@@ -4148,18 +4148,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H126" t="n">
-        <v>-43.184500651659306</v>
+        <v>-43.18450624163321</v>
       </c>
       <c r="I126" t="n">
-        <v>-22.972302607132445</v>
+        <v>-22.97230833950797</v>
       </c>
       <c r="J126" t="n">
-        <v>12707.973280676688</v>
+        <v>1048.910407419629</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.701270002738E12</v>
+        <v>1.701289422975E12</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4171,7 +4171,7 @@
         <v>20.330352</v>
       </c>
       <c r="E127" t="n">
-        <v>9.179733892940952</v>
+        <v>5.55418535227452</v>
       </c>
       <c r="F127" t="n">
         <v>2.0</v>
@@ -4180,18 +4180,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H127" t="n">
-        <v>-43.18567783867347</v>
+        <v>-43.18568347864681</v>
       </c>
       <c r="I127" t="n">
-        <v>-22.9734669507947</v>
+        <v>-22.9734726513562</v>
       </c>
       <c r="J127" t="n">
-        <v>12886.584083956172</v>
+        <v>1227.5219930781866</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.701270002938E12</v>
+        <v>1.701289423183E12</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>20.330352</v>
       </c>
       <c r="E128" t="n">
-        <v>9.116583987633724</v>
+        <v>5.55418535227452</v>
       </c>
       <c r="F128" t="n">
         <v>2.0</v>
@@ -4212,18 +4212,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H128" t="n">
-        <v>-43.18573144484516</v>
+        <v>-43.185723698454744</v>
       </c>
       <c r="I128" t="n">
-        <v>-22.97352096706976</v>
+        <v>-22.97351315094546</v>
       </c>
       <c r="J128" t="n">
-        <v>12894.720060039273</v>
+        <v>1233.623978881664</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.701270005601E12</v>
+        <v>1.701289426314E12</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4235,7 +4235,7 @@
         <v>20.330352</v>
       </c>
       <c r="E129" t="n">
-        <v>6.234128036717934</v>
+        <v>8.57709037316826</v>
       </c>
       <c r="F129" t="n">
         <v>2.0</v>
@@ -4244,18 +4244,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H129" t="n">
-        <v>-43.186392899793624</v>
+        <v>-43.18638626169229</v>
       </c>
       <c r="I129" t="n">
-        <v>-22.97425526392737</v>
+        <v>-22.974246616480713</v>
       </c>
       <c r="J129" t="n">
-        <v>13000.83655363501</v>
+        <v>1339.7394411813152</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.701270009348E12</v>
+        <v>1.701289430302E12</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -4267,7 +4267,7 @@
         <v>20.330352</v>
       </c>
       <c r="E130" t="n">
-        <v>9.145876680544715</v>
+        <v>6.9749374666666135</v>
       </c>
       <c r="F130" t="n">
         <v>2.0</v>
@@ -4276,18 +4276,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H130" t="n">
-        <v>-43.187180536989096</v>
+        <v>-43.18718478319709</v>
       </c>
       <c r="I130" t="n">
-        <v>-22.975356483566227</v>
+        <v>-22.975363119280903</v>
       </c>
       <c r="J130" t="n">
-        <v>13147.474998452271</v>
+        <v>1488.4116789426153</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.701270011084E12</v>
+        <v>1.701289431977E12</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -4299,7 +4299,7 @@
         <v>20.330352</v>
       </c>
       <c r="E131" t="n">
-        <v>6.667057468610658</v>
+        <v>8.884293597220868</v>
       </c>
       <c r="F131" t="n">
         <v>2.0</v>
@@ -4308,18 +4308,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H131" t="n">
-        <v>-43.18752751818268</v>
+        <v>-43.187521895274415</v>
       </c>
       <c r="I131" t="n">
-        <v>-22.97589047390363</v>
+        <v>-22.975881246815995</v>
       </c>
       <c r="J131" t="n">
-        <v>13216.669707804243</v>
+        <v>1555.573606935296</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.701270013678E12</v>
+        <v>1.701289434663E12</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -4331,7 +4331,7 @@
         <v>8.500904</v>
       </c>
       <c r="E132" t="n">
-        <v>5.817630748280565</v>
+        <v>7.188746634512869</v>
       </c>
       <c r="F132" t="n">
         <v>2.0</v>
@@ -4340,18 +4340,18 @@
         <v>7850.359077704029</v>
       </c>
       <c r="H132" t="n">
-        <v>-43.187915868369274</v>
+        <v>-43.18791910427581</v>
       </c>
       <c r="I132" t="n">
-        <v>-22.97640239853453</v>
+        <v>-22.976401748712284</v>
       </c>
       <c r="J132" t="n">
-        <v>13289.09226026709</v>
+        <v>1629.5390076787446</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.701270017157E12</v>
+        <v>1.701289438272E12</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -4363,7 +4363,7 @@
         <v>23.237676</v>
       </c>
       <c r="E133" t="n">
-        <v>7.7455431392046155</v>
+        <v>8.932823256656974</v>
       </c>
       <c r="F133" t="n">
         <v>2.0</v>
@@ -4372,18 +4372,18 @@
         <v>3848.552010387884</v>
       </c>
       <c r="H133" t="n">
-        <v>-43.189030534574044</v>
+        <v>-43.189033832305135</v>
       </c>
       <c r="I133" t="n">
-        <v>-22.976303172589006</v>
+        <v>-22.976302889646366</v>
       </c>
       <c r="J133" t="n">
-        <v>13403.757512279146</v>
+        <v>1744.2053177975388</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.701270021181E12</v>
+        <v>1.701289441904E12</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4392,30 +4392,30 @@
         <v>17</v>
       </c>
       <c r="D134" t="n">
-        <v>12.274305846153835</v>
+        <v>13.679106360482663</v>
       </c>
       <c r="E134" t="n">
-        <v>7.7808580478329015</v>
+        <v>9.133473091067692</v>
       </c>
       <c r="F134" t="n">
         <v>2.0</v>
       </c>
       <c r="G134" t="n">
-        <v>10533.507138589086</v>
+        <v>11589.520436608673</v>
       </c>
       <c r="H134" t="n">
-        <v>-43.18996758361831</v>
+        <v>-43.18996804373703</v>
       </c>
       <c r="I134" t="n">
-        <v>-22.97622269493166</v>
+        <v>-22.976222655418308</v>
       </c>
       <c r="J134" t="n">
-        <v>13500.102955997003</v>
+        <v>1840.2590067768956</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.701270024008E12</v>
+        <v>1.701289444691E12</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4424,30 +4424,30 @@
         <v>18</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24954985742201097</v>
+        <v>0.25509835536032915</v>
       </c>
       <c r="E135" t="n">
-        <v>6.1342947587814045</v>
+        <v>9.096180566617122</v>
       </c>
       <c r="F135" t="n">
         <v>2.0</v>
       </c>
       <c r="G135" t="n">
-        <v>2755.162497027292</v>
+        <v>2761.763329538177</v>
       </c>
       <c r="H135" t="n">
-        <v>-43.18408266353497</v>
+        <v>-43.184082659561966</v>
       </c>
       <c r="I135" t="n">
-        <v>-22.972215436877253</v>
+        <v>-22.97221543348268</v>
       </c>
       <c r="J135" t="n">
-        <v>13607.696707393792</v>
+        <v>2.3496021274667553</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.701270029964E12</v>
+        <v>1.70128945047E12</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4459,7 +4459,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E136" t="n">
-        <v>7.931795401647165</v>
+        <v>6.517503024947079</v>
       </c>
       <c r="F136" t="n">
         <v>2.0</v>
@@ -4468,18 +4468,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H136" t="n">
-        <v>-43.18304265998542</v>
+        <v>-43.18304239758335</v>
       </c>
       <c r="I136" t="n">
-        <v>-22.971326836383113</v>
+        <v>-22.971326612370245</v>
       </c>
       <c r="J136" t="n">
-        <v>13752.952850931977</v>
+        <v>147.64182596199797</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.701270031401E12</v>
+        <v>1.701289451903E12</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4491,7 +4491,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E137" t="n">
-        <v>5.636192238094943</v>
+        <v>6.354256255580001</v>
       </c>
       <c r="F137" t="n">
         <v>2.0</v>
@@ -4500,18 +4500,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H137" t="n">
-        <v>-43.18267883319183</v>
+        <v>-43.18267854529755</v>
       </c>
       <c r="I137" t="n">
-        <v>-22.971049297064507</v>
+        <v>-22.97104910160362</v>
       </c>
       <c r="J137" t="n">
-        <v>13801.35813756744</v>
+        <v>196.04707094388712</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.701270041258E12</v>
+        <v>1.701289461953E12</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4523,7 +4523,7 @@
         <v>5.98356</v>
       </c>
       <c r="E138" t="n">
-        <v>6.334862568533859</v>
+        <v>9.435531359459741</v>
       </c>
       <c r="F138" t="n">
         <v>2.0</v>
@@ -4532,18 +4532,18 @@
         <v>6184.666849869978</v>
       </c>
       <c r="H138" t="n">
-        <v>-43.180321721157995</v>
+        <v>-43.18032192148149</v>
       </c>
       <c r="I138" t="n">
-        <v>-22.969438834071163</v>
+        <v>-22.969438575042876</v>
       </c>
       <c r="J138" t="n">
-        <v>14105.926678547647</v>
+        <v>500.6125052758351</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.701270043783E12</v>
+        <v>1.701289464583E12</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -4555,7 +4555,7 @@
         <v>11.065319999999996</v>
       </c>
       <c r="E139" t="n">
-        <v>8.705899493290993</v>
+        <v>5.665534210382108</v>
       </c>
       <c r="F139" t="n">
         <v>2.0</v>
@@ -4564,18 +4564,18 @@
         <v>9649.497417836052</v>
       </c>
       <c r="H139" t="n">
-        <v>-43.18059005964342</v>
+        <v>-43.18059025653124</v>
       </c>
       <c r="I139" t="n">
-        <v>-22.96945578725876</v>
+        <v>-22.969455909731284</v>
       </c>
       <c r="J139" t="n">
-        <v>14141.144285985096</v>
+        <v>535.8198744013292</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.701270047612E12</v>
+        <v>1.701289468501E12</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -4587,7 +4587,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E140" t="n">
-        <v>5.693837662370006</v>
+        <v>8.836905883258778</v>
       </c>
       <c r="F140" t="n">
         <v>2.0</v>
@@ -4596,18 +4596,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H140" t="n">
-        <v>-43.18157432005941</v>
+        <v>-43.181574512280356</v>
       </c>
       <c r="I140" t="n">
-        <v>-22.970075722469517</v>
+        <v>-22.97007585105433</v>
       </c>
       <c r="J140" t="n">
-        <v>14263.242160344327</v>
+        <v>657.9177463409661</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.701270050747E12</v>
+        <v>1.701289471665E12</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -4619,7 +4619,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E141" t="n">
-        <v>7.847440809739358</v>
+        <v>6.859352300035078</v>
       </c>
       <c r="F141" t="n">
         <v>2.0</v>
@@ -4628,18 +4628,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H141" t="n">
-        <v>-43.18239019047636</v>
+        <v>-43.182390381489995</v>
       </c>
       <c r="I141" t="n">
-        <v>-22.970622621913613</v>
+        <v>-22.97062275198324</v>
       </c>
       <c r="J141" t="n">
-        <v>14366.561901643769</v>
+        <v>761.2374854695047</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.701270053739E12</v>
+        <v>1.701289474719E12</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -4651,7 +4651,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E142" t="n">
-        <v>5.901637907358229</v>
+        <v>6.255496511847809</v>
       </c>
       <c r="F142" t="n">
         <v>2.0</v>
@@ -4660,18 +4660,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H142" t="n">
-        <v>-43.18315208247852</v>
+        <v>-43.183152257389374</v>
       </c>
       <c r="I142" t="n">
-        <v>-22.97117728683068</v>
+        <v>-22.971177435184973</v>
       </c>
       <c r="J142" t="n">
-        <v>14466.113388644435</v>
+        <v>860.7889045078194</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.701270054169E12</v>
+        <v>1.701289475152E12</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -4683,7 +4683,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E143" t="n">
-        <v>5.72038207860423</v>
+        <v>6.255496511847809</v>
       </c>
       <c r="F143" t="n">
         <v>2.0</v>
@@ -4692,18 +4692,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H143" t="n">
-        <v>-43.18325105884507</v>
+        <v>-43.18325123355717</v>
       </c>
       <c r="I143" t="n">
-        <v>-22.97126128765979</v>
+        <v>-22.971261435899944</v>
       </c>
       <c r="J143" t="n">
-        <v>14479.894561932342</v>
+        <v>874.570054294678</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.701270058659E12</v>
+        <v>1.701289479627E12</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -4715,7 +4715,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E144" t="n">
-        <v>7.606720691548472</v>
+        <v>7.688061247444978</v>
       </c>
       <c r="F144" t="n">
         <v>2.0</v>
@@ -4724,18 +4724,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H144" t="n">
-        <v>-43.1842886900851</v>
+        <v>-43.18428885917143</v>
       </c>
       <c r="I144" t="n">
-        <v>-22.972143223104162</v>
+        <v>-22.972143376853005</v>
       </c>
       <c r="J144" t="n">
-        <v>14624.471078697703</v>
+        <v>1019.1465643390007</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.701270059494E12</v>
+        <v>1.701289480535E12</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -4747,7 +4747,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E145" t="n">
-        <v>7.058606060639143</v>
+        <v>8.912125195248644</v>
       </c>
       <c r="F145" t="n">
         <v>2.0</v>
@@ -4756,18 +4756,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H145" t="n">
-        <v>-43.18449838546077</v>
+        <v>-43.184498544181764</v>
       </c>
       <c r="I145" t="n">
-        <v>-22.9723002832037</v>
+        <v>-22.97230044596803</v>
       </c>
       <c r="J145" t="n">
-        <v>14653.766404970014</v>
+        <v>1048.4411052602643</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.701270065248E12</v>
+        <v>1.701289486057E12</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -4779,7 +4779,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E146" t="n">
-        <v>6.370105187383022</v>
+        <v>9.295573322618626</v>
       </c>
       <c r="F146" t="n">
         <v>2.0</v>
@@ -4788,18 +4788,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H146" t="n">
-        <v>-43.185679051664145</v>
+        <v>-43.185656157168864</v>
       </c>
       <c r="I146" t="n">
-        <v>-22.973468176816084</v>
+        <v>-22.973487748726875</v>
       </c>
       <c r="J146" t="n">
-        <v>14833.062586034303</v>
+        <v>1225.8529418292098</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.701270065472E12</v>
+        <v>1.70128948628E12</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -4811,7 +4811,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E147" t="n">
-        <v>6.370105187383022</v>
+        <v>9.295573322618626</v>
       </c>
       <c r="F147" t="n">
         <v>2.0</v>
@@ -4820,18 +4820,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H147" t="n">
-        <v>-43.18572447589741</v>
+        <v>-43.185701483720365</v>
       </c>
       <c r="I147" t="n">
-        <v>-22.973513935386755</v>
+        <v>-22.973533522323155</v>
       </c>
       <c r="J147" t="n">
-        <v>14839.955686541929</v>
+        <v>1232.7405196349325</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.701270068771E12</v>
+        <v>1.70128948962E12</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -4843,7 +4843,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E148" t="n">
-        <v>7.475667351085171</v>
+        <v>5.2495303786716905</v>
       </c>
       <c r="F148" t="n">
         <v>2.0</v>
@@ -4852,18 +4852,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H148" t="n">
-        <v>-43.186392965240614</v>
+        <v>-43.18639310247601</v>
       </c>
       <c r="I148" t="n">
-        <v>-22.974255349185086</v>
+        <v>-22.974255527961464</v>
       </c>
       <c r="J148" t="n">
-        <v>14947.142453339531</v>
+        <v>1341.7016977060023</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.701270072986E12</v>
+        <v>1.701289493753E12</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -4875,7 +4875,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E149" t="n">
-        <v>7.316020602311392</v>
+        <v>5.991397202206487</v>
       </c>
       <c r="F149" t="n">
         <v>2.0</v>
@@ -4884,18 +4884,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H149" t="n">
-        <v>-43.18718071398127</v>
+        <v>-43.187180834547554</v>
       </c>
       <c r="I149" t="n">
-        <v>-22.975356760158792</v>
+        <v>-22.975356948572415</v>
       </c>
       <c r="J149" t="n">
-        <v>15093.80493779082</v>
+        <v>1488.3641593445768</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.701270074828E12</v>
+        <v>1.701289495635E12</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -4907,7 +4907,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E150" t="n">
-        <v>7.717550853567595</v>
+        <v>9.504155488802514</v>
       </c>
       <c r="F150" t="n">
         <v>2.0</v>
@@ -4916,18 +4916,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H150" t="n">
-        <v>-43.1875183676408</v>
+        <v>-43.1875184838882</v>
       </c>
       <c r="I150" t="n">
-        <v>-22.975875458034988</v>
+        <v>-22.975875648794805</v>
       </c>
       <c r="J150" t="n">
-        <v>15161.049451182682</v>
+        <v>1555.608677113076</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.701270077816E12</v>
+        <v>1.701289498587E12</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -4939,7 +4939,7 @@
         <v>7.24168</v>
       </c>
       <c r="E151" t="n">
-        <v>7.712740488050182</v>
+        <v>7.55562345702408</v>
       </c>
       <c r="F151" t="n">
         <v>2.0</v>
@@ -4954,12 +4954,12 @@
         <v>-22.976401762985574</v>
       </c>
       <c r="J151" t="n">
-        <v>15235.735817882825</v>
+        <v>1630.2707220784523</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.701270081492E12</v>
+        <v>1.701289502436E12</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -4968,30 +4968,30 @@
         <v>18</v>
       </c>
       <c r="D152" t="n">
-        <v>19.68692</v>
+        <v>18.304380928191495</v>
       </c>
       <c r="E152" t="n">
-        <v>5.896620774813004</v>
+        <v>6.503194223677543</v>
       </c>
       <c r="F152" t="n">
         <v>2.0</v>
       </c>
       <c r="G152" t="n">
-        <v>3112.806682050462</v>
+        <v>15285.36323299584</v>
       </c>
       <c r="H152" t="n">
-        <v>-43.18902936151098</v>
+        <v>-43.189022600324186</v>
       </c>
       <c r="I152" t="n">
-        <v>-22.97630327323686</v>
+        <v>-22.97630385334117</v>
       </c>
       <c r="J152" t="n">
-        <v>15349.94912837363</v>
+        <v>1743.7888675277022</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.701270085004E12</v>
+        <v>1.701289505959E12</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5000,30 +5000,30 @@
         <v>18</v>
       </c>
       <c r="D153" t="n">
-        <v>13.378614577217158</v>
+        <v>13.579903913389199</v>
       </c>
       <c r="E153" t="n">
-        <v>6.7427960177233</v>
+        <v>5.925370657020645</v>
       </c>
       <c r="F153" t="n">
         <v>2.0</v>
       </c>
       <c r="G153" t="n">
-        <v>11361.030558472557</v>
+        <v>11513.931488858138</v>
       </c>
       <c r="H153" t="n">
-        <v>-43.18996375334473</v>
+        <v>-43.18996669194698</v>
       </c>
       <c r="I153" t="n">
-        <v>-22.976223023861877</v>
+        <v>-22.97622277150521</v>
       </c>
       <c r="J153" t="n">
-        <v>15446.02136297417</v>
+        <v>1840.8584072965148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.701270087865E12</v>
+        <v>1.701289508755E12</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -5032,30 +5032,30 @@
         <v>19</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2585625449579675</v>
+        <v>0.24920788644929417</v>
       </c>
       <c r="E154" t="n">
-        <v>6.57590647512335</v>
+        <v>8.128642886847405</v>
       </c>
       <c r="F154" t="n">
         <v>2.0</v>
       </c>
       <c r="G154" t="n">
-        <v>2765.9661709104525</v>
+        <v>2754.7609340444615</v>
       </c>
       <c r="H154" t="n">
-        <v>-43.18408265708143</v>
+        <v>-43.18408266377984</v>
       </c>
       <c r="I154" t="n">
-        <v>-22.972215431363292</v>
+        <v>-22.97221543708647</v>
       </c>
       <c r="J154" t="n">
-        <v>15552.89749249878</v>
+        <v>1.9938881662351677</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.701270093255E12</v>
+        <v>1.701289514125E12</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -5067,7 +5067,7 @@
         <v>18.232776</v>
       </c>
       <c r="E155" t="n">
-        <v>5.929853834474276</v>
+        <v>6.4308229913496415</v>
       </c>
       <c r="F155" t="n">
         <v>2.0</v>
@@ -5076,18 +5076,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H155" t="n">
-        <v>-43.18304577312453</v>
+        <v>-43.18304624234167</v>
       </c>
       <c r="I155" t="n">
-        <v>-22.971329494072616</v>
+        <v>-22.971329894643684</v>
       </c>
       <c r="J155" t="n">
-        <v>15697.71809400983</v>
+        <v>146.7499140881814</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.701270094526E12</v>
+        <v>1.70128951543E12</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -5099,7 +5099,7 @@
         <v>18.232776</v>
       </c>
       <c r="E156" t="n">
-        <v>6.369675846626473</v>
+        <v>7.171314365265269</v>
       </c>
       <c r="F156" t="n">
         <v>2.0</v>
@@ -5108,18 +5108,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H156" t="n">
-        <v>-43.1826743734168</v>
+        <v>-43.18267488821812</v>
       </c>
       <c r="I156" t="n">
-        <v>-22.971046269176707</v>
+        <v>-22.971046618692238</v>
       </c>
       <c r="J156" t="n">
-        <v>15747.125401306295</v>
+        <v>196.15733976931097</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.70127010354E12</v>
+        <v>1.70128952383E12</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5131,7 +5131,7 @@
         <v>6.318834</v>
       </c>
       <c r="E157" t="n">
-        <v>7.677953442763783</v>
+        <v>5.596047727213844</v>
       </c>
       <c r="F157" t="n">
         <v>2.0</v>
@@ -5140,18 +5140,18 @@
         <v>6400.7700958107325</v>
       </c>
       <c r="H157" t="n">
-        <v>-43.18032444007995</v>
+        <v>-43.1803240692839</v>
       </c>
       <c r="I157" t="n">
-        <v>-22.96943531836937</v>
+        <v>-22.96943579782717</v>
       </c>
       <c r="J157" t="n">
-        <v>16051.605963815287</v>
+        <v>500.63716690696316</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.701270105683E12</v>
+        <v>1.701289526007E12</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5163,7 +5163,7 @@
         <v>11.408897999999995</v>
       </c>
       <c r="E158" t="n">
-        <v>9.231369255141333</v>
+        <v>9.586624503277669</v>
       </c>
       <c r="F158" t="n">
         <v>2.0</v>
@@ -5172,18 +5172,18 @@
         <v>9898.387363481284</v>
       </c>
       <c r="H158" t="n">
-        <v>-43.18059544690754</v>
+        <v>-43.18059544465936</v>
       </c>
       <c r="I158" t="n">
-        <v>-22.96945913836417</v>
+        <v>-22.969459136965707</v>
       </c>
       <c r="J158" t="n">
-        <v>16087.002453728173</v>
+        <v>536.1023973025524</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.70127010877E12</v>
+        <v>1.70128952901E12</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5195,7 +5195,7 @@
         <v>18.232776</v>
       </c>
       <c r="E159" t="n">
-        <v>6.346102038952294</v>
+        <v>6.601292102260755</v>
       </c>
       <c r="F159" t="n">
         <v>2.0</v>
@@ -5204,18 +5204,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H159" t="n">
-        <v>-43.181568881981384</v>
+        <v>-43.1815688797865</v>
       </c>
       <c r="I159" t="n">
-        <v>-22.97007208470638</v>
+        <v>-22.970072083238126</v>
       </c>
       <c r="J159" t="n">
-        <v>16207.746528353173</v>
+        <v>656.8464719381125</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.701270111148E12</v>
+        <v>1.70128953132E12</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5227,7 +5227,7 @@
         <v>18.232776</v>
       </c>
       <c r="E160" t="n">
-        <v>8.033385887405274</v>
+        <v>8.478552721357579</v>
       </c>
       <c r="F160" t="n">
         <v>2.0</v>
@@ -5236,18 +5236,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H160" t="n">
-        <v>-43.18238937135478</v>
+        <v>-43.18238936917368</v>
       </c>
       <c r="I160" t="n">
-        <v>-22.97062206413753</v>
+        <v>-22.97062206265232</v>
       </c>
       <c r="J160" t="n">
-        <v>16311.650137020819</v>
+        <v>760.7500806303289</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.701270113248E12</v>
+        <v>1.701289533467E12</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5259,7 +5259,7 @@
         <v>18.232776</v>
       </c>
       <c r="E161" t="n">
-        <v>9.106988821557492</v>
+        <v>6.62549020533639</v>
       </c>
       <c r="F161" t="n">
         <v>2.0</v>
@@ -5268,18 +5268,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H161" t="n">
-        <v>-43.18315407954587</v>
+        <v>-43.18315407754864</v>
       </c>
       <c r="I161" t="n">
-        <v>-22.971178980685018</v>
+        <v>-22.971178978991023</v>
       </c>
       <c r="J161" t="n">
-        <v>16411.583056632076</v>
+        <v>860.6830005192389</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.701270113529E12</v>
+        <v>1.701289533731E12</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5291,7 +5291,7 @@
         <v>18.232776</v>
       </c>
       <c r="E162" t="n">
-        <v>9.106988821557492</v>
+        <v>6.6718521249441824</v>
       </c>
       <c r="F162" t="n">
         <v>2.0</v>
@@ -5300,18 +5300,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H162" t="n">
-        <v>-43.18324575442643</v>
+        <v>-43.18324575243147</v>
       </c>
       <c r="I162" t="n">
-        <v>-22.971256786953553</v>
+        <v>-22.971256785260863</v>
       </c>
       <c r="J162" t="n">
-        <v>16424.347755595696</v>
+        <v>873.4476997515443</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.701270116633E12</v>
+        <v>1.701289536748E12</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5323,7 +5323,7 @@
         <v>18.232776</v>
       </c>
       <c r="E163" t="n">
-        <v>8.391422541291881</v>
+        <v>8.115734623711496</v>
       </c>
       <c r="F163" t="n">
         <v>2.0</v>
@@ -5332,18 +5332,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H163" t="n">
-        <v>-43.18427909794092</v>
+        <v>-43.1842790960102</v>
       </c>
       <c r="I163" t="n">
-        <v>-22.972134501044547</v>
+        <v>-22.972134499288956</v>
       </c>
       <c r="J163" t="n">
-        <v>16568.28244246727</v>
+        <v>1017.3823866728046</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.701270117302E12</v>
+        <v>1.701289537357E12</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5355,7 +5355,7 @@
         <v>18.232776</v>
       </c>
       <c r="E164" t="n">
-        <v>8.0319180241975</v>
+        <v>8.115734623711496</v>
       </c>
       <c r="F164" t="n">
         <v>2.0</v>
@@ -5364,18 +5364,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H164" t="n">
-        <v>-43.184499916042334</v>
+        <v>-43.18449991422997</v>
       </c>
       <c r="I164" t="n">
-        <v>-22.97230185277602</v>
+        <v>-22.972301850917482</v>
       </c>
       <c r="J164" t="n">
-        <v>16599.138925487663</v>
+        <v>1048.2388783422207</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.701270124446E12</v>
+        <v>1.701289544124E12</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5384,30 +5384,30 @@
         <v>19</v>
       </c>
       <c r="D165" t="n">
-        <v>13.260000000000039</v>
+        <v>13.520000000000039</v>
       </c>
       <c r="E165" t="n">
-        <v>8.069976138206398</v>
+        <v>8.800362103652583</v>
       </c>
       <c r="F165" t="n">
         <v>2.0</v>
       </c>
       <c r="G165" t="n">
-        <v>11271.227882222243</v>
+        <v>11468.36152888891</v>
       </c>
       <c r="H165" t="n">
-        <v>-43.18564441429309</v>
+        <v>-43.18565330310134</v>
       </c>
       <c r="I165" t="n">
-        <v>-22.9734758906928</v>
+        <v>-22.973484871795712</v>
       </c>
       <c r="J165" t="n">
-        <v>16780.020967683296</v>
+        <v>1230.119425820612</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.701270124634E12</v>
+        <v>1.701289544305E12</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5419,7 +5419,7 @@
         <v>14.820000000000038</v>
       </c>
       <c r="E166" t="n">
-        <v>8.069976138206398</v>
+        <v>8.800362103652583</v>
       </c>
       <c r="F166" t="n">
         <v>2.0</v>
@@ -5434,12 +5434,12 @@
         <v>-22.973532372907872</v>
       </c>
       <c r="J166" t="n">
-        <v>16788.51985541893</v>
+        <v>1237.267239582136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.701270126594E12</v>
+        <v>1.701289546248E12</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5451,7 +5451,7 @@
         <v>18.232776</v>
       </c>
       <c r="E167" t="n">
-        <v>6.716734191247351</v>
+        <v>9.574150766285454</v>
       </c>
       <c r="F167" t="n">
         <v>2.0</v>
@@ -5466,12 +5466,12 @@
         <v>-22.974244810668203</v>
       </c>
       <c r="J167" t="n">
-        <v>16896.413041041767</v>
+        <v>1345.1749638624347</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.701270129131E12</v>
+        <v>1.701289548727E12</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5483,7 +5483,7 @@
         <v>18.232776</v>
       </c>
       <c r="E168" t="n">
-        <v>6.87757684159576</v>
+        <v>9.112196317724212</v>
       </c>
       <c r="F168" t="n">
         <v>2.0</v>
@@ -5498,12 +5498,12 @@
         <v>-22.975355591367087</v>
       </c>
       <c r="J168" t="n">
-        <v>17044.359635946483</v>
+        <v>1493.1215587671588</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.701270130261E12</v>
+        <v>1.701289549816E12</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5515,7 +5515,7 @@
         <v>18.232776</v>
       </c>
       <c r="E169" t="n">
-        <v>5.719985486780069</v>
+        <v>7.612202074085401</v>
       </c>
       <c r="F169" t="n">
         <v>2.0</v>
@@ -5530,12 +5530,12 @@
         <v>-22.975876535836193</v>
       </c>
       <c r="J169" t="n">
-        <v>17111.892414591664</v>
+        <v>1560.6543374123378</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.701270131937E12</v>
+        <v>1.701289551498E12</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5547,7 +5547,7 @@
         <v>7.650651999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>6.303452300659613</v>
+        <v>9.384607040831899</v>
       </c>
       <c r="F170" t="n">
         <v>2.0</v>
@@ -5556,18 +5556,18 @@
         <v>7276.631944152616</v>
       </c>
       <c r="H170" t="n">
-        <v>-43.18791412735689</v>
+        <v>-43.18791861503268</v>
       </c>
       <c r="I170" t="n">
-        <v>-22.976402748157906</v>
+        <v>-22.976401846960197</v>
       </c>
       <c r="J170" t="n">
-        <v>17185.92077243787</v>
+        <v>1635.153290181028</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.701270133951E12</v>
+        <v>1.701289553526E12</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5579,7 +5579,7 @@
         <v>20.840138</v>
       </c>
       <c r="E171" t="n">
-        <v>9.433537269428244</v>
+        <v>5.437940043106718</v>
       </c>
       <c r="F171" t="n">
         <v>2.0</v>
@@ -5588,18 +5588,18 @@
         <v>3330.0584288157183</v>
       </c>
       <c r="H171" t="n">
-        <v>-43.1890336727327</v>
+        <v>-43.189027589293495</v>
       </c>
       <c r="I171" t="n">
-        <v>-22.97630290333755</v>
+        <v>-22.976303425291672</v>
       </c>
       <c r="J171" t="n">
-        <v>17301.09275685372</v>
+        <v>1749.2280748910277</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.701270135867E12</v>
+        <v>1.701289555382E12</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -5608,30 +5608,30 @@
         <v>19</v>
       </c>
       <c r="D172" t="n">
-        <v>13.633498893616988</v>
+        <v>13.767579335429375</v>
       </c>
       <c r="E172" t="n">
-        <v>5.526581941642269</v>
+        <v>5.2324575032966045</v>
       </c>
       <c r="F172" t="n">
         <v>2.0</v>
       </c>
       <c r="G172" t="n">
-        <v>11554.749883788469</v>
+        <v>11657.064228327055</v>
       </c>
       <c r="H172" t="n">
-        <v>-43.18996742230624</v>
+        <v>-43.18996924923767</v>
       </c>
       <c r="I172" t="n">
-        <v>-22.976222708784565</v>
+        <v>-22.976222551894217</v>
       </c>
       <c r="J172" t="n">
-        <v>17397.098958471128</v>
+        <v>1846.0475988864819</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.70127013736E12</v>
+        <v>1.701289556878E12</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -5640,30 +5640,30 @@
         <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.25345410639978944</v>
+        <v>0.259712523335591</v>
       </c>
       <c r="E173" t="n">
-        <v>6.532345267075103</v>
+        <v>7.983356184615332</v>
       </c>
       <c r="F173" t="n">
         <v>2.0</v>
       </c>
       <c r="G173" t="n">
-        <v>2759.790446367703</v>
+        <v>2767.3752265413636</v>
       </c>
       <c r="H173" t="n">
-        <v>-43.18408266073933</v>
+        <v>-43.184082656257985</v>
       </c>
       <c r="I173" t="n">
-        <v>-22.972215434488632</v>
+        <v>-22.972215430659734</v>
       </c>
       <c r="J173" t="n">
-        <v>17504.205055955612</v>
+        <v>2.1102765252378326</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.701270140371E12</v>
+        <v>1.701289559927E12</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -5675,7 +5675,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E174" t="n">
-        <v>8.275142379503256</v>
+        <v>5.930808028701202</v>
       </c>
       <c r="F174" t="n">
         <v>2.0</v>
@@ -5684,18 +5684,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H174" t="n">
-        <v>-43.183039799213304</v>
+        <v>-43.1830395122064</v>
       </c>
       <c r="I174" t="n">
-        <v>-22.971324394139536</v>
+        <v>-22.971324149121493</v>
       </c>
       <c r="J174" t="n">
-        <v>17649.86021487611</v>
+        <v>147.804879935872</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.701270141084E12</v>
+        <v>1.701289560596E12</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -5707,7 +5707,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E175" t="n">
-        <v>8.275142379503256</v>
+        <v>5.930808028701202</v>
       </c>
       <c r="F175" t="n">
         <v>2.0</v>
@@ -5716,18 +5716,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H175" t="n">
-        <v>-43.18268814712363</v>
+        <v>-43.18267473619156</v>
       </c>
       <c r="I175" t="n">
-        <v>-22.971055620598825</v>
+        <v>-22.971046515476406</v>
       </c>
       <c r="J175" t="n">
-        <v>17696.681661679755</v>
+        <v>196.29225195094634</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.701270146058E12</v>
+        <v>1.701289565494E12</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -5736,30 +5736,30 @@
         <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>5.795573999999999</v>
+        <v>5.5355739999999996</v>
       </c>
       <c r="E176" t="n">
-        <v>6.026015292199564</v>
+        <v>6.4021201135228605</v>
       </c>
       <c r="F176" t="n">
         <v>2.0</v>
       </c>
       <c r="G176" t="n">
-        <v>6064.2713035396055</v>
+        <v>2147.025744871609</v>
       </c>
       <c r="H176" t="n">
-        <v>-43.1803230460793</v>
+        <v>-43.18031976432867</v>
       </c>
       <c r="I176" t="n">
-        <v>-22.96943712088178</v>
+        <v>-22.969441364349144</v>
       </c>
       <c r="J176" t="n">
-        <v>18002.66352775539</v>
+        <v>499.9884925967443</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.701270147772E12</v>
+        <v>1.701289567142E12</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -5768,30 +5768,30 @@
         <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>2.8599999999999994</v>
+        <v>3.3024849027777687</v>
       </c>
       <c r="E177" t="n">
-        <v>8.44456023992985</v>
+        <v>7.507488358909622</v>
       </c>
       <c r="F177" t="n">
         <v>2.0</v>
       </c>
       <c r="G177" t="n">
-        <v>4256.164415555553</v>
+        <v>4520.044198814031</v>
       </c>
       <c r="H177" t="n">
-        <v>-43.18058150627943</v>
+        <v>-43.180578452358205</v>
       </c>
       <c r="I177" t="n">
-        <v>-22.969450466705744</v>
+        <v>-22.969448567037993</v>
       </c>
       <c r="J177" t="n">
-        <v>18036.589652572427</v>
+        <v>534.0914889617221</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.701270150069E12</v>
+        <v>1.701289569677E12</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -5803,7 +5803,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E178" t="n">
-        <v>7.420080544000989</v>
+        <v>8.702451321884723</v>
       </c>
       <c r="F178" t="n">
         <v>2.0</v>
@@ -5812,18 +5812,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H178" t="n">
-        <v>-43.18156705982593</v>
+        <v>-43.181568982147574</v>
       </c>
       <c r="I178" t="n">
-        <v>-22.97007086578861</v>
+        <v>-22.970072151711836</v>
       </c>
       <c r="J178" t="n">
-        <v>18158.82554399278</v>
+        <v>656.9480168156576</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.701270151471E12</v>
+        <v>1.701289571341E12</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -5835,7 +5835,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E179" t="n">
-        <v>8.488791912552804</v>
+        <v>6.655567199345681</v>
       </c>
       <c r="F179" t="n">
         <v>2.0</v>
@@ -5844,18 +5844,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H179" t="n">
-        <v>-43.18238248423273</v>
+        <v>-43.18237131184371</v>
       </c>
       <c r="I179" t="n">
-        <v>-22.97061737439177</v>
+        <v>-22.970609766618356</v>
       </c>
       <c r="J179" t="n">
-        <v>18262.0827686471</v>
+        <v>758.5393338118587</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.701270152875E12</v>
+        <v>1.70128957298E12</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -5867,7 +5867,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E180" t="n">
-        <v>6.2223183808084865</v>
+        <v>7.488008595660421</v>
       </c>
       <c r="F180" t="n">
         <v>2.0</v>
@@ -5876,18 +5876,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H180" t="n">
-        <v>-43.1831573691212</v>
+        <v>-43.18314713858397</v>
       </c>
       <c r="I180" t="n">
-        <v>-22.97118177080695</v>
+        <v>-22.971173093563383</v>
       </c>
       <c r="J180" t="n">
-        <v>18363.35098010603</v>
+        <v>859.805728052567</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.701270153084E12</v>
+        <v>1.701289573195E12</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -5899,7 +5899,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E181" t="n">
-        <v>6.2223183808084865</v>
+        <v>7.488008595660421</v>
       </c>
       <c r="F181" t="n">
         <v>2.0</v>
@@ -5908,18 +5908,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H181" t="n">
-        <v>-43.18326505469205</v>
+        <v>-43.18324286964503</v>
       </c>
       <c r="I181" t="n">
-        <v>-22.971273162890615</v>
+        <v>-22.9712543392671</v>
       </c>
       <c r="J181" t="n">
-        <v>18378.34477914398</v>
+        <v>873.1349692361957</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.701270154835E12</v>
+        <v>1.701289575366E12</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -5931,7 +5931,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E182" t="n">
-        <v>7.750140823129769</v>
+        <v>5.607276471619261</v>
       </c>
       <c r="F182" t="n">
         <v>2.0</v>
@@ -5940,18 +5940,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H182" t="n">
-        <v>-43.1842807805349</v>
+        <v>-43.18429405231982</v>
       </c>
       <c r="I182" t="n">
-        <v>-22.972136031013726</v>
+        <v>-22.972148098941105</v>
       </c>
       <c r="J182" t="n">
-        <v>18519.834298754817</v>
+        <v>1019.6229270670152</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.701270155164E12</v>
+        <v>1.701289575765E12</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
@@ -5963,7 +5963,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E183" t="n">
-        <v>7.750140823129769</v>
+        <v>5.607276471619261</v>
       </c>
       <c r="F183" t="n">
         <v>2.0</v>
@@ -5972,18 +5972,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H183" t="n">
-        <v>-43.184495924933294</v>
+        <v>-43.18449751223592</v>
       </c>
       <c r="I183" t="n">
-        <v>-22.972297759995595</v>
+        <v>-22.97229938773392</v>
       </c>
       <c r="J183" t="n">
-        <v>18549.305503140884</v>
+        <v>1048.0436974804443</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.701270157369E12</v>
+        <v>1.701289578372E12</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -5995,7 +5995,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E184" t="n">
-        <v>5.597615976070215</v>
+        <v>9.357982329738002</v>
       </c>
       <c r="F184" t="n">
         <v>2.0</v>
@@ -6004,18 +6004,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H184" t="n">
-        <v>-43.18567111406817</v>
+        <v>-43.185672712161946</v>
       </c>
       <c r="I184" t="n">
-        <v>-22.973460167328025</v>
+        <v>-22.973461774030714</v>
       </c>
       <c r="J184" t="n">
-        <v>18727.790481755368</v>
+        <v>1226.527674413217</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.701270157488E12</v>
+        <v>1.701289578498E12</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -6027,7 +6027,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E185" t="n">
-        <v>6.0980397808239175</v>
+        <v>9.357982329738002</v>
       </c>
       <c r="F185" t="n">
         <v>2.0</v>
@@ -6036,18 +6036,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H185" t="n">
-        <v>-43.185715042648596</v>
+        <v>-43.18572761285651</v>
       </c>
       <c r="I185" t="n">
-        <v>-22.973504417218766</v>
+        <v>-22.973517100585116</v>
       </c>
       <c r="J185" t="n">
-        <v>18734.456455251788</v>
+        <v>1234.8605974415661</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.70127015875E12</v>
+        <v>1.701289580012E12</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
@@ -6059,7 +6059,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E186" t="n">
-        <v>6.868059520517248</v>
+        <v>7.233529188232668</v>
       </c>
       <c r="F186" t="n">
         <v>2.0</v>
@@ -6068,18 +6068,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H186" t="n">
-        <v>-43.18638389002526</v>
+        <v>-43.186375863126194</v>
       </c>
       <c r="I186" t="n">
-        <v>-22.97424352691291</v>
+        <v>-22.974233070281098</v>
       </c>
       <c r="J186" t="n">
-        <v>18841.465625039822</v>
+        <v>1338.5358378238739</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.701270160429E12</v>
+        <v>1.701289582132E12</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6091,7 +6091,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E187" t="n">
-        <v>8.58015365790809</v>
+        <v>8.875375899564892</v>
       </c>
       <c r="F187" t="n">
         <v>2.0</v>
@@ -6100,18 +6100,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H187" t="n">
-        <v>-43.18719845072573</v>
+        <v>-43.187174883491444</v>
       </c>
       <c r="I187" t="n">
-        <v>-22.975384478060462</v>
+        <v>-22.97534764862516</v>
       </c>
       <c r="J187" t="n">
-        <v>18993.315147629517</v>
+        <v>1487.0558761679752</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.701270161277E12</v>
+        <v>1.701289583088E12</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6123,7 +6123,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E188" t="n">
-        <v>8.58015365790809</v>
+        <v>7.792811027649369</v>
       </c>
       <c r="F188" t="n">
         <v>2.0</v>
@@ -6132,18 +6132,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H188" t="n">
-        <v>-43.18752492414679</v>
+        <v>-43.187510162982406</v>
       </c>
       <c r="I188" t="n">
-        <v>-22.975886217139095</v>
+        <v>-22.97586199434353</v>
       </c>
       <c r="J188" t="n">
-        <v>19058.35418606727</v>
+        <v>1553.759699350462</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.701270162369E12</v>
+        <v>1.701289584639E12</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -6152,30 +6152,30 @@
         <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>7.532372</v>
+        <v>7.272372</v>
       </c>
       <c r="E189" t="n">
-        <v>8.019156293814008</v>
+        <v>8.674882853175228</v>
       </c>
       <c r="F189" t="n">
         <v>2.0</v>
       </c>
       <c r="G189" t="n">
-        <v>7197.719068067999</v>
+        <v>7025.0269188973325</v>
       </c>
       <c r="H189" t="n">
-        <v>-43.18792708716933</v>
+        <v>-43.1879222194784</v>
       </c>
       <c r="I189" t="n">
-        <v>-22.976400145618456</v>
+        <v>-22.976401123129335</v>
       </c>
       <c r="J189" t="n">
-        <v>19132.493857911242</v>
+        <v>1630.493845257886</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.701270163648E12</v>
+        <v>1.701289586453E12</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
@@ -6187,7 +6187,7 @@
         <v>19.040318</v>
       </c>
       <c r="E190" t="n">
-        <v>6.2263734657192895</v>
+        <v>7.304381355416335</v>
       </c>
       <c r="F190" t="n">
         <v>2.0</v>
@@ -6196,18 +6196,18 @@
         <v>3000.130581620045</v>
       </c>
       <c r="H190" t="n">
-        <v>-43.18905501016854</v>
+        <v>-43.18903885598588</v>
       </c>
       <c r="I190" t="n">
-        <v>-22.97630107260296</v>
+        <v>-22.976302458618658</v>
       </c>
       <c r="J190" t="n">
-        <v>19248.499489843132</v>
+        <v>1745.3480214147496</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.701270164965E12</v>
+        <v>1.701289588232E12</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -6216,10 +6216,10 @@
         <v>20</v>
       </c>
       <c r="D191" t="n">
-        <v>3.569541664728726</v>
+        <v>4.026612364583368</v>
       </c>
       <c r="E191" t="n">
-        <v>6.344446643731569</v>
+        <v>5.530453780070715</v>
       </c>
       <c r="F191" t="n">
         <v>2.0</v>
@@ -6228,13 +6228,13 @@
         <v>0.0</v>
       </c>
       <c r="H191" t="n">
-        <v>-43.18995414142103</v>
+        <v>-43.18995061227665</v>
       </c>
       <c r="I191" t="n">
-        <v>-22.976223849299558</v>
+        <v>-22.976224152369877</v>
       </c>
       <c r="J191" t="n">
-        <v>19340.94632746238</v>
+        <v>1839.0929225105813</v>
       </c>
     </row>
   </sheetData>

--- a/RelatorioCarros.xlsx
+++ b/RelatorioCarros.xlsx
@@ -159,7 +159,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.701289046388E12</v>
+        <v>1.697248479031E14</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -171,7 +171,7 @@
         <v>0.49804023823371696</v>
       </c>
       <c r="E2" t="n">
-        <v>7.762213813583273</v>
+        <v>7.120920305876323</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -191,7 +191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.701289049019E12</v>
+        <v>1.69726637794E14</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -203,7 +203,7 @@
         <v>20.6064</v>
       </c>
       <c r="E3" t="n">
-        <v>6.052573411929618</v>
+        <v>7.355029623563384</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -212,18 +212,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.183038296939834</v>
+        <v>-43.183008765813724</v>
       </c>
       <c r="I3" t="n">
-        <v>-22.9713231116474</v>
+        <v>-22.971297900899998</v>
       </c>
       <c r="J3" t="n">
-        <v>145.89024533878717</v>
+        <v>150.0132225182069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.701289049616E12</v>
+        <v>1.697270135426E14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -235,7 +235,7 @@
         <v>20.6064</v>
       </c>
       <c r="E4" t="n">
-        <v>7.69304701355987</v>
+        <v>7.362130050661743</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -244,18 +244,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H4" t="n">
-        <v>-43.18266438739335</v>
+        <v>-43.18263198733464</v>
       </c>
       <c r="I4" t="n">
-        <v>-22.971039489337283</v>
+        <v>-22.97101749187287</v>
       </c>
       <c r="J4" t="n">
-        <v>195.5239871097654</v>
+        <v>199.64508885842625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.701289053952E12</v>
+        <v>1.69730589129E14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -264,30 +264,30 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>7.1076</v>
+        <v>7.3675999999999995</v>
       </c>
       <c r="E5" t="n">
-        <v>5.744721246755365</v>
+        <v>8.641447345045984</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
       </c>
       <c r="G5" t="n">
-        <v>6916.134687638218</v>
+        <v>7088.154237504883</v>
       </c>
       <c r="H5" t="n">
-        <v>-43.180324496328396</v>
+        <v>-43.18032866824061</v>
       </c>
       <c r="I5" t="n">
-        <v>-22.969435245637314</v>
+        <v>-22.969429851146593</v>
       </c>
       <c r="J5" t="n">
-        <v>498.72528021296966</v>
+        <v>499.4624903164133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.701289055098E12</v>
+        <v>1.697315379898E14</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -299,7 +299,7 @@
         <v>11.697199999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>5.874949310482208</v>
+        <v>5.325577706516818</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -314,12 +314,12 @@
         <v>-22.969455633337162</v>
       </c>
       <c r="J6" t="n">
-        <v>533.4045298229275</v>
+        <v>533.3841088442906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.701289056967E12</v>
+        <v>1.697331126949E14</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -331,7 +331,7 @@
         <v>20.6064</v>
       </c>
       <c r="E7" t="n">
-        <v>5.687047295011664</v>
+        <v>6.595590560354708</v>
       </c>
       <c r="F7" t="n">
         <v>2.0</v>
@@ -346,12 +346,12 @@
         <v>-22.97008111940327</v>
       </c>
       <c r="J7" t="n">
-        <v>656.5539294333486</v>
+        <v>656.5335084547121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.701289058393E12</v>
+        <v>1.697342885556E14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -363,7 +363,7 @@
         <v>20.6064</v>
       </c>
       <c r="E8" t="n">
-        <v>9.428593719199139</v>
+        <v>7.603823019737208</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -378,12 +378,12 @@
         <v>-22.97062641776776</v>
       </c>
       <c r="J8" t="n">
-        <v>759.5625272558983</v>
+        <v>759.5421062641118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.701289059847E12</v>
+        <v>1.697354278187E14</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -395,7 +395,7 @@
         <v>20.6064</v>
       </c>
       <c r="E9" t="n">
-        <v>8.713816180698773</v>
+        <v>9.446402990161602</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -410,12 +410,12 @@
         <v>-22.971175592573214</v>
       </c>
       <c r="J9" t="n">
-        <v>858.1267881829468</v>
+        <v>858.1063603565799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.701289060072E12</v>
+        <v>1.69735592089E14</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -427,7 +427,7 @@
         <v>20.6064</v>
       </c>
       <c r="E10" t="n">
-        <v>8.713816180698773</v>
+        <v>9.446402990161602</v>
       </c>
       <c r="F10" t="n">
         <v>2.0</v>
@@ -436,18 +436,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H10" t="n">
-        <v>-43.183253699768834</v>
+        <v>-43.183238897454544</v>
       </c>
       <c r="I10" t="n">
-        <v>-22.971263528437305</v>
+        <v>-22.9712509689331</v>
       </c>
       <c r="J10" t="n">
-        <v>872.5536848603971</v>
+        <v>870.4724660986291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.701289062235E12</v>
+        <v>1.697372545507E14</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -459,7 +459,7 @@
         <v>20.6064</v>
       </c>
       <c r="E11" t="n">
-        <v>8.356769260138554</v>
+        <v>6.230043545950068</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -468,18 +468,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H11" t="n">
-        <v>-43.184288218657755</v>
+        <v>-43.184273892981196</v>
       </c>
       <c r="I11" t="n">
-        <v>-22.97214279443907</v>
+        <v>-22.97212976821649</v>
       </c>
       <c r="J11" t="n">
-        <v>1016.6944392233949</v>
+        <v>1014.6124670644654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.701289062671E12</v>
+        <v>1.697375770708E14</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -491,7 +491,7 @@
         <v>20.6064</v>
       </c>
       <c r="E12" t="n">
-        <v>9.586196531400748</v>
+        <v>6.230043545950068</v>
       </c>
       <c r="F12" t="n">
         <v>2.0</v>
@@ -500,18 +500,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H12" t="n">
-        <v>-43.18450636663948</v>
+        <v>-43.18449291915606</v>
       </c>
       <c r="I12" t="n">
-        <v>-22.97230846769871</v>
+        <v>-22.972294677647778</v>
       </c>
       <c r="J12" t="n">
-        <v>1047.0968135359863</v>
+        <v>1045.0153673523846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.701289066495E12</v>
+        <v>1.697406249817E14</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -520,30 +520,30 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>14.969478260869453</v>
+        <v>13.829478260869452</v>
       </c>
       <c r="E13" t="n">
-        <v>6.549803653860031</v>
+        <v>7.242236046382354</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
       </c>
       <c r="G13" t="n">
-        <v>12586.816261185075</v>
+        <v>11704.393399272032</v>
       </c>
       <c r="H13" t="n">
-        <v>-43.1856773426835</v>
+        <v>-43.18567573858899</v>
       </c>
       <c r="I13" t="n">
-        <v>-22.97346644947649</v>
+        <v>-22.97346482814978</v>
       </c>
       <c r="J13" t="n">
-        <v>1224.7437010267568</v>
+        <v>1223.8294231086923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.701289066676E12</v>
+        <v>1.697407344508E14</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -552,30 +552,30 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>16.269478260869455</v>
+        <v>15.129478260869451</v>
       </c>
       <c r="E14" t="n">
-        <v>6.549803653860031</v>
+        <v>7.242236046382354</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>13617.98814582283</v>
+        <v>12712.29788390971</v>
       </c>
       <c r="H14" t="n">
-        <v>-43.185729253958044</v>
+        <v>-43.185723896595874</v>
       </c>
       <c r="I14" t="n">
-        <v>-22.97351875646003</v>
+        <v>-22.97351335087028</v>
       </c>
       <c r="J14" t="n">
-        <v>1232.6223155163493</v>
+        <v>1231.1382186309918</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.701289068517E12</v>
+        <v>1.697420542003E14</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -587,7 +587,7 @@
         <v>20.6064</v>
       </c>
       <c r="E15" t="n">
-        <v>8.493728360783793</v>
+        <v>8.476402723597776</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -596,18 +596,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H15" t="n">
-        <v>-43.18639154719539</v>
+        <v>-43.18638677677115</v>
       </c>
       <c r="I15" t="n">
-        <v>-22.974253501899266</v>
+        <v>-22.97424728747332</v>
       </c>
       <c r="J15" t="n">
-        <v>1338.8308799267777</v>
+        <v>1337.3120629535554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.701289071029E12</v>
+        <v>1.697437514755E14</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>20.6064</v>
       </c>
       <c r="E16" t="n">
-        <v>6.9233647143667145</v>
+        <v>7.8292089726094</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -628,18 +628,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H16" t="n">
-        <v>-43.18717898634388</v>
+        <v>-43.18718501021469</v>
       </c>
       <c r="I16" t="n">
-        <v>-22.975354060312526</v>
+        <v>-22.97536347405016</v>
       </c>
       <c r="J16" t="n">
-        <v>1485.3964672998275</v>
+        <v>1485.9386384734673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.701289072233E12</v>
+        <v>1.697445485921E14</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -651,7 +651,7 @@
         <v>20.6064</v>
       </c>
       <c r="E17" t="n">
-        <v>5.78705959691176</v>
+        <v>6.938346807668422</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -660,18 +660,18 @@
         <v>3284.3380317582223</v>
       </c>
       <c r="H17" t="n">
-        <v>-43.187520660052684</v>
+        <v>-43.18752646813861</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.975879219840156</v>
+        <v>-22.97588875080089</v>
       </c>
       <c r="J17" t="n">
-        <v>1553.469045803242</v>
+        <v>1554.0114420162645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.701289074047E12</v>
+        <v>1.697457869827E14</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -683,7 +683,7 @@
         <v>8.6128</v>
       </c>
       <c r="E18" t="n">
-        <v>7.719876147618805</v>
+        <v>6.329333601468534</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -692,18 +692,18 @@
         <v>7926.708617699551</v>
       </c>
       <c r="H18" t="n">
-        <v>-43.18791610688423</v>
+        <v>-43.18791736354092</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.976402350636874</v>
+        <v>-22.976402098279937</v>
       </c>
       <c r="J18" t="n">
-        <v>1627.349850873785</v>
+        <v>1626.8003462065926</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.701289076529E12</v>
+        <v>1.697474039161E14</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
         <v>23.5532</v>
       </c>
       <c r="E19" t="n">
-        <v>9.408756779287263</v>
+        <v>6.287366728734199</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -724,18 +724,18 @@
         <v>3923.507379606223</v>
       </c>
       <c r="H19" t="n">
-        <v>-43.18904013141344</v>
+        <v>-43.189041412079554</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.976302349188014</v>
+        <v>-22.976302239307905</v>
       </c>
       <c r="J19" t="n">
-        <v>1742.9768706500931</v>
+        <v>1742.427692265577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.701289079192E12</v>
+        <v>1.697490969927E14</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -744,30 +744,30 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>13.527173913043525</v>
+        <v>13.501853846153812</v>
       </c>
       <c r="E20" t="n">
-        <v>5.548986261955424</v>
+        <v>9.332434683111508</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
       </c>
       <c r="G20" t="n">
-        <v>11473.81588115026</v>
+        <v>11454.568548687821</v>
       </c>
       <c r="H20" t="n">
-        <v>-43.18996592214714</v>
+        <v>-43.189965552502095</v>
       </c>
       <c r="I20" t="n">
-        <v>-22.976222837612873</v>
+        <v>-22.97622286935667</v>
       </c>
       <c r="J20" t="n">
-        <v>1838.1647670673212</v>
+        <v>1837.4459065066774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.701289081311E12</v>
+        <v>1.697504136975E14</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -776,30 +776,30 @@
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25397333028377034</v>
+        <v>0.24933526028716008</v>
       </c>
       <c r="E21" t="n">
-        <v>6.043022238087638</v>
+        <v>5.255609395995542</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
       </c>
       <c r="G21" t="n">
-        <v>2760.4119197080768</v>
+        <v>2754.910432637234</v>
       </c>
       <c r="H21" t="n">
-        <v>-43.18408266036754</v>
+        <v>-43.184082663688635</v>
       </c>
       <c r="I21" t="n">
-        <v>-22.972215434170973</v>
+        <v>-22.972215437008543</v>
       </c>
       <c r="J21" t="n">
-        <v>2.381046386066585</v>
+        <v>0.02493581249793117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.701289085852E12</v>
+        <v>1.697532611752E14</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>18.240552</v>
       </c>
       <c r="E22" t="n">
-        <v>9.537598456198376</v>
+        <v>8.547532020383361</v>
       </c>
       <c r="F22" t="n">
         <v>2.0</v>
@@ -820,18 +820,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H22" t="n">
-        <v>-43.183045758149326</v>
+        <v>-43.183045990788706</v>
       </c>
       <c r="I22" t="n">
-        <v>-22.97132948128827</v>
+        <v>-22.9713296798927</v>
       </c>
       <c r="J22" t="n">
-        <v>147.2041975392185</v>
+        <v>144.81606813925836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.701289086963E12</v>
+        <v>1.69753895971E14</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>18.240552</v>
       </c>
       <c r="E23" t="n">
-        <v>9.515130707030977</v>
+        <v>8.547532020383361</v>
       </c>
       <c r="F23" t="n">
         <v>2.0</v>
@@ -852,18 +852,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H23" t="n">
-        <v>-43.182674191929856</v>
+        <v>-43.18267444717002</v>
       </c>
       <c r="I23" t="n">
-        <v>-22.971046145959257</v>
+        <v>-22.971046319250192</v>
       </c>
       <c r="J23" t="n">
-        <v>196.63247894401314</v>
+        <v>194.24421027750176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.701289094595E12</v>
+        <v>1.697586635265E14</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -875,7 +875,7 @@
         <v>6.3214179999999995</v>
       </c>
       <c r="E24" t="n">
-        <v>8.791898687823576</v>
+        <v>8.43231936280542</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -890,12 +890,12 @@
         <v>-22.969439066784908</v>
       </c>
       <c r="J24" t="n">
-        <v>500.5774866072602</v>
+        <v>498.2185137063917</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.701289100417E12</v>
+        <v>1.697620079126E14</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>2.8599999999999994</v>
       </c>
       <c r="E25" t="n">
-        <v>9.33084005731255</v>
+        <v>5.777556406802075</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -922,12 +922,12 @@
         <v>-22.969450466705744</v>
       </c>
       <c r="J25" t="n">
-        <v>534.7709998624003</v>
+        <v>532.4120267244851</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.701289104398E12</v>
+        <v>1.697644548152E14</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -939,7 +939,7 @@
         <v>18.240552</v>
       </c>
       <c r="E26" t="n">
-        <v>9.06798444089602</v>
+        <v>8.482409066857098</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -954,12 +954,12 @@
         <v>-22.970074881920493</v>
       </c>
       <c r="J26" t="n">
-        <v>657.7667140816862</v>
+        <v>655.4077409437707</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.701289107096E12</v>
+        <v>1.69766029852E14</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -971,7 +971,7 @@
         <v>18.240552</v>
       </c>
       <c r="E27" t="n">
-        <v>7.640241075570044</v>
+        <v>7.194766940171797</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -986,12 +986,12 @@
         <v>-22.970625130686486</v>
       </c>
       <c r="J27" t="n">
-        <v>761.714603439717</v>
+        <v>759.3556303018016</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.701289109543E12</v>
+        <v>1.697674818013E14</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>18.240552</v>
       </c>
       <c r="E28" t="n">
-        <v>7.90280258302719</v>
+        <v>8.037600232923907</v>
       </c>
       <c r="F28" t="n">
         <v>2.0</v>
@@ -1018,12 +1018,12 @@
         <v>-22.97118273918673</v>
       </c>
       <c r="J28" t="n">
-        <v>861.6909534721311</v>
+        <v>859.3319803342157</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.701289109903E12</v>
+        <v>1.697676968949E14</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1035,7 +1035,7 @@
         <v>18.240552</v>
       </c>
       <c r="E29" t="n">
-        <v>6.135129032900477</v>
+        <v>8.037600232923907</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -1050,12 +1050,12 @@
         <v>-22.971260575739702</v>
       </c>
       <c r="J29" t="n">
-        <v>874.4604998214625</v>
+        <v>872.101526683547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.701289113482E12</v>
+        <v>1.697698447161E14</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>18.240552</v>
       </c>
       <c r="E30" t="n">
-        <v>5.3101403604480595</v>
+        <v>5.578266444511404</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -1082,12 +1082,12 @@
         <v>-22.972138818953063</v>
       </c>
       <c r="J30" t="n">
-        <v>1018.4566518994458</v>
+        <v>1016.0976784565552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.701289114199E12</v>
+        <v>1.697702714615E14</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>18.240552</v>
       </c>
       <c r="E31" t="n">
-        <v>6.883755491678121</v>
+        <v>5.5654214767237535</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -1114,12 +1114,12 @@
         <v>-22.97230650713765</v>
       </c>
       <c r="J31" t="n">
-        <v>1049.3036098207049</v>
+        <v>1046.944636353769</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.70128911869E12</v>
+        <v>1.697729142159E14</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1131,7 +1131,7 @@
         <v>18.240552</v>
       </c>
       <c r="E32" t="n">
-        <v>8.233817459463046</v>
+        <v>7.5249574765599165</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -1146,12 +1146,12 @@
         <v>-22.97347122374239</v>
       </c>
       <c r="J32" t="n">
-        <v>1228.0755616460906</v>
+        <v>1225.7165804632107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.701289118896E12</v>
+        <v>1.697730432667E14</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>18.240552</v>
       </c>
       <c r="E33" t="n">
-        <v>5.942374659107843</v>
+        <v>9.13862861017058</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -1178,12 +1178,12 @@
         <v>-22.97351967914897</v>
       </c>
       <c r="J33" t="n">
-        <v>1235.3749737062392</v>
+        <v>1233.0159925233593</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.701289121604E12</v>
+        <v>1.697745878355E14</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1195,7 +1195,7 @@
         <v>18.240552</v>
       </c>
       <c r="E34" t="n">
-        <v>6.451869867369786</v>
+        <v>6.267941603376066</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -1210,12 +1210,12 @@
         <v>-22.97425440773751</v>
       </c>
       <c r="J34" t="n">
-        <v>1341.568236824023</v>
+        <v>1339.209255641143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.701289125408E12</v>
+        <v>1.697767705443E14</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>18.240552</v>
       </c>
       <c r="E35" t="n">
-        <v>5.859781457150485</v>
+        <v>8.184717003423248</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -1236,18 +1236,18 @@
         <v>2869.8448377501486</v>
       </c>
       <c r="H35" t="n">
-        <v>-43.187177708452815</v>
+        <v>-43.18716866637269</v>
       </c>
       <c r="I35" t="n">
-        <v>-22.97535206330237</v>
+        <v>-22.97533793289143</v>
       </c>
       <c r="J35" t="n">
-        <v>1487.7528387424748</v>
+        <v>1483.5702242476316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.701289127226E12</v>
+        <v>1.697778176517E14</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>18.240552</v>
       </c>
       <c r="E36" t="n">
-        <v>7.378172362006973</v>
+        <v>6.931496291219541</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -1274,12 +1274,12 @@
         <v>-22.97588749586378</v>
       </c>
       <c r="J36" t="n">
-        <v>1557.1383984208517</v>
+        <v>1554.7794110294258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.701289130102E12</v>
+        <v>1.697794599751E14</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1291,7 +1291,7 @@
         <v>7.653804</v>
       </c>
       <c r="E37" t="n">
-        <v>8.494344605860519</v>
+        <v>7.236590139978916</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -1306,12 +1306,12 @@
         <v>-22.976401837294052</v>
       </c>
       <c r="J37" t="n">
-        <v>1630.245033038291</v>
+        <v>1627.870533439289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.701289133519E12</v>
+        <v>1.697813905848E14</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1323,7 +1323,7 @@
         <v>20.849026</v>
       </c>
       <c r="E38" t="n">
-        <v>9.403343848845875</v>
+        <v>6.575146090196762</v>
       </c>
       <c r="F38" t="n">
         <v>2.0</v>
@@ -1338,12 +1338,12 @@
         <v>-22.97630247800425</v>
       </c>
       <c r="J38" t="n">
-        <v>1745.4499531876636</v>
+        <v>1743.0754535886615</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.701289136981E12</v>
+        <v>1.697834305453E14</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1352,30 +1352,30 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>13.52174139130433</v>
+        <v>13.26174139130433</v>
       </c>
       <c r="E39" t="n">
-        <v>9.279948971928933</v>
+        <v>6.030748788852855</v>
       </c>
       <c r="F39" t="n">
         <v>2.0</v>
       </c>
       <c r="G39" t="n">
-        <v>11469.68544078897</v>
+        <v>11272.544685763</v>
       </c>
       <c r="H39" t="n">
-        <v>-43.18996584283832</v>
+        <v>-43.18995268267116</v>
       </c>
       <c r="I39" t="n">
-        <v>-22.97622284442363</v>
+        <v>-22.976223974571788</v>
       </c>
       <c r="J39" t="n">
-        <v>1840.7840615422815</v>
+        <v>1837.0564597236717</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.701289139722E12</v>
+        <v>1.697849824323E14</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1384,30 +1384,30 @@
         <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>0.25918560356250964</v>
+        <v>0.25396032736683266</v>
       </c>
       <c r="E40" t="n">
-        <v>8.667552195697015</v>
+        <v>7.227017906700093</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
       </c>
       <c r="G40" t="n">
-        <v>2766.7287392920307</v>
+        <v>2760.396338949678</v>
       </c>
       <c r="H40" t="n">
-        <v>-43.18408265663529</v>
+        <v>-43.18408266037685</v>
       </c>
       <c r="I40" t="n">
-        <v>-22.972215430982104</v>
+        <v>-22.972215434178928</v>
       </c>
       <c r="J40" t="n">
-        <v>2.1111127381302266</v>
+        <v>2.1105901625779806</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.701289145056E12</v>
+        <v>1.697880566473E14</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1419,7 +1419,7 @@
         <v>19.642176</v>
       </c>
       <c r="E41" t="n">
-        <v>9.240100076078505</v>
+        <v>6.814930931246653</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -1428,18 +1428,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H41" t="n">
-        <v>-43.18304590516067</v>
+        <v>-43.18304618597444</v>
       </c>
       <c r="I41" t="n">
-        <v>-22.97132960679198</v>
+        <v>-22.971329846522934</v>
       </c>
       <c r="J41" t="n">
-        <v>146.91321780299128</v>
+        <v>146.8740119489146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.701289146232E12</v>
+        <v>1.697888033229E14</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1451,7 +1451,7 @@
         <v>19.642176</v>
       </c>
       <c r="E42" t="n">
-        <v>9.509580969963286</v>
+        <v>8.382353373137986</v>
       </c>
       <c r="F42" t="n">
         <v>2.0</v>
@@ -1460,18 +1460,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H42" t="n">
-        <v>-43.182675485697025</v>
+        <v>-43.182675793791695</v>
       </c>
       <c r="I42" t="n">
-        <v>-22.971047024340294</v>
+        <v>-22.97104723351589</v>
       </c>
       <c r="J42" t="n">
-        <v>196.197422154845</v>
+        <v>196.1580382135595</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.701289154877E12</v>
+        <v>1.697937960269E14</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1483,7 +1483,7 @@
         <v>6.787184</v>
       </c>
       <c r="E43" t="n">
-        <v>6.246927669984999</v>
+        <v>9.389284730740796</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -1492,18 +1492,18 @@
         <v>6705.602987690254</v>
       </c>
       <c r="H43" t="n">
-        <v>-43.180323517088176</v>
+        <v>-43.18032283973089</v>
       </c>
       <c r="I43" t="n">
-        <v>-22.9694365118438</v>
+        <v>-22.969437387700577</v>
       </c>
       <c r="J43" t="n">
-        <v>500.6297106416799</v>
+        <v>500.52703661064265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.701289157187E12</v>
+        <v>1.697950533869E14</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1515,7 +1515,7 @@
         <v>11.628847999999996</v>
       </c>
       <c r="E44" t="n">
-        <v>5.813995728521299</v>
+        <v>5.708776730005186</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -1524,18 +1524,18 @@
         <v>10058.693442674647</v>
       </c>
       <c r="H44" t="n">
-        <v>-43.180594973704196</v>
+        <v>-43.18059175837725</v>
       </c>
       <c r="I44" t="n">
-        <v>-22.969458844011736</v>
+        <v>-22.969456843942815</v>
       </c>
       <c r="J44" t="n">
-        <v>536.1520894994685</v>
+        <v>535.7445986429683</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.701289160551E12</v>
+        <v>1.697969716545E14</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1547,7 +1547,7 @@
         <v>19.642176</v>
       </c>
       <c r="E45" t="n">
-        <v>7.701412223772544</v>
+        <v>6.0464005670161685</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -1556,18 +1556,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H45" t="n">
-        <v>-43.18157458599229</v>
+        <v>-43.181571446879026</v>
       </c>
       <c r="I45" t="n">
-        <v>-22.970075900363398</v>
+        <v>-22.97007380047619</v>
       </c>
       <c r="J45" t="n">
-        <v>657.6764870248983</v>
+        <v>657.268995079711</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.70128916318E12</v>
+        <v>1.69798433018E14</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1579,7 +1579,7 @@
         <v>19.642176</v>
       </c>
       <c r="E46" t="n">
-        <v>9.295944459499749</v>
+        <v>7.301163922035723</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -1588,18 +1588,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H46" t="n">
-        <v>-43.18239642734669</v>
+        <v>-43.182393307949624</v>
       </c>
       <c r="I46" t="n">
-        <v>-22.970626868874238</v>
+        <v>-22.970624744738927</v>
       </c>
       <c r="J46" t="n">
-        <v>761.7567506417607</v>
+        <v>761.3492922083107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.701289165674E12</v>
+        <v>1.697998478115E14</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1611,7 +1611,7 @@
         <v>19.642176</v>
       </c>
       <c r="E47" t="n">
-        <v>7.101052281383824</v>
+        <v>7.30221726056012</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -1620,18 +1620,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H47" t="n">
-        <v>-43.18315978436936</v>
+        <v>-43.18315692794289</v>
       </c>
       <c r="I47" t="n">
-        <v>-22.971183819350063</v>
+        <v>-22.971181396612366</v>
       </c>
       <c r="J47" t="n">
-        <v>861.5848161368949</v>
+        <v>861.1774548635021</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.701289166016E12</v>
+        <v>1.698000249764E14</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>19.642176</v>
       </c>
       <c r="E48" t="n">
-        <v>8.287667077762785</v>
+        <v>7.30221726056012</v>
       </c>
       <c r="F48" t="n">
         <v>2.0</v>
@@ -1652,18 +1652,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H48" t="n">
-        <v>-43.183258539724456</v>
+        <v>-43.18324157686612</v>
       </c>
       <c r="I48" t="n">
-        <v>-22.97126763505481</v>
+        <v>-22.971253242366856</v>
       </c>
       <c r="J48" t="n">
-        <v>875.3353987548744</v>
+        <v>872.9640620906755</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.701289169582E12</v>
+        <v>1.698020276844E14</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -1675,7 +1675,7 @@
         <v>19.642176</v>
       </c>
       <c r="E49" t="n">
-        <v>5.798222903704308</v>
+        <v>9.102793753654204</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -1684,18 +1684,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H49" t="n">
-        <v>-43.18428694544667</v>
+        <v>-43.184284184139074</v>
       </c>
       <c r="I49" t="n">
-        <v>-22.972141636718465</v>
+        <v>-22.97213912588365</v>
       </c>
       <c r="J49" t="n">
-        <v>1018.6191398611492</v>
+        <v>1018.2120450227006</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.701289170258E12</v>
+        <v>1.698024241713E14</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1707,7 +1707,7 @@
         <v>19.642176</v>
       </c>
       <c r="E50" t="n">
-        <v>9.12211968063985</v>
+        <v>6.571698218244048</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -1716,18 +1716,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H50" t="n">
-        <v>-43.18449636210856</v>
+        <v>-43.18450658831742</v>
       </c>
       <c r="I50" t="n">
-        <v>-22.97229820830767</v>
+        <v>-22.972308695023777</v>
       </c>
       <c r="J50" t="n">
-        <v>1047.7572951137045</v>
+        <v>1049.2671919988531</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.701289174563E12</v>
+        <v>1.698048561867E14</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -1739,7 +1739,7 @@
         <v>19.642176</v>
       </c>
       <c r="E51" t="n">
-        <v>9.144732144152336</v>
+        <v>8.783292983595045</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -1748,18 +1748,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H51" t="n">
-        <v>-43.18567289022446</v>
+        <v>-43.18568320636275</v>
       </c>
       <c r="I51" t="n">
-        <v>-22.973461953052453</v>
+        <v>-22.97347237614709</v>
       </c>
       <c r="J51" t="n">
-        <v>1226.3058671499211</v>
+        <v>1227.1637970022907</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.701289174764E12</v>
+        <v>1.698049608522E14</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1771,7 +1771,7 @@
         <v>19.642176</v>
       </c>
       <c r="E52" t="n">
-        <v>9.144732144152336</v>
+        <v>8.783292983595045</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
@@ -1780,18 +1780,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H52" t="n">
-        <v>-43.185724682097785</v>
+        <v>-43.18573500024949</v>
       </c>
       <c r="I52" t="n">
-        <v>-22.97351414344337</v>
+        <v>-22.973524554480242</v>
       </c>
       <c r="J52" t="n">
-        <v>1234.1666678930967</v>
+        <v>1235.0237369110146</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.701289177358E12</v>
+        <v>1.698064029063E14</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -1803,7 +1803,7 @@
         <v>19.642176</v>
       </c>
       <c r="E53" t="n">
-        <v>8.113426388907026</v>
+        <v>7.72895533087106</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -1812,18 +1812,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H53" t="n">
-        <v>-43.18638907902325</v>
+        <v>-43.18638683786558</v>
       </c>
       <c r="I53" t="n">
-        <v>-22.97425028661437</v>
+        <v>-22.974247367060958</v>
       </c>
       <c r="J53" t="n">
-        <v>1340.6330067260956</v>
+        <v>1339.5249681588389</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.701289180874E12</v>
+        <v>1.698083841026E14</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -1835,7 +1835,7 @@
         <v>19.642176</v>
       </c>
       <c r="E54" t="n">
-        <v>6.772166184421181</v>
+        <v>8.991745840731491</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -1844,18 +1844,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H54" t="n">
-        <v>-43.18718182902927</v>
+        <v>-43.18717986009079</v>
       </c>
       <c r="I54" t="n">
-        <v>-22.975358502687744</v>
+        <v>-22.975355425750855</v>
       </c>
       <c r="J54" t="n">
-        <v>1488.2096573922695</v>
+        <v>1487.1021816878363</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.701289182483E12</v>
+        <v>1.698093347778E14</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -1867,7 +1867,7 @@
         <v>19.642176</v>
       </c>
       <c r="E55" t="n">
-        <v>6.473321523949569</v>
+        <v>8.72729026996854</v>
       </c>
       <c r="F55" t="n">
         <v>2.0</v>
@@ -1876,18 +1876,18 @@
         <v>3104.7982486397837</v>
       </c>
       <c r="H55" t="n">
-        <v>-43.18752696882955</v>
+        <v>-43.18752507042166</v>
       </c>
       <c r="I55" t="n">
-        <v>-22.975889572425388</v>
+        <v>-22.975886457173424</v>
       </c>
       <c r="J55" t="n">
-        <v>1557.0288674552557</v>
+        <v>1555.921209402588</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.701289184953E12</v>
+        <v>1.698107447073E14</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -1899,7 +1899,7 @@
         <v>8.221952</v>
       </c>
       <c r="E56" t="n">
-        <v>6.899818160138086</v>
+        <v>7.005232049198847</v>
       </c>
       <c r="F56" t="n">
         <v>2.0</v>
@@ -1914,12 +1914,12 @@
         <v>-22.976401621014087</v>
       </c>
       <c r="J56" t="n">
-        <v>1629.9781625853511</v>
+        <v>1629.2667067746345</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.701289188116E12</v>
+        <v>1.698125336581E14</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1931,7 +1931,7 @@
         <v>22.451088</v>
       </c>
       <c r="E57" t="n">
-        <v>6.346381793146053</v>
+        <v>5.46630901686583</v>
       </c>
       <c r="F57" t="n">
         <v>2.0</v>
@@ -1946,12 +1946,12 @@
         <v>-22.97630301968294</v>
       </c>
       <c r="J57" t="n">
-        <v>1744.4219224916712</v>
+        <v>1743.7079309843564</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.70128919196E12</v>
+        <v>1.698150794833E14</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -1960,30 +1960,30 @@
         <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>11.95384927999999</v>
+        <v>11.263849279999972</v>
       </c>
       <c r="E58" t="n">
-        <v>8.3549379206953</v>
+        <v>5.9433630005988185</v>
       </c>
       <c r="F58" t="n">
         <v>2.0</v>
       </c>
       <c r="G58" t="n">
-        <v>10296.954320821182</v>
+        <v>9793.08715657093</v>
       </c>
       <c r="H58" t="n">
-        <v>-43.18997172518194</v>
+        <v>-43.18997128949449</v>
       </c>
       <c r="I58" t="n">
-        <v>-22.976222339268965</v>
+        <v>-22.976222376684248</v>
       </c>
       <c r="J58" t="n">
-        <v>1841.009960035867</v>
+        <v>1840.251172262578</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.701289194699E12</v>
+        <v>1.698166510028E14</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -1992,30 +1992,30 @@
         <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25932607014966197</v>
+        <v>0.2594932300685905</v>
       </c>
       <c r="E59" t="n">
-        <v>5.249416186383757</v>
+        <v>5.568551795231824</v>
       </c>
       <c r="F59" t="n">
         <v>2.0</v>
       </c>
       <c r="G59" t="n">
-        <v>2766.900938322469</v>
+        <v>2767.105995352028</v>
       </c>
       <c r="H59" t="n">
-        <v>-43.184082656534706</v>
+        <v>-43.184082656415015</v>
       </c>
       <c r="I59" t="n">
-        <v>-22.972215430896167</v>
+        <v>-22.9722154307939</v>
       </c>
       <c r="J59" t="n">
-        <v>2.271355218787535</v>
+        <v>2.27137192719649</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.701289199775E12</v>
+        <v>1.698196225502E14</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2027,7 +2027,7 @@
         <v>21.047688</v>
       </c>
       <c r="E60" t="n">
-        <v>5.984063867678531</v>
+        <v>7.0174390935189015</v>
       </c>
       <c r="F60" t="n">
         <v>2.0</v>
@@ -2036,18 +2036,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H60" t="n">
-        <v>-43.18304255758506</v>
+        <v>-43.18304254800275</v>
       </c>
       <c r="I60" t="n">
-        <v>-22.971326748963843</v>
+        <v>-22.97132674078342</v>
       </c>
       <c r="J60" t="n">
-        <v>147.54081439305762</v>
+        <v>147.542154448491</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.701289200799E12</v>
+        <v>1.698202369978E14</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2059,7 +2059,7 @@
         <v>21.047688</v>
       </c>
       <c r="E61" t="n">
-        <v>7.293434593350612</v>
+        <v>7.375411391677821</v>
       </c>
       <c r="F61" t="n">
         <v>2.0</v>
@@ -2068,18 +2068,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H61" t="n">
-        <v>-43.18267728270865</v>
+        <v>-43.182677272195434</v>
       </c>
       <c r="I61" t="n">
-        <v>-22.971048244390534</v>
+        <v>-22.971048237252763</v>
       </c>
       <c r="J61" t="n">
-        <v>196.12874078119862</v>
+        <v>196.129985054325</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.701289208746E12</v>
+        <v>1.698246433639E14</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2091,7 +2091,7 @@
         <v>7.254242</v>
       </c>
       <c r="E62" t="n">
-        <v>7.908202116232708</v>
+        <v>6.481095252974448</v>
       </c>
       <c r="F62" t="n">
         <v>2.0</v>
@@ -2100,18 +2100,18 @@
         <v>7013.024546096211</v>
       </c>
       <c r="H62" t="n">
-        <v>-43.18032553505541</v>
+        <v>-43.18032554262777</v>
       </c>
       <c r="I62" t="n">
-        <v>-22.969433902511444</v>
+        <v>-22.96943389272</v>
       </c>
       <c r="J62" t="n">
-        <v>501.1539249079411</v>
+        <v>501.1551320888496</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.701289210803E12</v>
+        <v>1.698258427313E14</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2123,7 +2123,7 @@
         <v>11.847473999999997</v>
       </c>
       <c r="E63" t="n">
-        <v>7.902537228666399</v>
+        <v>7.369097014224654</v>
       </c>
       <c r="F63" t="n">
         <v>2.0</v>
@@ -2132,18 +2132,18 @@
         <v>10218.78724174052</v>
       </c>
       <c r="H63" t="n">
-        <v>-43.18058876411373</v>
+        <v>-43.18058876920805</v>
       </c>
       <c r="I63" t="n">
-        <v>-22.969454981384672</v>
+        <v>-22.969454984553554</v>
       </c>
       <c r="J63" t="n">
-        <v>535.5316837203768</v>
+        <v>535.5322646389817</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.701289213915E12</v>
+        <v>1.698276437805E14</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2155,7 +2155,7 @@
         <v>21.047688</v>
       </c>
       <c r="E64" t="n">
-        <v>6.661629240190042</v>
+        <v>7.443065665217026</v>
       </c>
       <c r="F64" t="n">
         <v>2.0</v>
@@ -2164,18 +2164,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H64" t="n">
-        <v>-43.18158019809056</v>
+        <v>-43.18156356856957</v>
       </c>
       <c r="I64" t="n">
-        <v>-22.97007965453612</v>
+        <v>-22.970068530337812</v>
       </c>
       <c r="J64" t="n">
-        <v>658.5334638037567</v>
+        <v>656.4289782423273</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.701289216283E12</v>
+        <v>1.698289751906E14</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2187,7 +2187,7 @@
         <v>21.047688</v>
       </c>
       <c r="E65" t="n">
-        <v>6.832843751288492</v>
+        <v>7.533574201657759</v>
       </c>
       <c r="F65" t="n">
         <v>2.0</v>
@@ -2196,18 +2196,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H65" t="n">
-        <v>-43.18239438728945</v>
+        <v>-43.18239439223178</v>
       </c>
       <c r="I65" t="n">
-        <v>-22.97062547970911</v>
+        <v>-22.970625483074564</v>
       </c>
       <c r="J65" t="n">
-        <v>761.6437605570438</v>
+        <v>761.6443189139413</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.701289218537E12</v>
+        <v>1.698303141181E14</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2219,7 +2219,7 @@
         <v>21.047688</v>
       </c>
       <c r="E66" t="n">
-        <v>6.156743330591907</v>
+        <v>6.660621231475872</v>
       </c>
       <c r="F66" t="n">
         <v>2.0</v>
@@ -2228,18 +2228,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H66" t="n">
-        <v>-43.183164056455034</v>
+        <v>-43.183164060980715</v>
       </c>
       <c r="I66" t="n">
-        <v>-22.971187442808642</v>
+        <v>-22.9711874466472</v>
       </c>
       <c r="J66" t="n">
-        <v>862.3265005913457</v>
+        <v>862.3270609678127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.701289218835E12</v>
+        <v>1.698304663028E14</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2251,7 +2251,7 @@
         <v>21.047688</v>
       </c>
       <c r="E67" t="n">
-        <v>6.156743330591907</v>
+        <v>6.660621231475872</v>
       </c>
       <c r="F67" t="n">
         <v>2.0</v>
@@ -2260,18 +2260,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H67" t="n">
-        <v>-43.18325475505525</v>
+        <v>-43.183239640268546</v>
       </c>
       <c r="I67" t="n">
-        <v>-22.971264423829332</v>
+        <v>-22.971251599197764</v>
       </c>
       <c r="J67" t="n">
-        <v>874.9555157636605</v>
+        <v>872.8511525701092</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.701289222123E12</v>
+        <v>1.698323056158E14</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2283,7 +2283,7 @@
         <v>21.047688</v>
       </c>
       <c r="E68" t="n">
-        <v>8.189903537537806</v>
+        <v>7.529431755887574</v>
       </c>
       <c r="F68" t="n">
         <v>2.0</v>
@@ -2292,18 +2292,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H68" t="n">
-        <v>-43.18428145003922</v>
+        <v>-43.184281454414204</v>
       </c>
       <c r="I68" t="n">
-        <v>-22.97213663978863</v>
+        <v>-22.972136643766763</v>
       </c>
       <c r="J68" t="n">
-        <v>1017.975541396129</v>
+        <v>1017.9756702019067</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.701289222806E12</v>
+        <v>1.698326834291E14</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2315,7 +2315,7 @@
         <v>21.047688</v>
       </c>
       <c r="E69" t="n">
-        <v>8.567707209158522</v>
+        <v>7.529431755887574</v>
       </c>
       <c r="F69" t="n">
         <v>2.0</v>
@@ -2324,18 +2324,18 @@
         <v>3371.375289863173</v>
       </c>
       <c r="H69" t="n">
-        <v>-43.18450404465881</v>
+        <v>-43.1845040487656</v>
       </c>
       <c r="I69" t="n">
-        <v>-22.97230608656681</v>
+        <v>-22.972306090778215</v>
       </c>
       <c r="J69" t="n">
-        <v>1048.3372329669414</v>
+        <v>1048.989229417744</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.701289230583E12</v>
+        <v>1.698369181334E14</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2347,7 +2347,7 @@
         <v>13.520000000000039</v>
       </c>
       <c r="E70" t="n">
-        <v>8.453812980666585</v>
+        <v>6.06700970376564</v>
       </c>
       <c r="F70" t="n">
         <v>2.0</v>
@@ -2362,12 +2362,12 @@
         <v>-22.973465453949366</v>
       </c>
       <c r="J70" t="n">
-        <v>1226.1701482587691</v>
+        <v>1226.8215173584645</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.701289230825E12</v>
+        <v>1.698370545519E14</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>14.820000000000038</v>
       </c>
       <c r="E71" t="n">
-        <v>8.453812980666585</v>
+        <v>6.06700970376564</v>
       </c>
       <c r="F71" t="n">
         <v>2.0</v>
@@ -2394,12 +2394,12 @@
         <v>-22.973512947561186</v>
       </c>
       <c r="J71" t="n">
-        <v>1233.32410762596</v>
+        <v>1233.9754593371601</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.70128923341E12</v>
+        <v>1.698385841611E14</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2411,7 +2411,7 @@
         <v>21.047688</v>
       </c>
       <c r="E72" t="n">
-        <v>6.384875413047949</v>
+        <v>7.382324837274907</v>
       </c>
       <c r="F72" t="n">
         <v>2.0</v>
@@ -2426,12 +2426,12 @@
         <v>-22.97425221304825</v>
       </c>
       <c r="J72" t="n">
-        <v>1340.232144691843</v>
+        <v>1340.8834964030425</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.701289236776E12</v>
+        <v>1.698405365619E14</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2443,7 +2443,7 @@
         <v>21.047688</v>
       </c>
       <c r="E73" t="n">
-        <v>6.52883307659587</v>
+        <v>5.671459740645454</v>
       </c>
       <c r="F73" t="n">
         <v>2.0</v>
@@ -2458,12 +2458,12 @@
         <v>-22.975360668505594</v>
       </c>
       <c r="J73" t="n">
-        <v>1487.8261085395945</v>
+        <v>1488.4773919835038</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.701289238317E12</v>
+        <v>1.698414197266E14</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2475,7 +2475,7 @@
         <v>21.047688</v>
       </c>
       <c r="E74" t="n">
-        <v>6.128992791480422</v>
+        <v>8.880268752080308</v>
       </c>
       <c r="F74" t="n">
         <v>2.0</v>
@@ -2490,12 +2490,12 @@
         <v>-22.975880823883266</v>
       </c>
       <c r="J74" t="n">
-        <v>1555.2503389752926</v>
+        <v>1555.9016224192019</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.701289240856E12</v>
+        <v>1.698428622026E14</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2507,7 +2507,7 @@
         <v>8.791675999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>6.775589665259419</v>
+        <v>5.607802221620143</v>
       </c>
       <c r="F75" t="n">
         <v>2.0</v>
@@ -2522,12 +2522,12 @@
         <v>-22.976401618295483</v>
       </c>
       <c r="J75" t="n">
-        <v>1629.3198595544702</v>
+        <v>1629.97114299838</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.701289244065E12</v>
+        <v>1.698447299474E14</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>24.057593999999998</v>
       </c>
       <c r="E76" t="n">
-        <v>6.708164147416548</v>
+        <v>5.356485192116167</v>
       </c>
       <c r="F76" t="n">
         <v>2.0</v>
@@ -2554,12 +2554,12 @@
         <v>-22.97630278171148</v>
       </c>
       <c r="J76" t="n">
-        <v>1744.047834156171</v>
+        <v>1744.6991176000806</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.701289249958E12</v>
+        <v>1.698481129406E14</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2571,7 +2571,7 @@
         <v>10.919999999999993</v>
       </c>
       <c r="E77" t="n">
-        <v>8.943749405723295</v>
+        <v>7.258830235744744</v>
       </c>
       <c r="F77" t="n">
         <v>2.0</v>
@@ -2586,12 +2586,12 @@
         <v>-22.976223292088612</v>
       </c>
       <c r="J77" t="n">
-        <v>1839.2099126647197</v>
+        <v>1839.8611961086297</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.701289254485E12</v>
+        <v>1.698497588367E14</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -2600,30 +2600,30 @@
         <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25600854466017336</v>
+        <v>0.24776501540560275</v>
       </c>
       <c r="E78" t="n">
-        <v>6.690949890486412</v>
+        <v>5.945044551743349</v>
       </c>
       <c r="F78" t="n">
         <v>2.0</v>
       </c>
       <c r="G78" t="n">
-        <v>2762.861516170215</v>
+        <v>2753.073360823088</v>
       </c>
       <c r="H78" t="n">
-        <v>-43.18408265891022</v>
+        <v>-43.184082664813005</v>
       </c>
       <c r="I78" t="n">
-        <v>-22.97221543292583</v>
+        <v>-22.97221543796922</v>
       </c>
       <c r="J78" t="n">
-        <v>2.4316963289617353</v>
+        <v>2.4308719005002333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.701289259988E12</v>
+        <v>1.698528358552E14</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>20.029032</v>
       </c>
       <c r="E79" t="n">
-        <v>7.914917743845081</v>
+        <v>7.446915962789062</v>
       </c>
       <c r="F79" t="n">
         <v>2.0</v>
@@ -2644,18 +2644,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H79" t="n">
-        <v>-43.18303630157604</v>
+        <v>-43.18303675640886</v>
       </c>
       <c r="I79" t="n">
-        <v>-22.971321408203636</v>
+        <v>-22.9713217964948</v>
       </c>
       <c r="J79" t="n">
-        <v>148.57492043288906</v>
+        <v>148.51141907124926</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.701289261149E12</v>
+        <v>1.698534982282E14</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -2667,7 +2667,7 @@
         <v>20.029032</v>
       </c>
       <c r="E80" t="n">
-        <v>6.221936004937501</v>
+        <v>8.577990343221897</v>
       </c>
       <c r="F80" t="n">
         <v>2.0</v>
@@ -2676,18 +2676,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H80" t="n">
-        <v>-43.18267309193666</v>
+        <v>-43.182673590956234</v>
       </c>
       <c r="I80" t="n">
-        <v>-22.97104539913773</v>
+        <v>-22.971045737938518</v>
       </c>
       <c r="J80" t="n">
-        <v>196.82296914413533</v>
+        <v>196.7592778416529</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.701289269385E12</v>
+        <v>1.698582604625E14</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -2699,7 +2699,7 @@
         <v>6.915737999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>5.9743829510019</v>
+        <v>9.270533683060808</v>
       </c>
       <c r="F81" t="n">
         <v>2.0</v>
@@ -2714,12 +2714,12 @@
         <v>-22.96943697756417</v>
       </c>
       <c r="J81" t="n">
-        <v>500.910444769034</v>
+        <v>500.9085216384619</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.701289272035E12</v>
+        <v>1.698609002605E14</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -2728,30 +2728,30 @@
         <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>3.799949882352929</v>
+        <v>2.8599999999999994</v>
       </c>
       <c r="E82" t="n">
-        <v>8.884823007047478</v>
+        <v>7.68242131565432</v>
       </c>
       <c r="F82" t="n">
         <v>2.0</v>
       </c>
       <c r="G82" t="n">
-        <v>4820.382435254479</v>
+        <v>4256.164415555553</v>
       </c>
       <c r="H82" t="n">
-        <v>-43.18058195948452</v>
+        <v>-43.18058150627943</v>
       </c>
       <c r="I82" t="n">
-        <v>-22.969450748618417</v>
+        <v>-22.969450466705744</v>
       </c>
       <c r="J82" t="n">
-        <v>534.8571130637837</v>
+        <v>534.7928824109684</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.701289276244E12</v>
+        <v>1.698633966121E14</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -2763,7 +2763,7 @@
         <v>20.029032</v>
       </c>
       <c r="E83" t="n">
-        <v>8.551130730850087</v>
+        <v>6.575326056543734</v>
       </c>
       <c r="F83" t="n">
         <v>2.0</v>
@@ -2772,18 +2772,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H83" t="n">
-        <v>-43.181568128184715</v>
+        <v>-43.18156785491092</v>
       </c>
       <c r="I83" t="n">
-        <v>-22.970071580459525</v>
+        <v>-22.970071397654987</v>
       </c>
       <c r="J83" t="n">
-        <v>657.1722811091736</v>
+        <v>657.1294645340843</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.701289278744E12</v>
+        <v>1.698647834148E14</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -2795,7 +2795,7 @@
         <v>20.029032</v>
       </c>
       <c r="E84" t="n">
-        <v>5.868206144132216</v>
+        <v>7.573524106665834</v>
       </c>
       <c r="F84" t="n">
         <v>2.0</v>
@@ -2804,18 +2804,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H84" t="n">
-        <v>-43.182390382624035</v>
+        <v>-43.182390111066624</v>
       </c>
       <c r="I84" t="n">
-        <v>-22.97062275275546</v>
+        <v>-22.970622567840017</v>
       </c>
       <c r="J84" t="n">
-        <v>761.3000519892527</v>
+        <v>761.2572384096378</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.701289281118E12</v>
+        <v>1.698661459935E14</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -2827,7 +2827,7 @@
         <v>20.029032</v>
       </c>
       <c r="E85" t="n">
-        <v>9.351122858697373</v>
+        <v>7.870570269394982</v>
       </c>
       <c r="F85" t="n">
         <v>2.0</v>
@@ -2836,18 +2836,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H85" t="n">
-        <v>-43.183154033930194</v>
+        <v>-43.18315378526554</v>
       </c>
       <c r="I85" t="n">
-        <v>-22.971178941995124</v>
+        <v>-22.971178731085015</v>
       </c>
       <c r="J85" t="n">
-        <v>861.0983144931117</v>
+        <v>861.0553499968161</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.701289281456E12</v>
+        <v>1.698663503435E14</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -2859,7 +2859,7 @@
         <v>20.029032</v>
       </c>
       <c r="E86" t="n">
-        <v>7.721205606800375</v>
+        <v>7.870570269394982</v>
       </c>
       <c r="F86" t="n">
         <v>2.0</v>
@@ -2868,18 +2868,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H86" t="n">
-        <v>-43.18325474106719</v>
+        <v>-43.1832544926851</v>
       </c>
       <c r="I86" t="n">
-        <v>-22.971264411960707</v>
+        <v>-22.97126420121286</v>
       </c>
       <c r="J86" t="n">
-        <v>875.1204922283807</v>
+        <v>875.0775611784034</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.701289284968E12</v>
+        <v>1.698683101259E14</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -2891,7 +2891,7 @@
         <v>20.029032</v>
       </c>
       <c r="E87" t="n">
-        <v>5.87563402022907</v>
+        <v>5.826317579690576</v>
       </c>
       <c r="F87" t="n">
         <v>2.0</v>
@@ -2900,18 +2900,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H87" t="n">
-        <v>-43.18428897775396</v>
+        <v>-43.184288737369826</v>
       </c>
       <c r="I87" t="n">
-        <v>-22.972143484679144</v>
+        <v>-22.972143266099785</v>
       </c>
       <c r="J87" t="n">
-        <v>1019.2256043516771</v>
+        <v>1019.1826464792593</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.70128928561E12</v>
+        <v>1.698686854652E14</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -2923,7 +2923,7 @@
         <v>20.029032</v>
       </c>
       <c r="E88" t="n">
-        <v>8.658296197699244</v>
+        <v>6.0340335716247235</v>
       </c>
       <c r="F88" t="n">
         <v>2.0</v>
@@ -2932,18 +2932,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H88" t="n">
-        <v>-43.18450180423587</v>
+        <v>-43.18450157858778</v>
       </c>
       <c r="I88" t="n">
-        <v>-22.97230378907029</v>
+        <v>-22.97230355767393</v>
       </c>
       <c r="J88" t="n">
-        <v>1048.8639217908772</v>
+        <v>1048.822022938453</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.701289289906E12</v>
+        <v>1.698711368393E14</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>20.029032</v>
       </c>
       <c r="E89" t="n">
-        <v>7.374021028169652</v>
+        <v>5.513459709050861</v>
       </c>
       <c r="F89" t="n">
         <v>2.0</v>
@@ -2964,18 +2964,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H89" t="n">
-        <v>-43.18567492867002</v>
+        <v>-43.18566153912728</v>
       </c>
       <c r="I89" t="n">
-        <v>-22.97346400953014</v>
+        <v>-22.973450540807015</v>
       </c>
       <c r="J89" t="n">
-        <v>1226.869774818169</v>
+        <v>1224.8322069948695</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.701289290121E12</v>
+        <v>1.698712657776E14</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -2987,7 +2987,7 @@
         <v>20.029032</v>
       </c>
       <c r="E90" t="n">
-        <v>7.374021028169652</v>
+        <v>5.513459709050861</v>
       </c>
       <c r="F90" t="n">
         <v>2.0</v>
@@ -2996,18 +2996,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H90" t="n">
-        <v>-43.1857277410851</v>
+        <v>-43.18572751340823</v>
       </c>
       <c r="I90" t="n">
-        <v>-22.973517229968042</v>
+        <v>-22.973517000241593</v>
       </c>
       <c r="J90" t="n">
-        <v>1234.8855936520022</v>
+        <v>1234.84371547568</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.70128929272E12</v>
+        <v>1.698727547267E14</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3019,7 +3019,7 @@
         <v>20.029032</v>
       </c>
       <c r="E91" t="n">
-        <v>7.948652437659008</v>
+        <v>9.203956424593919</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -3028,18 +3028,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H91" t="n">
-        <v>-43.18639218628266</v>
+        <v>-43.1863919911799</v>
       </c>
       <c r="I91" t="n">
-        <v>-22.97425433443749</v>
+        <v>-22.97425408027736</v>
       </c>
       <c r="J91" t="n">
-        <v>1341.4366606059878</v>
+        <v>1341.3953156821249</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.701289296358E12</v>
+        <v>1.698747984984E14</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>20.029032</v>
       </c>
       <c r="E92" t="n">
-        <v>6.525479891386162</v>
+        <v>5.635727391235809</v>
       </c>
       <c r="F92" t="n">
         <v>2.0</v>
@@ -3060,18 +3060,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H92" t="n">
-        <v>-43.18717908428183</v>
+        <v>-43.187178912876966</v>
       </c>
       <c r="I92" t="n">
-        <v>-22.975354213363975</v>
+        <v>-22.97535394550291</v>
       </c>
       <c r="J92" t="n">
-        <v>1487.9086079308122</v>
+        <v>1487.867291418007</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.701289298138E12</v>
+        <v>1.698757597345E14</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3083,7 +3083,7 @@
         <v>20.029032</v>
       </c>
       <c r="E93" t="n">
-        <v>8.554629810683775</v>
+        <v>9.256631266596802</v>
       </c>
       <c r="F93" t="n">
         <v>2.0</v>
@@ -3092,18 +3092,18 @@
         <v>3175.077984649861</v>
       </c>
       <c r="H93" t="n">
-        <v>-43.18752122091369</v>
+        <v>-43.18752105564882</v>
       </c>
       <c r="I93" t="n">
-        <v>-22.97588014020261</v>
+        <v>-22.975879869006043</v>
       </c>
       <c r="J93" t="n">
-        <v>1556.0788390540783</v>
+        <v>1556.0375087916007</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.70128930072E12</v>
+        <v>1.698772668494E14</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3115,7 +3115,7 @@
         <v>8.378764</v>
       </c>
       <c r="E94" t="n">
-        <v>5.929122735424395</v>
+        <v>5.887244199279445</v>
       </c>
       <c r="F94" t="n">
         <v>2.0</v>
@@ -3130,12 +3130,12 @@
         <v>-22.976402726277215</v>
       </c>
       <c r="J94" t="n">
-        <v>1629.6497501951656</v>
+        <v>1629.6378104523442</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.701289303984E12</v>
+        <v>1.698792230586E14</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3147,7 +3147,7 @@
         <v>22.893265999999997</v>
       </c>
       <c r="E95" t="n">
-        <v>5.270207307710479</v>
+        <v>6.946721564745749</v>
       </c>
       <c r="F95" t="n">
         <v>2.0</v>
@@ -3162,12 +3162,12 @@
         <v>-22.976302295525173</v>
       </c>
       <c r="J95" t="n">
-        <v>1745.5373138372681</v>
+        <v>1745.5253740944468</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.701289307298E12</v>
+        <v>1.698811279617E14</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3179,7 +3179,7 @@
         <v>13.576264599999986</v>
       </c>
       <c r="E96" t="n">
-        <v>8.192711580901648</v>
+        <v>9.164820361169287</v>
       </c>
       <c r="F96" t="n">
         <v>2.0</v>
@@ -3194,12 +3194,12 @@
         <v>-22.97622277606782</v>
       </c>
       <c r="J96" t="n">
-        <v>1840.7345899988647</v>
+        <v>1840.7226502560432</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.701289311055E12</v>
+        <v>1.698830576196E14</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3208,30 +3208,30 @@
         <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2487178191994317</v>
+        <v>0.25073545590136204</v>
       </c>
       <c r="E97" t="n">
-        <v>7.933334116341655</v>
+        <v>7.732348379685471</v>
       </c>
       <c r="F97" t="n">
         <v>2.0</v>
       </c>
       <c r="G97" t="n">
-        <v>2754.186533544374</v>
+        <v>2756.559433521535</v>
       </c>
       <c r="H97" t="n">
-        <v>-43.18408266413075</v>
+        <v>-43.18408266268602</v>
       </c>
       <c r="I97" t="n">
-        <v>-22.972215437386293</v>
+        <v>-22.972215436151902</v>
       </c>
       <c r="J97" t="n">
-        <v>2.3145182225630356</v>
+        <v>2.3147200044109</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.701289316961E12</v>
+        <v>1.698866723756E14</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3240,30 +3240,30 @@
         <v>16</v>
       </c>
       <c r="D98" t="n">
-        <v>11.199842996875905</v>
+        <v>11.27807638894761</v>
       </c>
       <c r="E98" t="n">
-        <v>6.081858824998521</v>
+        <v>9.298542723590042</v>
       </c>
       <c r="F98" t="n">
         <v>2.0</v>
       </c>
       <c r="G98" t="n">
-        <v>5754.336519507996</v>
+        <v>7084.930881342023</v>
       </c>
       <c r="H98" t="n">
-        <v>-43.18305213879763</v>
+        <v>-43.18304775978857</v>
       </c>
       <c r="I98" t="n">
-        <v>-22.971334928453135</v>
+        <v>-22.97133119008939</v>
       </c>
       <c r="J98" t="n">
-        <v>146.2473669839568</v>
+        <v>146.85873657351215</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.701289318666E12</v>
+        <v>1.698875743059E14</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3275,7 +3275,7 @@
         <v>16.15464</v>
       </c>
       <c r="E99" t="n">
-        <v>7.005424198161219</v>
+        <v>9.298542723590042</v>
       </c>
       <c r="F99" t="n">
         <v>2.0</v>
@@ -3284,18 +3284,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H99" t="n">
-        <v>-43.18267646898771</v>
+        <v>-43.182678831542034</v>
       </c>
       <c r="I99" t="n">
-        <v>-22.971047691928646</v>
+        <v>-22.971049295944404</v>
       </c>
       <c r="J99" t="n">
-        <v>196.27771111845797</v>
+        <v>195.9765829248356</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.701289328168E12</v>
+        <v>1.698932921492E14</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3307,7 +3307,7 @@
         <v>5.628259999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>9.54588561107045</v>
+        <v>8.49437730558257</v>
       </c>
       <c r="F100" t="n">
         <v>2.0</v>
@@ -3316,18 +3316,18 @@
         <v>5957.581786315545</v>
       </c>
       <c r="H100" t="n">
-        <v>-43.180321340727794</v>
+        <v>-43.180323220041366</v>
       </c>
       <c r="I100" t="n">
-        <v>-22.969439325986393</v>
+        <v>-22.96943689594015</v>
       </c>
       <c r="J100" t="n">
-        <v>500.4740563981752</v>
+        <v>500.80834472331463</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.701289330678E12</v>
+        <v>1.698946710246E14</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3336,30 +3336,30 @@
         <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>10.961219999999996</v>
+        <v>10.701219999999996</v>
       </c>
       <c r="E101" t="n">
-        <v>9.092716573827463</v>
+        <v>5.416342274435554</v>
       </c>
       <c r="F101" t="n">
         <v>2.0</v>
       </c>
       <c r="G101" t="n">
-        <v>9574.452594746153</v>
+        <v>9387.763888039486</v>
       </c>
       <c r="H101" t="n">
-        <v>-43.18058977624469</v>
+        <v>-43.18058325902852</v>
       </c>
       <c r="I101" t="n">
-        <v>-22.969455610972798</v>
+        <v>-22.969451556989576</v>
       </c>
       <c r="J101" t="n">
-        <v>535.7223371038885</v>
+        <v>534.9283247111479</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.701289334254E12</v>
+        <v>1.698968256961E14</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3371,7 +3371,7 @@
         <v>16.15464</v>
       </c>
       <c r="E102" t="n">
-        <v>7.243753995308312</v>
+        <v>7.117768049292024</v>
       </c>
       <c r="F102" t="n">
         <v>2.0</v>
@@ -3380,18 +3380,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H102" t="n">
-        <v>-43.181565258847016</v>
+        <v>-43.18156755902611</v>
       </c>
       <c r="I102" t="n">
-        <v>-22.97006966103674</v>
+        <v>-22.970071199724977</v>
       </c>
       <c r="J102" t="n">
-        <v>656.7086231010892</v>
+        <v>657.0109171043368</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.701289337304E12</v>
+        <v>1.698986157912E14</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3403,7 +3403,7 @@
         <v>16.15464</v>
       </c>
       <c r="E103" t="n">
-        <v>8.391437457543395</v>
+        <v>8.865687078424155</v>
       </c>
       <c r="F103" t="n">
         <v>2.0</v>
@@ -3412,18 +3412,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H103" t="n">
-        <v>-43.18238155259344</v>
+        <v>-43.18238383832553</v>
       </c>
       <c r="I103" t="n">
-        <v>-22.970616739997407</v>
+        <v>-22.970618296453395</v>
       </c>
       <c r="J103" t="n">
-        <v>760.0751269975652</v>
+        <v>760.3773927962765</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.701289340292E12</v>
+        <v>1.699003150778E14</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3435,7 +3435,7 @@
         <v>16.15464</v>
       </c>
       <c r="E104" t="n">
-        <v>7.79958584472863</v>
+        <v>6.506930399133097</v>
       </c>
       <c r="F104" t="n">
         <v>2.0</v>
@@ -3444,18 +3444,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H104" t="n">
-        <v>-43.18315766380611</v>
+        <v>-43.183136521532475</v>
       </c>
       <c r="I104" t="n">
-        <v>-22.971182020750106</v>
+        <v>-22.971164088489683</v>
       </c>
       <c r="J104" t="n">
-        <v>861.5041484636713</v>
+        <v>858.5723248133824</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.701289340667E12</v>
+        <v>1.699005685562E14</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>16.15464</v>
       </c>
       <c r="E105" t="n">
-        <v>7.16526405347452</v>
+        <v>6.506930399133097</v>
       </c>
       <c r="F105" t="n">
         <v>2.0</v>
@@ -3476,18 +3476,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H105" t="n">
-        <v>-43.183250489473586</v>
+        <v>-43.183252580136106</v>
       </c>
       <c r="I105" t="n">
-        <v>-22.971260804558057</v>
+        <v>-22.971262578448563</v>
       </c>
       <c r="J105" t="n">
-        <v>874.4291470635233</v>
+        <v>874.7313361500001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.701289344754E12</v>
+        <v>1.699029559378E14</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3499,7 +3499,7 @@
         <v>16.15464</v>
       </c>
       <c r="E106" t="n">
-        <v>6.718436238963134</v>
+        <v>9.549595565748517</v>
       </c>
       <c r="F106" t="n">
         <v>2.0</v>
@@ -3508,18 +3508,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H106" t="n">
-        <v>-43.18428185467051</v>
+        <v>-43.18428387801325</v>
       </c>
       <c r="I106" t="n">
-        <v>-22.972137007716604</v>
+        <v>-22.972138847525898</v>
       </c>
       <c r="J106" t="n">
-        <v>1018.1011696821107</v>
+        <v>1018.4035328149084</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.701289345628E12</v>
+        <v>1.69903405231E14</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3531,7 +3531,7 @@
         <v>16.15464</v>
       </c>
       <c r="E107" t="n">
-        <v>9.554456918355871</v>
+        <v>9.549595565748517</v>
       </c>
       <c r="F107" t="n">
         <v>2.0</v>
@@ -3540,18 +3540,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H107" t="n">
-        <v>-43.18450188976161</v>
+        <v>-43.18449324674977</v>
       </c>
       <c r="I107" t="n">
-        <v>-22.97230387677475</v>
+        <v>-22.972295013586766</v>
       </c>
       <c r="J107" t="n">
-        <v>1048.9504986999514</v>
+        <v>1047.6803306119143</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.701289351299E12</v>
+        <v>1.699064603035E14</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3563,7 +3563,7 @@
         <v>16.15464</v>
       </c>
       <c r="E108" t="n">
-        <v>6.677457719048505</v>
+        <v>9.30277441402395</v>
       </c>
       <c r="F108" t="n">
         <v>2.0</v>
@@ -3572,18 +3572,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H108" t="n">
-        <v>-43.18567389626018</v>
+        <v>-43.18567581255621</v>
       </c>
       <c r="I108" t="n">
-        <v>-22.973462966029505</v>
+        <v>-22.97346490291161</v>
       </c>
       <c r="J108" t="n">
-        <v>1226.9706833555174</v>
+        <v>1227.316319047158</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.701289351657E12</v>
+        <v>1.699066109358E14</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3595,7 +3595,7 @@
         <v>16.15464</v>
       </c>
       <c r="E109" t="n">
-        <v>9.183048365879932</v>
+        <v>9.30277441402395</v>
       </c>
       <c r="F109" t="n">
         <v>2.0</v>
@@ -3604,18 +3604,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H109" t="n">
-        <v>-43.18572714128016</v>
+        <v>-43.18572905766435</v>
       </c>
       <c r="I109" t="n">
-        <v>-22.97351662476358</v>
+        <v>-22.973518558399284</v>
       </c>
       <c r="J109" t="n">
-        <v>1235.0523763211527</v>
+        <v>1235.3977413602674</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.701289355519E12</v>
+        <v>1.69908437952E14</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -3627,7 +3627,7 @@
         <v>16.15464</v>
       </c>
       <c r="E110" t="n">
-        <v>8.493901145219908</v>
+        <v>5.442863633983729</v>
       </c>
       <c r="F110" t="n">
         <v>2.0</v>
@@ -3636,18 +3636,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H110" t="n">
-        <v>-43.18638519071277</v>
+        <v>-43.18638683291667</v>
       </c>
       <c r="I110" t="n">
-        <v>-22.97424522131697</v>
+        <v>-22.974247360614015</v>
       </c>
       <c r="J110" t="n">
-        <v>1340.4549034695176</v>
+        <v>1340.8006938855883</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.701289359997E12</v>
+        <v>1.699109880225E14</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -3659,7 +3659,7 @@
         <v>16.15464</v>
       </c>
       <c r="E111" t="n">
-        <v>7.894974390560785</v>
+        <v>9.19516309400608</v>
       </c>
       <c r="F111" t="n">
         <v>2.0</v>
@@ -3668,18 +3668,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H111" t="n">
-        <v>-43.18717688077788</v>
+        <v>-43.1871783235137</v>
       </c>
       <c r="I111" t="n">
-        <v>-22.975350769862494</v>
+        <v>-22.975353024481972</v>
       </c>
       <c r="J111" t="n">
-        <v>1487.7234304564242</v>
+        <v>1488.068686354725</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.701289362609E12</v>
+        <v>1.6991216111E14</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -3691,7 +3691,7 @@
         <v>16.15464</v>
       </c>
       <c r="E112" t="n">
-        <v>7.14903355687205</v>
+        <v>7.741227427493715</v>
       </c>
       <c r="F112" t="n">
         <v>2.0</v>
@@ -3700,18 +3700,18 @@
         <v>2577.2909714295824</v>
       </c>
       <c r="H112" t="n">
-        <v>-43.187517905177515</v>
+        <v>-43.187519296232175</v>
       </c>
       <c r="I112" t="n">
-        <v>-22.97587469914136</v>
+        <v>-22.975876981836137</v>
       </c>
       <c r="J112" t="n">
-        <v>1555.6443510871964</v>
+        <v>1555.9896275074132</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.701289366442E12</v>
+        <v>1.699138800512E14</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>6.808279999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>8.422648971644803</v>
+        <v>7.073051573028405</v>
       </c>
       <c r="F113" t="n">
         <v>2.0</v>
@@ -3732,18 +3732,18 @@
         <v>6719.414701872323</v>
       </c>
       <c r="H113" t="n">
-        <v>-43.18791805891381</v>
+        <v>-43.187918251017045</v>
       </c>
       <c r="I113" t="n">
-        <v>-22.97640195863784</v>
+        <v>-22.97640192006041</v>
       </c>
       <c r="J113" t="n">
-        <v>1630.3246695054777</v>
+        <v>1630.4021420688575</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.701289370638E12</v>
+        <v>1.699159756505E14</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -3755,7 +3755,7 @@
         <v>18.46482</v>
       </c>
       <c r="E114" t="n">
-        <v>7.657232561984587</v>
+        <v>8.72670031000185</v>
       </c>
       <c r="F114" t="n">
         <v>2.0</v>
@@ -3764,18 +3764,18 @@
         <v>2905.366011636562</v>
       </c>
       <c r="H114" t="n">
-        <v>-43.1890339473117</v>
+        <v>-43.18903414308522</v>
       </c>
       <c r="I114" t="n">
-        <v>-22.9763028797789</v>
+        <v>-22.97630286298169</v>
       </c>
       <c r="J114" t="n">
-        <v>1745.1126157671397</v>
+        <v>1745.1899828151552</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.701289376709E12</v>
+        <v>1.699190257227E14</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -3787,7 +3787,7 @@
         <v>10.919999999999993</v>
       </c>
       <c r="E115" t="n">
-        <v>5.295667497035371</v>
+        <v>6.552067582757411</v>
       </c>
       <c r="F115" t="n">
         <v>2.0</v>
@@ -3802,12 +3802,12 @@
         <v>-22.976223292088612</v>
       </c>
       <c r="J115" t="n">
-        <v>1840.3922132731</v>
+        <v>1840.4494514262915</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.701289380441E12</v>
+        <v>1.699209548071E14</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3816,30 +3816,30 @@
         <v>17</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2589154133340344</v>
+        <v>0.2551087826807052</v>
       </c>
       <c r="E116" t="n">
-        <v>8.951348332710412</v>
+        <v>9.569875904003574</v>
       </c>
       <c r="F116" t="n">
         <v>2.0</v>
       </c>
       <c r="G116" t="n">
-        <v>2766.397801182978</v>
+        <v>2761.7758860659246</v>
       </c>
       <c r="H116" t="n">
-        <v>-43.18408265682876</v>
+        <v>-43.1840826595545</v>
       </c>
       <c r="I116" t="n">
-        <v>-22.972215431147408</v>
+        <v>-22.972215433476304</v>
       </c>
       <c r="J116" t="n">
-        <v>1.8726320553443576</v>
+        <v>1.87225135728566</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.701289386645E12</v>
+        <v>1.699241196171E14</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -3851,7 +3851,7 @@
         <v>20.330352</v>
       </c>
       <c r="E117" t="n">
-        <v>8.138947342645201</v>
+        <v>9.439185264751258</v>
       </c>
       <c r="F117" t="n">
         <v>2.0</v>
@@ -3860,18 +3860,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H117" t="n">
-        <v>-43.1830579725762</v>
+        <v>-43.183043617572665</v>
       </c>
       <c r="I117" t="n">
-        <v>-22.971339908754853</v>
+        <v>-22.97132765387616</v>
       </c>
       <c r="J117" t="n">
-        <v>144.98997308656737</v>
+        <v>146.99414489286906</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.701289388103E12</v>
+        <v>1.699248482823E14</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -3883,7 +3883,7 @@
         <v>20.330352</v>
       </c>
       <c r="E118" t="n">
-        <v>6.944854340092245</v>
+        <v>8.169368455602124</v>
       </c>
       <c r="F118" t="n">
         <v>2.0</v>
@@ -3892,18 +3892,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H118" t="n">
-        <v>-43.18267519995911</v>
+        <v>-43.18267543338499</v>
       </c>
       <c r="I118" t="n">
-        <v>-22.971046830343433</v>
+        <v>-22.97104698882394</v>
       </c>
       <c r="J118" t="n">
-        <v>195.99491467585864</v>
+        <v>195.96523899954784</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.701289397561E12</v>
+        <v>1.699300695112E14</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -3912,30 +3912,30 @@
         <v>17</v>
       </c>
       <c r="D119" t="n">
-        <v>6.755868</v>
+        <v>7.015868</v>
       </c>
       <c r="E119" t="n">
-        <v>7.780618661649274</v>
+        <v>6.780687466624079</v>
       </c>
       <c r="F119" t="n">
         <v>2.0</v>
       </c>
       <c r="G119" t="n">
-        <v>2106.4361058246004</v>
+        <v>6855.696824867263</v>
       </c>
       <c r="H119" t="n">
-        <v>-43.18032003465359</v>
+        <v>-43.18032400739715</v>
       </c>
       <c r="I119" t="n">
-        <v>-22.969441014805533</v>
+        <v>-22.969435877849833</v>
       </c>
       <c r="J119" t="n">
-        <v>499.77021834760325</v>
+        <v>500.48738502282475</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.701289399954E12</v>
+        <v>1.699312855271E14</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -3944,30 +3944,30 @@
         <v>17</v>
       </c>
       <c r="D120" t="n">
-        <v>11.603195999999997</v>
+        <v>11.863195999999997</v>
       </c>
       <c r="E120" t="n">
-        <v>9.086467168566209</v>
+        <v>7.397930923608856</v>
       </c>
       <c r="F120" t="n">
         <v>2.0</v>
       </c>
       <c r="G120" t="n">
-        <v>10039.958379325379</v>
+        <v>10230.328952064046</v>
       </c>
       <c r="H120" t="n">
-        <v>-43.180587143853415</v>
+        <v>-43.18059674725463</v>
       </c>
       <c r="I120" t="n">
-        <v>-22.969453973514447</v>
+        <v>-22.96945994723488</v>
       </c>
       <c r="J120" t="n">
-        <v>534.8960090790123</v>
+        <v>536.1139351606232</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.701289403757E12</v>
+        <v>1.699331818338E14</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -3979,7 +3979,7 @@
         <v>20.330352</v>
       </c>
       <c r="E121" t="n">
-        <v>6.509201974916563</v>
+        <v>6.453782913113325</v>
       </c>
       <c r="F121" t="n">
         <v>2.0</v>
@@ -3994,12 +3994,12 @@
         <v>-22.97007281127681</v>
       </c>
       <c r="J121" t="n">
-        <v>656.803486040709</v>
+        <v>656.8348739366182</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.701289406556E12</v>
+        <v>1.69934597791E14</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4011,7 +4011,7 @@
         <v>20.330352</v>
       </c>
       <c r="E122" t="n">
-        <v>5.430405254572961</v>
+        <v>5.4576680291778255</v>
       </c>
       <c r="F122" t="n">
         <v>2.0</v>
@@ -4020,18 +4020,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H122" t="n">
-        <v>-43.18237258323945</v>
+        <v>-43.18238854988864</v>
       </c>
       <c r="I122" t="n">
-        <v>-22.970610632367904</v>
+        <v>-22.970621504764935</v>
       </c>
       <c r="J122" t="n">
-        <v>758.4319223783654</v>
+        <v>760.4964328690263</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.701289411804E12</v>
+        <v>1.69937075984E14</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4040,30 +4040,30 @@
         <v>17</v>
       </c>
       <c r="D123" t="n">
-        <v>13.23770172549017</v>
+        <v>13.617701725490162</v>
       </c>
       <c r="E123" t="n">
-        <v>8.150593116037951</v>
+        <v>7.676325076346551</v>
       </c>
       <c r="F123" t="n">
         <v>2.0</v>
       </c>
       <c r="G123" t="n">
-        <v>11254.37060316714</v>
+        <v>11542.713938328076</v>
       </c>
       <c r="H123" t="n">
-        <v>-43.183147329327724</v>
+        <v>-43.183148666371956</v>
       </c>
       <c r="I123" t="n">
-        <v>-22.97117325534668</v>
+        <v>-22.971174389388636</v>
       </c>
       <c r="J123" t="n">
-        <v>859.5646279372442</v>
+        <v>859.7819160245623</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.701289412369E12</v>
+        <v>1.699373522151E14</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4072,30 +4072,30 @@
         <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>15.577701725490169</v>
+        <v>15.95770172549016</v>
       </c>
       <c r="E124" t="n">
-        <v>8.149498551276242</v>
+        <v>7.676325076346551</v>
       </c>
       <c r="F124" t="n">
         <v>2.0</v>
       </c>
       <c r="G124" t="n">
-        <v>13065.961749158198</v>
+        <v>13368.265524319131</v>
       </c>
       <c r="H124" t="n">
-        <v>-43.1832413176529</v>
+        <v>-43.18324510988616</v>
       </c>
       <c r="I124" t="n">
-        <v>-22.97125302242898</v>
+        <v>-22.971256240072425</v>
       </c>
       <c r="J124" t="n">
-        <v>872.6512491421098</v>
+        <v>873.210382377186</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.701289416812E12</v>
+        <v>1.699396979641E14</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4107,7 +4107,7 @@
         <v>20.330352</v>
       </c>
       <c r="E125" t="n">
-        <v>7.468667764502593</v>
+        <v>6.287944517550921</v>
       </c>
       <c r="F125" t="n">
         <v>2.0</v>
@@ -4116,18 +4116,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H125" t="n">
-        <v>-43.184290772227996</v>
+        <v>-43.18428481719867</v>
       </c>
       <c r="I125" t="n">
-        <v>-22.972145116379966</v>
+        <v>-22.97213970151966</v>
       </c>
       <c r="J125" t="n">
-        <v>1018.8829859059088</v>
+        <v>1018.0575765313486</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.701289417634E12</v>
+        <v>1.699401016908E14</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4139,7 +4139,7 @@
         <v>20.330352</v>
       </c>
       <c r="E126" t="n">
-        <v>9.590439779832662</v>
+        <v>6.921880341043354</v>
       </c>
       <c r="F126" t="n">
         <v>2.0</v>
@@ -4148,18 +4148,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H126" t="n">
-        <v>-43.18450624163321</v>
+        <v>-43.184500651659306</v>
       </c>
       <c r="I126" t="n">
-        <v>-22.97230833950797</v>
+        <v>-22.972302607132445</v>
       </c>
       <c r="J126" t="n">
-        <v>1048.910407419629</v>
+        <v>1048.1108957907677</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.701289422975E12</v>
+        <v>1.699426389867E14</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4171,7 +4171,7 @@
         <v>20.330352</v>
       </c>
       <c r="E127" t="n">
-        <v>5.55418535227452</v>
+        <v>5.558987432113826</v>
       </c>
       <c r="F127" t="n">
         <v>2.0</v>
@@ -4180,18 +4180,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H127" t="n">
-        <v>-43.18568347864681</v>
+        <v>-43.18567783867347</v>
       </c>
       <c r="I127" t="n">
-        <v>-22.9734726513562</v>
+        <v>-22.9734669507947</v>
       </c>
       <c r="J127" t="n">
-        <v>1227.5219930781866</v>
+        <v>1226.7216990702516</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.701289423183E12</v>
+        <v>1.699427518894E14</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>20.330352</v>
       </c>
       <c r="E128" t="n">
-        <v>5.55418535227452</v>
+        <v>5.558987432113826</v>
       </c>
       <c r="F128" t="n">
         <v>2.0</v>
@@ -4212,18 +4212,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H128" t="n">
-        <v>-43.185723698454744</v>
+        <v>-43.18573144484516</v>
       </c>
       <c r="I128" t="n">
-        <v>-22.97351315094546</v>
+        <v>-22.97352096706976</v>
       </c>
       <c r="J128" t="n">
-        <v>1233.623978881664</v>
+        <v>1234.857675153353</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.701289426314E12</v>
+        <v>1.699442725134E14</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4235,7 +4235,7 @@
         <v>20.330352</v>
       </c>
       <c r="E129" t="n">
-        <v>8.57709037316826</v>
+        <v>7.9717686700242005</v>
       </c>
       <c r="F129" t="n">
         <v>2.0</v>
@@ -4244,18 +4244,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H129" t="n">
-        <v>-43.18638626169229</v>
+        <v>-43.186381428417064</v>
       </c>
       <c r="I129" t="n">
-        <v>-22.974246616480713</v>
+        <v>-22.974240320178858</v>
       </c>
       <c r="J129" t="n">
-        <v>1339.7394411813152</v>
+        <v>1338.9393918378523</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.701289430302E12</v>
+        <v>1.699463948617E14</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -4267,7 +4267,7 @@
         <v>20.330352</v>
       </c>
       <c r="E130" t="n">
-        <v>6.9749374666666135</v>
+        <v>6.3717900029364</v>
       </c>
       <c r="F130" t="n">
         <v>2.0</v>
@@ -4276,18 +4276,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H130" t="n">
-        <v>-43.18718478319709</v>
+        <v>-43.187180536989096</v>
       </c>
       <c r="I130" t="n">
-        <v>-22.975363119280903</v>
+        <v>-22.975356483566227</v>
       </c>
       <c r="J130" t="n">
-        <v>1488.4116789426153</v>
+        <v>1487.6126135663558</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.701289431977E12</v>
+        <v>1.699473435167E14</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -4299,7 +4299,7 @@
         <v>20.330352</v>
       </c>
       <c r="E131" t="n">
-        <v>8.884293597220868</v>
+        <v>6.1341319195927975</v>
       </c>
       <c r="F131" t="n">
         <v>2.0</v>
@@ -4308,18 +4308,18 @@
         <v>3231.4462679068693</v>
       </c>
       <c r="H131" t="n">
-        <v>-43.187521895274415</v>
+        <v>-43.18752751818268</v>
       </c>
       <c r="I131" t="n">
-        <v>-22.975881246815995</v>
+        <v>-22.97589047390363</v>
       </c>
       <c r="J131" t="n">
-        <v>1555.573606935296</v>
+        <v>1556.807322918329</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.701289434663E12</v>
+        <v>1.699489256425E14</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -4331,7 +4331,7 @@
         <v>8.500904</v>
       </c>
       <c r="E132" t="n">
-        <v>7.188746634512869</v>
+        <v>5.57176953805051</v>
       </c>
       <c r="F132" t="n">
         <v>2.0</v>
@@ -4340,18 +4340,18 @@
         <v>7850.359077704029</v>
       </c>
       <c r="H132" t="n">
-        <v>-43.18791910427581</v>
+        <v>-43.187915868369274</v>
       </c>
       <c r="I132" t="n">
-        <v>-22.976401748712284</v>
+        <v>-22.97640239853453</v>
       </c>
       <c r="J132" t="n">
-        <v>1629.5390076787446</v>
+        <v>1629.2233651844354</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.701289438272E12</v>
+        <v>1.699508394106E14</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -4363,7 +4363,7 @@
         <v>23.237676</v>
       </c>
       <c r="E133" t="n">
-        <v>8.932823256656974</v>
+        <v>7.8709703627737895</v>
       </c>
       <c r="F133" t="n">
         <v>2.0</v>
@@ -4372,18 +4372,18 @@
         <v>3848.552010387884</v>
       </c>
       <c r="H133" t="n">
-        <v>-43.189033832305135</v>
+        <v>-43.189030534574044</v>
       </c>
       <c r="I133" t="n">
-        <v>-22.976302889646366</v>
+        <v>-22.976303172589006</v>
       </c>
       <c r="J133" t="n">
-        <v>1744.2053177975388</v>
+        <v>1743.8886172035805</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.701289441904E12</v>
+        <v>1.699531396685E14</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4392,30 +4392,30 @@
         <v>17</v>
       </c>
       <c r="D134" t="n">
-        <v>13.679106360482663</v>
+        <v>12.274305846153835</v>
       </c>
       <c r="E134" t="n">
-        <v>9.133473091067692</v>
+        <v>6.8154113124125</v>
       </c>
       <c r="F134" t="n">
         <v>2.0</v>
       </c>
       <c r="G134" t="n">
-        <v>11589.520436608673</v>
+        <v>10533.507138589086</v>
       </c>
       <c r="H134" t="n">
-        <v>-43.18996804373703</v>
+        <v>-43.18996758361831</v>
       </c>
       <c r="I134" t="n">
-        <v>-22.976222655418308</v>
+        <v>-22.97622269493166</v>
       </c>
       <c r="J134" t="n">
-        <v>1840.2590067768956</v>
+        <v>1840.2340622264035</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.701289444691E12</v>
+        <v>1.699547555256E14</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4424,30 +4424,30 @@
         <v>18</v>
       </c>
       <c r="D135" t="n">
-        <v>0.25509835536032915</v>
+        <v>0.24954985742201097</v>
       </c>
       <c r="E135" t="n">
-        <v>9.096180566617122</v>
+        <v>8.973855840221624</v>
       </c>
       <c r="F135" t="n">
         <v>2.0</v>
       </c>
       <c r="G135" t="n">
-        <v>2761.763329538177</v>
+        <v>2755.162497027292</v>
       </c>
       <c r="H135" t="n">
-        <v>-43.184082659561966</v>
+        <v>-43.18408266353497</v>
       </c>
       <c r="I135" t="n">
-        <v>-22.97221543348268</v>
+        <v>-22.972215436877253</v>
       </c>
       <c r="J135" t="n">
-        <v>2.3496021274667553</v>
+        <v>2.3490472134163682</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.70128945047E12</v>
+        <v>1.699579883373E14</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4459,7 +4459,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E136" t="n">
-        <v>6.517503024947079</v>
+        <v>8.741358658595182</v>
       </c>
       <c r="F136" t="n">
         <v>2.0</v>
@@ -4468,18 +4468,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H136" t="n">
-        <v>-43.18304239758335</v>
+        <v>-43.18304265998542</v>
       </c>
       <c r="I136" t="n">
-        <v>-22.971326612370245</v>
+        <v>-22.971326836383113</v>
       </c>
       <c r="J136" t="n">
-        <v>147.64182596199797</v>
+        <v>147.6051907516051</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.701289451903E12</v>
+        <v>1.699588743148E14</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4491,7 +4491,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E137" t="n">
-        <v>6.354256255580001</v>
+        <v>6.092038879060179</v>
       </c>
       <c r="F137" t="n">
         <v>2.0</v>
@@ -4500,18 +4500,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H137" t="n">
-        <v>-43.18267854529755</v>
+        <v>-43.18267883319183</v>
       </c>
       <c r="I137" t="n">
-        <v>-22.97104910160362</v>
+        <v>-22.971049297064507</v>
       </c>
       <c r="J137" t="n">
-        <v>196.04707094388712</v>
+        <v>196.0104773870625</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.701289461953E12</v>
+        <v>1.699643819553E14</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4523,7 +4523,7 @@
         <v>5.98356</v>
       </c>
       <c r="E138" t="n">
-        <v>9.435531359459741</v>
+        <v>9.593157233198745</v>
       </c>
       <c r="F138" t="n">
         <v>2.0</v>
@@ -4532,18 +4532,18 @@
         <v>6184.666849869978</v>
       </c>
       <c r="H138" t="n">
-        <v>-43.18032192148149</v>
+        <v>-43.180321721157995</v>
       </c>
       <c r="I138" t="n">
-        <v>-22.969438575042876</v>
+        <v>-22.969438834071163</v>
       </c>
       <c r="J138" t="n">
-        <v>500.6125052758351</v>
+        <v>500.5790183672619</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.701289464583E12</v>
+        <v>1.699657866405E14</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -4555,7 +4555,7 @@
         <v>11.065319999999996</v>
       </c>
       <c r="E139" t="n">
-        <v>5.665534210382108</v>
+        <v>5.358076741315355</v>
       </c>
       <c r="F139" t="n">
         <v>2.0</v>
@@ -4564,18 +4564,18 @@
         <v>9649.497417836052</v>
       </c>
       <c r="H139" t="n">
-        <v>-43.18059025653124</v>
+        <v>-43.18059005964342</v>
       </c>
       <c r="I139" t="n">
-        <v>-22.969455909731284</v>
+        <v>-22.96945578725876</v>
       </c>
       <c r="J139" t="n">
-        <v>535.8198744013292</v>
+        <v>535.7966258047139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.701289468501E12</v>
+        <v>1.699679211986E14</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -4587,7 +4587,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E140" t="n">
-        <v>8.836905883258778</v>
+        <v>6.730722931872166</v>
       </c>
       <c r="F140" t="n">
         <v>2.0</v>
@@ -4596,18 +4596,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H140" t="n">
-        <v>-43.181574512280356</v>
+        <v>-43.18157432005941</v>
       </c>
       <c r="I140" t="n">
-        <v>-22.97007585105433</v>
+        <v>-22.970075722469517</v>
       </c>
       <c r="J140" t="n">
-        <v>657.9177463409661</v>
+        <v>657.8945001639498</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.701289471665E12</v>
+        <v>1.699697409048E14</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -4619,7 +4619,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E141" t="n">
-        <v>6.859352300035078</v>
+        <v>5.349169050925786</v>
       </c>
       <c r="F141" t="n">
         <v>2.0</v>
@@ -4628,18 +4628,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H141" t="n">
-        <v>-43.182390381489995</v>
+        <v>-43.18239019047636</v>
       </c>
       <c r="I141" t="n">
-        <v>-22.97062275198324</v>
+        <v>-22.970622621913613</v>
       </c>
       <c r="J141" t="n">
-        <v>761.2374854695047</v>
+        <v>761.2142414633984</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.701289474719E12</v>
+        <v>1.699713987668E14</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -4651,7 +4651,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E142" t="n">
-        <v>6.255496511847809</v>
+        <v>9.232005671134495</v>
       </c>
       <c r="F142" t="n">
         <v>2.0</v>
@@ -4660,18 +4660,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H142" t="n">
-        <v>-43.183152257389374</v>
+        <v>-43.18315208247852</v>
       </c>
       <c r="I142" t="n">
-        <v>-22.971177435184973</v>
+        <v>-22.97117728683068</v>
       </c>
       <c r="J142" t="n">
-        <v>860.7889045078194</v>
+        <v>860.7657284640711</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.701289475152E12</v>
+        <v>1.699716361397E14</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -4683,7 +4683,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E143" t="n">
-        <v>6.255496511847809</v>
+        <v>9.232005671134495</v>
       </c>
       <c r="F143" t="n">
         <v>2.0</v>
@@ -4692,18 +4692,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H143" t="n">
-        <v>-43.18325123355717</v>
+        <v>-43.18325105884507</v>
       </c>
       <c r="I143" t="n">
-        <v>-22.971261435899944</v>
+        <v>-22.97126128765979</v>
       </c>
       <c r="J143" t="n">
-        <v>874.570054294678</v>
+        <v>874.5469017519789</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.701289479627E12</v>
+        <v>1.699740189764E14</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -4715,7 +4715,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E144" t="n">
-        <v>7.688061247444978</v>
+        <v>8.852260545343198</v>
       </c>
       <c r="F144" t="n">
         <v>2.0</v>
@@ -4724,18 +4724,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H144" t="n">
-        <v>-43.18428885917143</v>
+        <v>-43.1842886900851</v>
       </c>
       <c r="I144" t="n">
-        <v>-22.972143376853005</v>
+        <v>-22.972143223104162</v>
       </c>
       <c r="J144" t="n">
-        <v>1019.1465643390007</v>
+        <v>1019.1234185173373</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.701289480535E12</v>
+        <v>1.699744922689E14</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -4747,7 +4747,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E145" t="n">
-        <v>8.912125195248644</v>
+        <v>8.099548000817649</v>
       </c>
       <c r="F145" t="n">
         <v>2.0</v>
@@ -4756,18 +4756,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H145" t="n">
-        <v>-43.184498544181764</v>
+        <v>-43.18449838546077</v>
       </c>
       <c r="I145" t="n">
-        <v>-22.97230044596803</v>
+        <v>-22.9723002832037</v>
       </c>
       <c r="J145" t="n">
-        <v>1048.4411052602643</v>
+        <v>1048.418744789646</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.701289486057E12</v>
+        <v>1.699774498795E14</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -4779,7 +4779,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E146" t="n">
-        <v>9.295573322618626</v>
+        <v>8.902258974222342</v>
       </c>
       <c r="F146" t="n">
         <v>2.0</v>
@@ -4788,18 +4788,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H146" t="n">
-        <v>-43.185656157168864</v>
+        <v>-43.185679051664145</v>
       </c>
       <c r="I146" t="n">
-        <v>-22.973487748726875</v>
+        <v>-22.973468176816084</v>
       </c>
       <c r="J146" t="n">
-        <v>1225.8529418292098</v>
+        <v>1227.714925853941</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.70128948628E12</v>
+        <v>1.699775640986E14</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
@@ -4811,7 +4811,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E147" t="n">
-        <v>9.295573322618626</v>
+        <v>8.902258974222342</v>
       </c>
       <c r="F147" t="n">
         <v>2.0</v>
@@ -4820,18 +4820,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H147" t="n">
-        <v>-43.185701483720365</v>
+        <v>-43.18572447589741</v>
       </c>
       <c r="I147" t="n">
-        <v>-22.973533522323155</v>
+        <v>-22.973513935386755</v>
       </c>
       <c r="J147" t="n">
-        <v>1232.7405196349325</v>
+        <v>1234.6080263615652</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.70128948962E12</v>
+        <v>1.699793386439E14</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -4843,7 +4843,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E148" t="n">
-        <v>5.2495303786716905</v>
+        <v>6.164600993991163</v>
       </c>
       <c r="F148" t="n">
         <v>2.0</v>
@@ -4852,18 +4852,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H148" t="n">
-        <v>-43.18639310247601</v>
+        <v>-43.186392965240614</v>
       </c>
       <c r="I148" t="n">
-        <v>-22.974255527961464</v>
+        <v>-22.974255349185086</v>
       </c>
       <c r="J148" t="n">
-        <v>1341.7016977060023</v>
+        <v>1341.7947931591607</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.701289493753E12</v>
+        <v>1.699816683245E14</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -4875,7 +4875,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E149" t="n">
-        <v>5.991397202206487</v>
+        <v>8.772078526331333</v>
       </c>
       <c r="F149" t="n">
         <v>2.0</v>
@@ -4884,18 +4884,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H149" t="n">
-        <v>-43.187180834547554</v>
+        <v>-43.18718071398127</v>
       </c>
       <c r="I149" t="n">
-        <v>-22.975356948572415</v>
+        <v>-22.975356760158792</v>
       </c>
       <c r="J149" t="n">
-        <v>1488.3641593445768</v>
+        <v>1488.4572843432913</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.701289495635E12</v>
+        <v>1.699827050713E14</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -4907,7 +4907,7 @@
         <v>17.223840000000003</v>
       </c>
       <c r="E150" t="n">
-        <v>9.504155488802514</v>
+        <v>7.084203150250766</v>
       </c>
       <c r="F150" t="n">
         <v>2.0</v>
@@ -4916,18 +4916,18 @@
         <v>2718.7151973351824</v>
       </c>
       <c r="H150" t="n">
-        <v>-43.1875184838882</v>
+        <v>-43.1875183676408</v>
       </c>
       <c r="I150" t="n">
-        <v>-22.975875648794805</v>
+        <v>-22.975875458034988</v>
       </c>
       <c r="J150" t="n">
-        <v>1555.608677113076</v>
+        <v>1555.7017934200333</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.701289498587E12</v>
+        <v>1.699843244421E14</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -4939,7 +4939,7 @@
         <v>7.24168</v>
       </c>
       <c r="E151" t="n">
-        <v>7.55562345702408</v>
+        <v>7.144317431874276</v>
       </c>
       <c r="F151" t="n">
         <v>2.0</v>
@@ -4954,12 +4954,12 @@
         <v>-22.976401762985574</v>
       </c>
       <c r="J151" t="n">
-        <v>1630.2707220784523</v>
+        <v>1630.388160120172</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.701289502436E12</v>
+        <v>1.699863263028E14</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -4968,30 +4968,30 @@
         <v>18</v>
       </c>
       <c r="D152" t="n">
-        <v>18.304380928191495</v>
+        <v>19.68692</v>
       </c>
       <c r="E152" t="n">
-        <v>6.503194223677543</v>
+        <v>7.606018213278361</v>
       </c>
       <c r="F152" t="n">
         <v>2.0</v>
       </c>
       <c r="G152" t="n">
-        <v>15285.36323299584</v>
+        <v>3112.806682050462</v>
       </c>
       <c r="H152" t="n">
-        <v>-43.189022600324186</v>
+        <v>-43.18902936151098</v>
       </c>
       <c r="I152" t="n">
-        <v>-22.97630385334117</v>
+        <v>-22.97630327323686</v>
       </c>
       <c r="J152" t="n">
-        <v>1743.7888675277022</v>
+        <v>1744.6003682528465</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.701289505959E12</v>
+        <v>1.699882901352E14</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5000,30 +5000,30 @@
         <v>18</v>
       </c>
       <c r="D153" t="n">
-        <v>13.579903913389199</v>
+        <v>13.378614577217158</v>
       </c>
       <c r="E153" t="n">
-        <v>5.925370657020645</v>
+        <v>6.3074296531908445</v>
       </c>
       <c r="F153" t="n">
         <v>2.0</v>
       </c>
       <c r="G153" t="n">
-        <v>11513.931488858138</v>
+        <v>11361.030558472557</v>
       </c>
       <c r="H153" t="n">
-        <v>-43.18996669194698</v>
+        <v>-43.18996375334473</v>
       </c>
       <c r="I153" t="n">
-        <v>-22.97622277150521</v>
+        <v>-22.976223023861877</v>
       </c>
       <c r="J153" t="n">
-        <v>1840.8584072965148</v>
+        <v>1840.672602853388</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.701289508755E12</v>
+        <v>1.699898808339E14</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -5032,30 +5032,30 @@
         <v>19</v>
       </c>
       <c r="D154" t="n">
-        <v>0.24920788644929417</v>
+        <v>0.0</v>
       </c>
       <c r="E154" t="n">
-        <v>8.128642886847405</v>
+        <v>7.213896678218379</v>
       </c>
       <c r="F154" t="n">
         <v>2.0</v>
       </c>
       <c r="G154" t="n">
-        <v>2754.7609340444615</v>
+        <v>2624.722222222222</v>
       </c>
       <c r="H154" t="n">
-        <v>-43.18408266377984</v>
+        <v>-43.1840828422253</v>
       </c>
       <c r="I154" t="n">
-        <v>-22.97221543708647</v>
+        <v>-22.97221558955183</v>
       </c>
       <c r="J154" t="n">
-        <v>1.9938881662351677</v>
+        <v>1.9689650834352188</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.701289514125E12</v>
+        <v>1.699928906821E14</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -5067,7 +5067,7 @@
         <v>18.232776</v>
       </c>
       <c r="E155" t="n">
-        <v>6.4308229913496415</v>
+        <v>9.47550452983998</v>
       </c>
       <c r="F155" t="n">
         <v>2.0</v>
@@ -5076,18 +5076,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H155" t="n">
-        <v>-43.18304624234167</v>
+        <v>-43.183045701023715</v>
       </c>
       <c r="I155" t="n">
-        <v>-22.971329894643684</v>
+        <v>-22.971329432520086</v>
       </c>
       <c r="J155" t="n">
-        <v>146.7499140881814</v>
+        <v>146.82549172657974</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.70128951543E12</v>
+        <v>1.699936024783E14</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -5099,7 +5099,7 @@
         <v>18.232776</v>
       </c>
       <c r="E156" t="n">
-        <v>7.171314365265269</v>
+        <v>5.28161438044827</v>
       </c>
       <c r="F156" t="n">
         <v>2.0</v>
@@ -5108,18 +5108,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H156" t="n">
-        <v>-43.18267488821812</v>
+        <v>-43.182674294311425</v>
       </c>
       <c r="I156" t="n">
-        <v>-22.971046618692238</v>
+        <v>-22.971046215469467</v>
       </c>
       <c r="J156" t="n">
-        <v>196.15733976931097</v>
+        <v>196.23277993228746</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.70128952383E12</v>
+        <v>1.699984613269E14</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5131,7 +5131,7 @@
         <v>6.318834</v>
       </c>
       <c r="E157" t="n">
-        <v>5.596047727213844</v>
+        <v>7.376380980300679</v>
       </c>
       <c r="F157" t="n">
         <v>2.0</v>
@@ -5140,18 +5140,18 @@
         <v>6400.7700958107325</v>
       </c>
       <c r="H157" t="n">
-        <v>-43.1803240692839</v>
+        <v>-43.18032449705719</v>
       </c>
       <c r="I157" t="n">
-        <v>-22.96943579782717</v>
+        <v>-22.96943524469495</v>
       </c>
       <c r="J157" t="n">
-        <v>500.63716690696316</v>
+        <v>500.700321512028</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.701289526007E12</v>
+        <v>1.699996940645E14</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5163,7 +5163,7 @@
         <v>11.408897999999995</v>
       </c>
       <c r="E158" t="n">
-        <v>9.586624503277669</v>
+        <v>7.852986968174892</v>
       </c>
       <c r="F158" t="n">
         <v>2.0</v>
@@ -5172,18 +5172,18 @@
         <v>9898.387363481284</v>
       </c>
       <c r="H158" t="n">
-        <v>-43.18059544465936</v>
+        <v>-43.180595497816675</v>
       </c>
       <c r="I158" t="n">
-        <v>-22.969459136965707</v>
+        <v>-22.969459170031797</v>
       </c>
       <c r="J158" t="n">
-        <v>536.1023973025524</v>
+        <v>536.0787249816925</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.70128952901E12</v>
+        <v>1.700015338615E14</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5195,7 +5195,7 @@
         <v>18.232776</v>
       </c>
       <c r="E159" t="n">
-        <v>6.601292102260755</v>
+        <v>8.336833802183373</v>
       </c>
       <c r="F159" t="n">
         <v>2.0</v>
@@ -5204,18 +5204,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H159" t="n">
-        <v>-43.1815688797865</v>
+        <v>-43.181568931683806</v>
       </c>
       <c r="I159" t="n">
-        <v>-22.970072083238126</v>
+        <v>-22.97007211795446</v>
       </c>
       <c r="J159" t="n">
-        <v>656.8464719381125</v>
+        <v>656.8227901958261</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.70128953132E12</v>
+        <v>1.70002934753E14</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5227,7 +5227,7 @@
         <v>18.232776</v>
       </c>
       <c r="E160" t="n">
-        <v>8.478552721357579</v>
+        <v>8.884961888690977</v>
       </c>
       <c r="F160" t="n">
         <v>2.0</v>
@@ -5236,18 +5236,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H160" t="n">
-        <v>-43.18238936917368</v>
+        <v>-43.182389420745025</v>
       </c>
       <c r="I160" t="n">
-        <v>-22.97062206265232</v>
+        <v>-22.970622097769535</v>
       </c>
       <c r="J160" t="n">
-        <v>760.7500806303289</v>
+        <v>760.7263970287602</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.701289533467E12</v>
+        <v>1.700042463798E14</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5259,7 +5259,7 @@
         <v>18.232776</v>
       </c>
       <c r="E161" t="n">
-        <v>6.62549020533639</v>
+        <v>6.974554090280017</v>
       </c>
       <c r="F161" t="n">
         <v>2.0</v>
@@ -5268,18 +5268,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H161" t="n">
-        <v>-43.18315407754864</v>
+        <v>-43.18315412477244</v>
       </c>
       <c r="I161" t="n">
-        <v>-22.971178978991023</v>
+        <v>-22.971179019044875</v>
       </c>
       <c r="J161" t="n">
-        <v>860.6830005192389</v>
+        <v>860.6593104997853</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.701289533731E12</v>
+        <v>1.70004398882E14</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5291,7 +5291,7 @@
         <v>18.232776</v>
       </c>
       <c r="E162" t="n">
-        <v>6.6718521249441824</v>
+        <v>7.47610266268098</v>
       </c>
       <c r="F162" t="n">
         <v>2.0</v>
@@ -5300,18 +5300,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H162" t="n">
-        <v>-43.18324575243147</v>
+        <v>-43.183232702346345</v>
       </c>
       <c r="I162" t="n">
-        <v>-22.971256785260863</v>
+        <v>-22.97124571249239</v>
       </c>
       <c r="J162" t="n">
-        <v>873.4476997515443</v>
+        <v>871.60059218152</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.701289536748E12</v>
+        <v>1.700063251235E14</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5323,7 +5323,7 @@
         <v>18.232776</v>
       </c>
       <c r="E163" t="n">
-        <v>8.115734623711496</v>
+        <v>9.071021137666259</v>
       </c>
       <c r="F163" t="n">
         <v>2.0</v>
@@ -5332,18 +5332,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H163" t="n">
-        <v>-43.1842790960102</v>
+        <v>-43.18427914166145</v>
       </c>
       <c r="I163" t="n">
-        <v>-22.972134499288956</v>
+        <v>-22.972134540799267</v>
       </c>
       <c r="J163" t="n">
-        <v>1017.3823866728046</v>
+        <v>1017.3586891389236</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.701289537357E12</v>
+        <v>1.700066933932E14</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5355,7 +5355,7 @@
         <v>18.232776</v>
       </c>
       <c r="E164" t="n">
-        <v>8.115734623711496</v>
+        <v>9.071021137666259</v>
       </c>
       <c r="F164" t="n">
         <v>2.0</v>
@@ -5364,18 +5364,18 @@
         <v>2868.6273834517037</v>
       </c>
       <c r="H164" t="n">
-        <v>-43.18449991422997</v>
+        <v>-43.1844999570827</v>
       </c>
       <c r="I164" t="n">
-        <v>-22.972301850917482</v>
+        <v>-22.972301894861864</v>
       </c>
       <c r="J164" t="n">
-        <v>1048.2388783422207</v>
+        <v>1048.214929657762</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.701289544124E12</v>
+        <v>1.700114295069E14</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5387,7 +5387,7 @@
         <v>13.520000000000039</v>
       </c>
       <c r="E165" t="n">
-        <v>8.800362103652583</v>
+        <v>9.334064231931588</v>
       </c>
       <c r="F165" t="n">
         <v>2.0</v>
@@ -5402,12 +5402,12 @@
         <v>-22.973484871795712</v>
       </c>
       <c r="J165" t="n">
-        <v>1230.119425820612</v>
+        <v>1230.216742961323</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.701289544305E12</v>
+        <v>1.700115460483E14</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5419,7 +5419,7 @@
         <v>14.820000000000038</v>
       </c>
       <c r="E166" t="n">
-        <v>8.800362103652583</v>
+        <v>9.334064231931588</v>
       </c>
       <c r="F166" t="n">
         <v>2.0</v>
@@ -5434,12 +5434,12 @@
         <v>-22.973532372907872</v>
       </c>
       <c r="J166" t="n">
-        <v>1237.267239582136</v>
+        <v>1237.364556722847</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.701289546248E12</v>
+        <v>1.70012905691E14</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5451,7 +5451,7 @@
         <v>18.232776</v>
       </c>
       <c r="E167" t="n">
-        <v>9.574150766285454</v>
+        <v>7.054734488183323</v>
       </c>
       <c r="F167" t="n">
         <v>2.0</v>
@@ -5466,12 +5466,12 @@
         <v>-22.974244810668203</v>
       </c>
       <c r="J167" t="n">
-        <v>1345.1749638624347</v>
+        <v>1344.5959049081557</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.701289548727E12</v>
+        <v>1.700147819533E14</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5483,7 +5483,7 @@
         <v>18.232776</v>
       </c>
       <c r="E168" t="n">
-        <v>9.112196317724212</v>
+        <v>5.288425102231851</v>
       </c>
       <c r="F168" t="n">
         <v>2.0</v>
@@ -5498,12 +5498,12 @@
         <v>-22.975355591367087</v>
       </c>
       <c r="J168" t="n">
-        <v>1493.1215587671588</v>
+        <v>1492.5423450863536</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.701289549816E12</v>
+        <v>1.700156647866E14</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5515,7 +5515,7 @@
         <v>18.232776</v>
       </c>
       <c r="E169" t="n">
-        <v>7.612202074085401</v>
+        <v>7.388029253089563</v>
       </c>
       <c r="F169" t="n">
         <v>2.0</v>
@@ -5530,12 +5530,12 @@
         <v>-22.975876535836193</v>
       </c>
       <c r="J169" t="n">
-        <v>1560.6543374123378</v>
+        <v>1560.075114446878</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.701289551498E12</v>
+        <v>1.700169949594E14</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5547,7 +5547,7 @@
         <v>7.650651999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>9.384607040831899</v>
+        <v>5.584409440348347</v>
       </c>
       <c r="F170" t="n">
         <v>2.0</v>
@@ -5556,18 +5556,18 @@
         <v>7276.631944152616</v>
       </c>
       <c r="H170" t="n">
-        <v>-43.18791861503268</v>
+        <v>-43.18791412735689</v>
       </c>
       <c r="I170" t="n">
-        <v>-22.976401846960197</v>
+        <v>-22.976402748157906</v>
       </c>
       <c r="J170" t="n">
-        <v>1635.153290181028</v>
+        <v>1634.0853097778652</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.701289553526E12</v>
+        <v>1.700186555759E14</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5579,7 +5579,7 @@
         <v>20.840138</v>
       </c>
       <c r="E171" t="n">
-        <v>5.437940043106718</v>
+        <v>6.8891074512969945</v>
       </c>
       <c r="F171" t="n">
         <v>2.0</v>
@@ -5588,18 +5588,18 @@
         <v>3330.0584288157183</v>
       </c>
       <c r="H171" t="n">
-        <v>-43.189027589293495</v>
+        <v>-43.1890336727327</v>
       </c>
       <c r="I171" t="n">
-        <v>-22.976303425291672</v>
+        <v>-22.97630290333755</v>
       </c>
       <c r="J171" t="n">
-        <v>1749.2280748910277</v>
+        <v>1749.2572932189946</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.701289555382E12</v>
+        <v>1.700202712359E14</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -5608,30 +5608,30 @@
         <v>19</v>
       </c>
       <c r="D172" t="n">
-        <v>13.767579335429375</v>
+        <v>13.633498893616988</v>
       </c>
       <c r="E172" t="n">
-        <v>5.2324575032966045</v>
+        <v>7.0165084557823985</v>
       </c>
       <c r="F172" t="n">
         <v>2.0</v>
       </c>
       <c r="G172" t="n">
-        <v>11657.064228327055</v>
+        <v>11554.749883788469</v>
       </c>
       <c r="H172" t="n">
-        <v>-43.18996924923767</v>
+        <v>-43.18996742230624</v>
       </c>
       <c r="I172" t="n">
-        <v>-22.976222551894217</v>
+        <v>-22.976222708784565</v>
       </c>
       <c r="J172" t="n">
-        <v>1846.0475988864819</v>
+        <v>1845.263494811254</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.701289556878E12</v>
+        <v>1.700215216856E14</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -5640,30 +5640,30 @@
         <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.259712523335591</v>
+        <v>0.0</v>
       </c>
       <c r="E173" t="n">
-        <v>7.983356184615332</v>
+        <v>5.3956627061296905</v>
       </c>
       <c r="F173" t="n">
         <v>2.0</v>
       </c>
       <c r="G173" t="n">
-        <v>2767.3752265413636</v>
+        <v>2624.722222222222</v>
       </c>
       <c r="H173" t="n">
-        <v>-43.184082656257985</v>
+        <v>-43.1840828422253</v>
       </c>
       <c r="I173" t="n">
-        <v>-22.972215430659734</v>
+        <v>-22.97221558955183</v>
       </c>
       <c r="J173" t="n">
-        <v>2.1102765252378326</v>
+        <v>2.084302857201719</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.701289559927E12</v>
+        <v>1.700237552129E14</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -5675,7 +5675,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E174" t="n">
-        <v>5.930808028701202</v>
+        <v>9.116103014984883</v>
       </c>
       <c r="F174" t="n">
         <v>2.0</v>
@@ -5684,18 +5684,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H174" t="n">
-        <v>-43.1830395122064</v>
+        <v>-43.18305143544836</v>
       </c>
       <c r="I174" t="n">
-        <v>-22.971324149121493</v>
+        <v>-22.97133432800327</v>
       </c>
       <c r="J174" t="n">
-        <v>147.804879935872</v>
+        <v>146.14021996145243</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.701289560596E12</v>
+        <v>1.700242391836E14</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -5707,7 +5707,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E175" t="n">
-        <v>5.930808028701202</v>
+        <v>9.116103014984883</v>
       </c>
       <c r="F175" t="n">
         <v>2.0</v>
@@ -5716,18 +5716,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H175" t="n">
-        <v>-43.18267473619156</v>
+        <v>-43.182674721727295</v>
       </c>
       <c r="I175" t="n">
-        <v>-22.971046515476406</v>
+        <v>-22.971046505656144</v>
       </c>
       <c r="J175" t="n">
-        <v>196.29225195094634</v>
+        <v>196.29412418410993</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.701289565494E12</v>
+        <v>1.700275111478E14</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -5736,30 +5736,30 @@
         <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>5.5355739999999996</v>
+        <v>5.795573999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>6.4021201135228605</v>
+        <v>8.713014143727827</v>
       </c>
       <c r="F176" t="n">
         <v>2.0</v>
       </c>
       <c r="G176" t="n">
-        <v>2147.025744871609</v>
+        <v>6064.2713035396055</v>
       </c>
       <c r="H176" t="n">
-        <v>-43.18031976432867</v>
+        <v>-43.1803230460793</v>
       </c>
       <c r="I176" t="n">
-        <v>-22.969441364349144</v>
+        <v>-22.96943712088178</v>
       </c>
       <c r="J176" t="n">
-        <v>499.9884925967443</v>
+        <v>500.5682420585933</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.701289567142E12</v>
+        <v>1.700286218418E14</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -5768,30 +5768,30 @@
         <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>3.3024849027777687</v>
+        <v>3.119999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>7.507488358909622</v>
+        <v>6.697128156331344</v>
       </c>
       <c r="F177" t="n">
         <v>2.0</v>
       </c>
       <c r="G177" t="n">
-        <v>4520.044198814031</v>
+        <v>4410.845262222219</v>
       </c>
       <c r="H177" t="n">
-        <v>-43.180578452358205</v>
+        <v>-43.180584031957316</v>
       </c>
       <c r="I177" t="n">
-        <v>-22.969448567037993</v>
+        <v>-22.969452037783874</v>
       </c>
       <c r="J177" t="n">
-        <v>534.0914889617221</v>
+        <v>534.8064237802695</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.701289569677E12</v>
+        <v>1.70030091228E14</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -5803,7 +5803,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E178" t="n">
-        <v>8.702451321884723</v>
+        <v>7.2462010252602775</v>
       </c>
       <c r="F178" t="n">
         <v>2.0</v>
@@ -5812,18 +5812,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H178" t="n">
-        <v>-43.181568982147574</v>
+        <v>-43.18156705982593</v>
       </c>
       <c r="I178" t="n">
-        <v>-22.970072151711836</v>
+        <v>-22.97007086578861</v>
       </c>
       <c r="J178" t="n">
-        <v>656.9480168156576</v>
+        <v>656.7302508369474</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.701289571341E12</v>
+        <v>1.700310515624E14</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
@@ -5835,7 +5835,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E179" t="n">
-        <v>6.655567199345681</v>
+        <v>6.687156311723789</v>
       </c>
       <c r="F179" t="n">
         <v>2.0</v>
@@ -5844,18 +5844,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H179" t="n">
-        <v>-43.18237131184371</v>
+        <v>-43.18238248423273</v>
       </c>
       <c r="I179" t="n">
-        <v>-22.970609766618356</v>
+        <v>-22.97061737439177</v>
       </c>
       <c r="J179" t="n">
-        <v>758.5393338118587</v>
+        <v>759.9874667023416</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.70128957298E12</v>
+        <v>1.700319943175E14</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -5867,7 +5867,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E180" t="n">
-        <v>7.488008595660421</v>
+        <v>6.093390274394467</v>
       </c>
       <c r="F180" t="n">
         <v>2.0</v>
@@ -5876,18 +5876,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H180" t="n">
-        <v>-43.18314713858397</v>
+        <v>-43.1831573691212</v>
       </c>
       <c r="I180" t="n">
-        <v>-22.971173093563383</v>
+        <v>-22.97118177080695</v>
       </c>
       <c r="J180" t="n">
-        <v>859.805728052567</v>
+        <v>861.2558192284067</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.701289573195E12</v>
+        <v>1.700321350341E14</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -5899,7 +5899,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E181" t="n">
-        <v>7.488008595660421</v>
+        <v>6.093390274394467</v>
       </c>
       <c r="F181" t="n">
         <v>2.0</v>
@@ -5908,18 +5908,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H181" t="n">
-        <v>-43.18324286964503</v>
+        <v>-43.18326505469205</v>
       </c>
       <c r="I181" t="n">
-        <v>-22.9712543392671</v>
+        <v>-22.971273162890615</v>
       </c>
       <c r="J181" t="n">
-        <v>873.1349692361957</v>
+        <v>876.249616572186</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.701289575366E12</v>
+        <v>1.700335175184E14</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -5931,7 +5931,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E182" t="n">
-        <v>5.607276471619261</v>
+        <v>9.380474962660745</v>
       </c>
       <c r="F182" t="n">
         <v>2.0</v>
@@ -5940,18 +5940,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H182" t="n">
-        <v>-43.18429405231982</v>
+        <v>-43.18426919971203</v>
       </c>
       <c r="I182" t="n">
-        <v>-22.972148098941105</v>
+        <v>-22.97212550066455</v>
       </c>
       <c r="J182" t="n">
-        <v>1019.6229270670152</v>
+        <v>1016.0729557424435</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.701289575765E12</v>
+        <v>1.700337821277E14</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
@@ -5963,7 +5963,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E183" t="n">
-        <v>5.607276471619261</v>
+        <v>9.380474962660745</v>
       </c>
       <c r="F183" t="n">
         <v>2.0</v>
@@ -5972,18 +5972,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H183" t="n">
-        <v>-43.18449751223592</v>
+        <v>-43.18448505403844</v>
       </c>
       <c r="I183" t="n">
-        <v>-22.97229938773392</v>
+        <v>-22.97228661217046</v>
       </c>
       <c r="J183" t="n">
-        <v>1048.0436974804443</v>
+        <v>1046.1681380188047</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.701289578372E12</v>
+        <v>1.700354301223E14</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -5995,7 +5995,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E184" t="n">
-        <v>9.357982329738002</v>
+        <v>7.810678706009948</v>
       </c>
       <c r="F184" t="n">
         <v>2.0</v>
@@ -6004,18 +6004,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H184" t="n">
-        <v>-43.185672712161946</v>
+        <v>-43.18567111406817</v>
       </c>
       <c r="I184" t="n">
-        <v>-22.973461774030714</v>
+        <v>-22.973460167328025</v>
       </c>
       <c r="J184" t="n">
-        <v>1226.527674413217</v>
+        <v>1225.6647345762028</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.701289578498E12</v>
+        <v>1.700355081673E14</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -6027,7 +6027,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E185" t="n">
-        <v>9.357982329738002</v>
+        <v>7.810678706009948</v>
       </c>
       <c r="F185" t="n">
         <v>2.0</v>
@@ -6036,18 +6036,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H185" t="n">
-        <v>-43.18572761285651</v>
+        <v>-43.1857260112826</v>
       </c>
       <c r="I185" t="n">
-        <v>-22.973517100585116</v>
+        <v>-22.973515484593655</v>
       </c>
       <c r="J185" t="n">
-        <v>1234.8605974415661</v>
+        <v>1233.9966654268753</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.701289580012E12</v>
+        <v>1.700364845662E14</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
@@ -6059,7 +6059,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E186" t="n">
-        <v>7.233529188232668</v>
+        <v>7.361561898325478</v>
       </c>
       <c r="F186" t="n">
         <v>2.0</v>
@@ -6068,18 +6068,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H186" t="n">
-        <v>-43.186375863126194</v>
+        <v>-43.18638389002526</v>
       </c>
       <c r="I186" t="n">
-        <v>-22.974233070281098</v>
+        <v>-22.97424352691291</v>
       </c>
       <c r="J186" t="n">
-        <v>1338.5358378238739</v>
+        <v>1339.341238622956</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.701289582132E12</v>
+        <v>1.700378857326E14</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6091,7 +6091,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E187" t="n">
-        <v>8.875375899564892</v>
+        <v>5.977576838510695</v>
       </c>
       <c r="F187" t="n">
         <v>2.0</v>
@@ -6100,18 +6100,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H187" t="n">
-        <v>-43.187174883491444</v>
+        <v>-43.187181935414074</v>
       </c>
       <c r="I187" t="n">
-        <v>-22.97534764862516</v>
+        <v>-22.97535866893943</v>
       </c>
       <c r="J187" t="n">
-        <v>1487.0558761679752</v>
+        <v>1487.8597671560854</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.701289583088E12</v>
+        <v>1.700385228346E14</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6123,7 +6123,7 @@
         <v>16.658136000000002</v>
       </c>
       <c r="E188" t="n">
-        <v>7.792811027649369</v>
+        <v>6.499861866372634</v>
       </c>
       <c r="F188" t="n">
         <v>2.0</v>
@@ -6132,18 +6132,18 @@
         <v>2641.653011929016</v>
       </c>
       <c r="H188" t="n">
-        <v>-43.187510162982406</v>
+        <v>-43.18752492414679</v>
       </c>
       <c r="I188" t="n">
-        <v>-22.97586199434353</v>
+        <v>-22.975886217139095</v>
       </c>
       <c r="J188" t="n">
-        <v>1553.759699350462</v>
+        <v>1556.229741724466</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.701289584639E12</v>
+        <v>1.70039458056E14</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -6152,30 +6152,30 @@
         <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>7.272372</v>
+        <v>7.012372</v>
       </c>
       <c r="E189" t="n">
-        <v>8.674882853175228</v>
+        <v>5.543160008591261</v>
       </c>
       <c r="F189" t="n">
         <v>2.0</v>
       </c>
       <c r="G189" t="n">
-        <v>7025.0269188973325</v>
+        <v>6853.396089726667</v>
       </c>
       <c r="H189" t="n">
-        <v>-43.1879222194784</v>
+        <v>-43.187912956935236</v>
       </c>
       <c r="I189" t="n">
-        <v>-22.976401123129335</v>
+        <v>-22.97640298319746</v>
       </c>
       <c r="J189" t="n">
-        <v>1630.493845257886</v>
+        <v>1628.9046222539018</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.701289586453E12</v>
+        <v>1.700406272161E14</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
@@ -6187,7 +6187,7 @@
         <v>19.040318</v>
       </c>
       <c r="E190" t="n">
-        <v>7.304381355416335</v>
+        <v>9.186929406243234</v>
       </c>
       <c r="F190" t="n">
         <v>2.0</v>
@@ -6196,18 +6196,18 @@
         <v>3000.130581620045</v>
       </c>
       <c r="H190" t="n">
-        <v>-43.18903885598588</v>
+        <v>-43.189036490128444</v>
       </c>
       <c r="I190" t="n">
-        <v>-22.976302458618658</v>
+        <v>-22.976302661607296</v>
       </c>
       <c r="J190" t="n">
-        <v>1745.3480214147496</v>
+        <v>1744.486649778109</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.701289588232E12</v>
+        <v>1.700418504825E14</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -6216,10 +6216,10 @@
         <v>20</v>
       </c>
       <c r="D191" t="n">
-        <v>4.026612364583368</v>
+        <v>4.0195416647287265</v>
       </c>
       <c r="E191" t="n">
-        <v>5.530453780070715</v>
+        <v>8.129792212431733</v>
       </c>
       <c r="F191" t="n">
         <v>2.0</v>
@@ -6228,13 +6228,13 @@
         <v>0.0</v>
       </c>
       <c r="H191" t="n">
-        <v>-43.18995061227665</v>
+        <v>-43.18995066732967</v>
       </c>
       <c r="I191" t="n">
-        <v>-22.976224152369877</v>
+        <v>-22.976224147642117</v>
       </c>
       <c r="J191" t="n">
-        <v>1839.0929225105813</v>
+        <v>1838.4804628569082</v>
       </c>
     </row>
   </sheetData>
